--- a/data/generated/excel/vehicles_in_ttss.xlsx
+++ b/data/generated/excel/vehicles_in_ttss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G308"/>
+  <dimension ref="A1:G270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>50.094512939453</v>
+        <v>50.102123260498</v>
       </c>
       <c r="E2" t="n">
-        <v>20.012742996216</v>
+        <v>20.011701583862</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -501,7 +501,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>34 days ago</t>
+          <t>36 days ago</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -528,18 +528,18 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>50.080459594727</v>
+        <v>50.084991455078</v>
       </c>
       <c r="E4" t="n">
-        <v>20.026250839233</v>
+        <v>20.063507080078</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mistrzejowice</t>
+          <t>Bardosa</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -551,22 +551,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>2 hours ago</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50.076019287109</v>
+        <v>50.07360458374</v>
       </c>
       <c r="E5" t="n">
-        <v>19.940000534058</v>
+        <v>19.991214752197</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dworzec Towarowy</t>
+          <t>Wieczysta</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -582,14 +582,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>31 minutes ago</t>
+          <t>2 hours ago</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>50.079048156738</v>
+        <v>50.07861328125</v>
       </c>
       <c r="E6" t="n">
-        <v>20.063299179077</v>
+        <v>20.061492919922</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -609,18 +609,18 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>4 hours ago</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>50.084423065186</v>
+        <v>50.095081329346</v>
       </c>
       <c r="E7" t="n">
-        <v>20.020763397217</v>
+        <v>19.996389389038</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bardosa</t>
+          <t>Mistrzejowice</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -632,22 +632,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9 minutes ago</t>
+          <t>3 hours ago</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>50.071872711182</v>
+        <v>50.072532653809</v>
       </c>
       <c r="E8" t="n">
-        <v>19.983888626099</v>
+        <v>20.038681030273</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Wieczysta</t>
+          <t>Kombinat</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -663,18 +663,18 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>5 hours ago</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>50.064743041992</v>
+        <v>50.065517425537</v>
       </c>
       <c r="E9" t="n">
-        <v>19.947534561157</v>
+        <v>19.958055496216</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kombinat</t>
+          <t>Dworzec Towarowy</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -690,18 +690,18 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>50.06665802002</v>
+        <v>50.076816558838</v>
       </c>
       <c r="E10" t="n">
-        <v>20.070903778076</v>
+        <v>20.0309715271</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Os.Piastów</t>
+          <t>Pleszów</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -717,14 +717,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>22 hours ago</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>50.076725006104</v>
+        <v>50.07266998291</v>
       </c>
       <c r="E11" t="n">
-        <v>20.031145095825</v>
+        <v>20.116666793823</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>108 days ago</t>
+          <t>110 days ago</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>11 days ago</t>
+          <t>13 days ago</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -798,14 +798,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2 minutes ago</t>
+          <t>2 hours ago</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>50.077659606934</v>
+        <v>50.079025268555</v>
       </c>
       <c r="E14" t="n">
-        <v>20.057985305786</v>
+        <v>20.063194274902</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -825,14 +825,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>12 hours ago</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>50.038185119629</v>
+        <v>50.079139709473</v>
       </c>
       <c r="E15" t="n">
-        <v>19.982986450195</v>
+        <v>20.064582824707</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -852,14 +852,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>18 minutes ago</t>
+          <t>3 hours ago</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>50.077930450439</v>
+        <v>50.075973510742</v>
       </c>
       <c r="E16" t="n">
-        <v>20.058853149414</v>
+        <v>20.05163192749</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -879,14 +879,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>50.078342437744</v>
+        <v>50.077770233154</v>
       </c>
       <c r="E17" t="n">
-        <v>20.060451507568</v>
+        <v>20.058193206787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>118 days ago</t>
+          <t>120 days ago</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -933,18 +933,18 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>2 hours ago</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>50.064697265625</v>
+        <v>50.079162597656</v>
       </c>
       <c r="E19" t="n">
-        <v>19.946701049805</v>
+        <v>20.064479827881</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Dworzec Towarowy</t>
+          <t>Kombinat</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -964,14 +964,14 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>50.094833374023</v>
+        <v>50.083786010742</v>
       </c>
       <c r="E20" t="n">
-        <v>19.995971679688</v>
+        <v>20.06555557251</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Mistrzejowice</t>
+          <t>Bardosa</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -987,7 +987,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>97 days ago</t>
+          <t>99 days ago</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1014,18 +1014,18 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>9 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>50.067520141602</v>
+        <v>50.09481048584</v>
       </c>
       <c r="E22" t="n">
-        <v>20.059965133667</v>
+        <v>19.995937347412</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bardosa</t>
+          <t>Mistrzejowice</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1041,14 +1041,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>50.073989868164</v>
+        <v>50.077930450439</v>
       </c>
       <c r="E23" t="n">
-        <v>20.011701583862</v>
+        <v>20.058992385864</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>50.06453704834</v>
+        <v>50.073787689209</v>
       </c>
       <c r="E24" t="n">
-        <v>19.945104598999</v>
+        <v>19.994548797607</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>39 days ago</t>
+          <t>41 days ago</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>29 days ago</t>
+          <t>31 days ago</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1149,18 +1149,18 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>12 minutes ago</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>50.071506500244</v>
+        <v>50.018527984619</v>
       </c>
       <c r="E27" t="n">
-        <v>19.983507156372</v>
+        <v>19.888610839844</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Os.Piastów</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>5 days ago</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>19 minutes ago</t>
+          <t>3 hours ago</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1230,18 +1230,18 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>10 minutes ago</t>
+          <t>32 minutes ago</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>50.070461273193</v>
+        <v>50.0182762146</v>
       </c>
       <c r="E30" t="n">
-        <v>19.982118606567</v>
+        <v>19.888681411743</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Os.Piastów</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1257,14 +1257,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>17 minutes ago</t>
+          <t>2 hours ago</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>50.01586151123</v>
+        <v>50.015884399414</v>
       </c>
       <c r="E31" t="n">
-        <v>20.02357673645</v>
+        <v>20.023992538452</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1284,18 +1284,18 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>2 hours ago</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>50.077407836914</v>
+        <v>50.015815734863</v>
       </c>
       <c r="E32" t="n">
-        <v>19.901735305786</v>
+        <v>20.0234375</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1311,18 +1311,18 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>2 hours ago</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>50.015655517578</v>
+        <v>50.077247619629</v>
       </c>
       <c r="E33" t="n">
-        <v>20.021457672119</v>
+        <v>19.902048110962</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1338,18 +1338,18 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>10 hours ago</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>50.022399902344</v>
+        <v>50.05704498291</v>
       </c>
       <c r="E34" t="n">
-        <v>19.899930953979</v>
+        <v>19.944931030273</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Os.Piastów</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>46 days ago</t>
+          <t>48 days ago</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1392,14 +1392,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>16 minutes ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>50.018573760986</v>
+        <v>50.101894378662</v>
       </c>
       <c r="E36" t="n">
-        <v>19.889339447021</v>
+        <v>20.012187957764</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>46 days ago</t>
+          <t>48 days ago</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1446,18 +1446,18 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>50.102123260498</v>
+        <v>50.101871490479</v>
       </c>
       <c r="E38" t="n">
-        <v>20.011596679688</v>
+        <v>20.012535095215</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Os.Piastów</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>50.098613739014</v>
+        <v>50.030075073242</v>
       </c>
       <c r="E39" t="n">
-        <v>20.013160705566</v>
+        <v>19.912881851196</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1496,22 +1496,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>10 hours ago</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>50.077747344971</v>
+        <v>50.031646728516</v>
       </c>
       <c r="E40" t="n">
-        <v>20.024339675903</v>
+        <v>19.933853149414</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -1527,14 +1527,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>18 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>50.08699798584</v>
+        <v>50.059799194336</v>
       </c>
       <c r="E41" t="n">
-        <v>20.047847747803</v>
+        <v>19.920694351196</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1558,10 +1558,10 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>50.058025360107</v>
+        <v>50.058227539062</v>
       </c>
       <c r="E42" t="n">
-        <v>19.946943283081</v>
+        <v>19.961214065552</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1585,14 +1585,14 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>50.06237411499</v>
+        <v>50.068046569824</v>
       </c>
       <c r="E43" t="n">
-        <v>19.904270172119</v>
+        <v>20.008125305176</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Wańkowicza</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -1604,22 +1604,22 @@
         <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>10 minutes ago</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>50.032238006592</v>
+        <v>50.089595794678</v>
       </c>
       <c r="E44" t="n">
-        <v>19.971561431885</v>
+        <v>19.931354522705</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Cmentarz Rakowicki</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -1631,22 +1631,22 @@
         <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>8 hours ago</t>
+          <t>12 hours ago</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>50.031215667725</v>
+        <v>50.03199005127</v>
       </c>
       <c r="E45" t="n">
-        <v>19.933610916138</v>
+        <v>19.933645248413</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Os.Piastów</t>
+          <t>Bronowice Małe</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -1658,7 +1658,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>50.06672668457</v>
+        <v>50.0842628479</v>
       </c>
       <c r="E46" t="n">
-        <v>20.00319480896</v>
+        <v>19.933784484863</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1685,22 +1685,22 @@
         <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>33 minutes ago</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>50.073192596436</v>
+        <v>50.062896728516</v>
       </c>
       <c r="E47" t="n">
-        <v>19.986181259155</v>
+        <v>19.903610229492</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Wańkowicza</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1739,22 +1739,22 @@
         <v>49</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>50.067409515381</v>
+        <v>50.032421112061</v>
       </c>
       <c r="E49" t="n">
-        <v>20.005521774292</v>
+        <v>19.934825897217</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -1770,18 +1770,18 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>50.074035644531</v>
+        <v>50.062831878662</v>
       </c>
       <c r="E50" t="n">
-        <v>20.017881393433</v>
+        <v>19.903680801392</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Wańkowicza</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -1797,18 +1797,18 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>50.059505462646</v>
+        <v>50.062896728516</v>
       </c>
       <c r="E51" t="n">
-        <v>19.964721679688</v>
+        <v>19.903749465942</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Wańkowicza</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -1824,18 +1824,18 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>20 minutes ago</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>50.06298828125</v>
+        <v>50.062351226807</v>
       </c>
       <c r="E52" t="n">
-        <v>19.90319442749</v>
+        <v>19.904582977295</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Wańkowicza</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -1851,14 +1851,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>7 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>50.087020874023</v>
+        <v>50.031440734863</v>
       </c>
       <c r="E53" t="n">
-        <v>20.048160552979</v>
+        <v>19.934896469116</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1874,22 +1874,22 @@
         <v>54</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>3 hours ago</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>50.056907653809</v>
+        <v>50.087177276611</v>
       </c>
       <c r="E54" t="n">
-        <v>19.945104598999</v>
+        <v>20.04993057251</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -1909,10 +1909,10 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>50.06579208374</v>
+        <v>50.068820953369</v>
       </c>
       <c r="E55" t="n">
-        <v>19.959861755371</v>
+        <v>19.979825973511</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1932,18 +1932,18 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>50.059551239014</v>
+        <v>50.062965393066</v>
       </c>
       <c r="E56" t="n">
-        <v>19.926181793213</v>
+        <v>19.903263092041</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Wańkowicza</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -1959,14 +1959,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>9 hours ago</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>50.032081604004</v>
+        <v>50.062942504883</v>
       </c>
       <c r="E57" t="n">
-        <v>19.934028625488</v>
+        <v>19.903610229492</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1982,22 +1982,22 @@
         <v>58</v>
       </c>
       <c r="B58" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>50.018527984619</v>
+        <v>50.086975097656</v>
       </c>
       <c r="E58" t="n">
-        <v>19.889270782471</v>
+        <v>20.047811508179</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>50.08948135376</v>
+        <v>50.086975097656</v>
       </c>
       <c r="E59" t="n">
-        <v>19.932638168335</v>
+        <v>20.047847747803</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2044,10 +2044,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>50.062648773193</v>
+        <v>50.069435119629</v>
       </c>
       <c r="E60" t="n">
-        <v>19.903957366943</v>
+        <v>20.012847900391</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2071,14 +2071,14 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>50.086952209473</v>
+        <v>50.073535919189</v>
       </c>
       <c r="E61" t="n">
-        <v>20.047639846802</v>
+        <v>19.990556716919</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Wańkowicza</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>14 days ago</t>
+          <t>16 days ago</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -2117,22 +2117,22 @@
         <v>63</v>
       </c>
       <c r="B63" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>19 minutes ago</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>50.084423065186</v>
+        <v>50.062694549561</v>
       </c>
       <c r="E63" t="n">
-        <v>19.933715820312</v>
+        <v>19.903888702393</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Wańkowicza</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -2148,14 +2148,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>3 hours ago</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>50.074172973633</v>
+        <v>50.086929321289</v>
       </c>
       <c r="E64" t="n">
-        <v>20.017917633057</v>
+        <v>20.047916412354</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>50.059345245361</v>
+        <v>50.058910369873</v>
       </c>
       <c r="E65" t="n">
-        <v>19.924722671509</v>
+        <v>19.962568283081</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>16 days ago</t>
+          <t>18 days ago</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>8 hours ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -2252,22 +2252,22 @@
         <v>68</v>
       </c>
       <c r="B68" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>23 hours ago</t>
+          <t>22 hours ago</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>50.095310211182</v>
+        <v>50.075744628906</v>
       </c>
       <c r="E68" t="n">
-        <v>19.996250152588</v>
+        <v>19.939582824707</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Mistrzejowice</t>
+          <t>Dworzec Towarowy</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -2283,14 +2283,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>2 hours ago</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>50.053604125977</v>
+        <v>50.089412689209</v>
       </c>
       <c r="E69" t="n">
-        <v>19.948089599609</v>
+        <v>19.931667327881</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2310,14 +2310,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>18 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>50.040439605713</v>
+        <v>50.041397094727</v>
       </c>
       <c r="E70" t="n">
-        <v>19.993228912354</v>
+        <v>19.961944580078</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>5 days ago</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>20 hours ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -2391,18 +2391,18 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>50.057319641113</v>
+        <v>50.040531158447</v>
       </c>
       <c r="E73" t="n">
-        <v>19.958993911743</v>
+        <v>20.001319885254</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -2414,22 +2414,22 @@
         <v>74</v>
       </c>
       <c r="B74" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>2 hours ago</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>50.015361785889</v>
+        <v>50.088954925537</v>
       </c>
       <c r="E74" t="n">
-        <v>20.023021697998</v>
+        <v>19.931631088257</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -2445,18 +2445,18 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>9 hours ago</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>50.10200881958</v>
+        <v>50.102214813232</v>
       </c>
       <c r="E75" t="n">
-        <v>20.012153625488</v>
+        <v>20.012395858765</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Os.Piastów</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -2468,7 +2468,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="n">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2476,14 +2476,14 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>50.073490142822</v>
+        <v>50.033103942871</v>
       </c>
       <c r="E76" t="n">
-        <v>19.956493377686</v>
+        <v>19.938402175903</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Dworzec Towarowy</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -2495,22 +2495,22 @@
         <v>77</v>
       </c>
       <c r="B77" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>2 hours ago</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>50.101985931396</v>
+        <v>50.071758270264</v>
       </c>
       <c r="E77" t="n">
-        <v>20.012222290039</v>
+        <v>19.985000610352</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Pleszów</t>
+          <t>Wieczysta</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -2522,7 +2522,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="n">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2530,14 +2530,14 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>50.095016479492</v>
+        <v>50.040142059326</v>
       </c>
       <c r="E78" t="n">
-        <v>19.996389389038</v>
+        <v>20.000556945801</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Bardosa</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -2549,7 +2549,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="n">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2557,14 +2557,14 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>50.035861968994</v>
+        <v>50.069549560547</v>
       </c>
       <c r="E79" t="n">
-        <v>19.925937652588</v>
+        <v>20.06711769104</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Os.Piastów</t>
+          <t>Kopiec Wandy</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -2576,7 +2576,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2584,14 +2584,14 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>50.062305450439</v>
+        <v>50.076065063477</v>
       </c>
       <c r="E80" t="n">
-        <v>19.904653549194</v>
+        <v>19.939792633057</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>27 days ago</t>
+          <t>30 days ago</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -2630,22 +2630,22 @@
         <v>82</v>
       </c>
       <c r="B82" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>50.07483291626</v>
+        <v>50.067680358887</v>
       </c>
       <c r="E82" t="n">
-        <v>20.047117233276</v>
+        <v>20.064479827881</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Os.Piastów</t>
+          <t>Bardosa</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -2661,14 +2661,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>50.065700531006</v>
+        <v>50.065517425537</v>
       </c>
       <c r="E83" t="n">
-        <v>19.958854675293</v>
+        <v>19.956493377686</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2684,22 +2684,22 @@
         <v>84</v>
       </c>
       <c r="B84" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>2 hours ago</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>50.040050506592</v>
+        <v>50.078525543213</v>
       </c>
       <c r="E84" t="n">
-        <v>20.001493453979</v>
+        <v>20.066041946411</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Bardosa</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -2708,91 +2708,91 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B85" t="n">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>11 hours ago</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>50.075790405273</v>
+        <v>50.085334777832</v>
       </c>
       <c r="E85" t="n">
-        <v>19.941076278687</v>
+        <v>20.063680648804</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Cmentarz Rakowicki</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B86" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>6 hours ago</t>
+          <t>14 days ago</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>50.01549911499</v>
+        <v>50.075996398926</v>
       </c>
       <c r="E86" t="n">
-        <v>19.971284866333</v>
+        <v>19.939653396606</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Dworzec Towarowy</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B87" t="n">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>12 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>50.075996398926</v>
+        <v>50.048114776611</v>
       </c>
       <c r="E87" t="n">
-        <v>19.939653396606</v>
+        <v>19.943368911743</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Dworzec Towarowy</t>
+          <t>Cmentarz Rakowicki</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88" t="n">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2800,26 +2800,26 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>50.0563621521</v>
+        <v>50.040439605713</v>
       </c>
       <c r="E88" t="n">
-        <v>19.958993911743</v>
+        <v>20.000659942627</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Wieczysta</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2827,26 +2827,26 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>50.06485748291</v>
+        <v>50.061347961426</v>
       </c>
       <c r="E89" t="n">
-        <v>19.959306716919</v>
+        <v>19.91100692749</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90" t="n">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2854,53 +2854,53 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>50.021167755127</v>
+        <v>50.036998748779</v>
       </c>
       <c r="E90" t="n">
-        <v>19.977569580078</v>
+        <v>19.982707977295</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Cmentarz Rakowicki</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B91" t="n">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>2 hours ago</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>50.048091888428</v>
+        <v>50.073627471924</v>
       </c>
       <c r="E91" t="n">
-        <v>19.943368911743</v>
+        <v>19.990694046021</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Cmentarz Rakowicki</t>
+          <t>Wieczysta</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B92" t="n">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2908,26 +2908,26 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>50.06485748291</v>
+        <v>50.026317596436</v>
       </c>
       <c r="E92" t="n">
-        <v>19.944688796997</v>
+        <v>19.903749465942</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Cmentarz Rakowicki</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B93" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2935,10 +2935,10 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>50.065063476562</v>
+        <v>50.015110015869</v>
       </c>
       <c r="E93" t="n">
-        <v>19.951284408569</v>
+        <v>19.944513320923</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2946,150 +2946,150 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B94" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>50 minutes ago</t>
+          <t>31 days ago</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>50.068500518799</v>
+        <v>50.073490142822</v>
       </c>
       <c r="E94" t="n">
-        <v>20.069374084473</v>
+        <v>19.989688873291</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Bardosa</t>
+          <t>Wieczysta</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>29 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>50.073490142822</v>
+        <v>50.09517288208</v>
       </c>
       <c r="E95" t="n">
-        <v>19.989688873291</v>
+        <v>19.996215820312</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Wieczysta</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B96" t="n">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>50.084445953369</v>
+        <v>50.102054595947</v>
       </c>
       <c r="E96" t="n">
-        <v>20.062568664551</v>
+        <v>20.011909484863</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Dworzec Towarowy</t>
+          <t>Os.Piastów</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B97" t="n">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>6 hours ago</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>50.073127746582</v>
+        <v>50.088840484619</v>
       </c>
       <c r="E97" t="n">
-        <v>19.956249237061</v>
+        <v>19.930728912354</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Cmentarz Rakowicki</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B98" t="n">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>50.088840484619</v>
+        <v>50.059230804443</v>
       </c>
       <c r="E98" t="n">
-        <v>19.930728912354</v>
+        <v>19.933090209961</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B99" t="n">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -3097,64 +3097,64 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>50.016296386719</v>
+        <v>50.064289093018</v>
       </c>
       <c r="E99" t="n">
-        <v>20.012985229492</v>
+        <v>19.944791793823</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Wieczysta</t>
+          <t>Pleszów</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B100" t="n">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>78 days ago</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>50.052967071533</v>
+        <v>50.073444366455</v>
       </c>
       <c r="E100" t="n">
-        <v>19.960660934448</v>
+        <v>19.987812042236</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Cmentarz Rakowicki</t>
+          <t>Wieczysta</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B101" t="n">
         <v>49</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>76 days ago</t>
+          <t>6 hours ago</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>50.073444366455</v>
+        <v>50.086338043213</v>
       </c>
       <c r="E101" t="n">
-        <v>19.987812042236</v>
+        <v>20.063714981079</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -3162,123 +3162,123 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B102" t="n">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>19 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>50.074012756348</v>
+        <v>50.073013305664</v>
       </c>
       <c r="E102" t="n">
-        <v>19.957500457764</v>
+        <v>20.036319732666</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Cmentarz Rakowicki</t>
+          <t>Os.Piastów</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B103" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>50.040393829346</v>
+        <v>50.088954925537</v>
       </c>
       <c r="E103" t="n">
-        <v>20.000694274902</v>
+        <v>19.931596755981</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B104" t="n">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>3 hours ago</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>50.057682037354</v>
+        <v>50.033149719238</v>
       </c>
       <c r="E104" t="n">
-        <v>19.958923339844</v>
+        <v>19.97642326355</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Dworzec Towarowy</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B105" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>26 minutes ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>50.073238372803</v>
+        <v>50.030780792236</v>
       </c>
       <c r="E105" t="n">
-        <v>19.987152099609</v>
+        <v>19.924617767334</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Wieczysta</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B106" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -3286,37 +3286,37 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>50.03080368042</v>
+        <v>50.101940155029</v>
       </c>
       <c r="E106" t="n">
-        <v>19.924583435059</v>
+        <v>20.012292861938</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Pleszów</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>440</v>
+        <v>451</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B107" t="n">
         <v>21</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>21 days ago</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>50.069095611572</v>
+        <v>50.069938659668</v>
       </c>
       <c r="E107" t="n">
-        <v>20.091735839844</v>
+        <v>20.066806793213</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -3324,53 +3324,53 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B108" t="n">
         <v>21</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>18 days ago</t>
+          <t>27 days ago</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>50.069938659668</v>
+        <v>50.064949035645</v>
       </c>
       <c r="E108" t="n">
-        <v>20.066806793213</v>
+        <v>20.075347900391</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Pleszów</t>
+          <t>Os.Piastów</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B109" t="n">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>25 days ago</t>
+          <t>115 days ago</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>50.064949035645</v>
+        <v>50.0954246521</v>
       </c>
       <c r="E109" t="n">
-        <v>20.075347900391</v>
+        <v>20.012535095215</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -3378,53 +3378,53 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B110" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>113 days ago</t>
+          <t>6 hours ago</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>50.0954246521</v>
+        <v>50.060394287109</v>
       </c>
       <c r="E110" t="n">
-        <v>20.012535095215</v>
+        <v>19.978403091431</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Os.Piastów</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B111" t="n">
         <v>1</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>22 hours ago</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>50.087066650391</v>
+        <v>50.087020874023</v>
       </c>
       <c r="E111" t="n">
-        <v>20.048332214355</v>
+        <v>20.047777175903</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -3432,177 +3432,177 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B112" t="n">
         <v>1</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>7 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>50.060348510742</v>
+        <v>50.06298828125</v>
       </c>
       <c r="E112" t="n">
-        <v>19.978298187256</v>
+        <v>19.903125762939</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Wańkowicza</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B113" t="n">
         <v>1</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>31 days ago</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>50.085357666016</v>
+        <v>50.08674621582</v>
       </c>
       <c r="E113" t="n">
-        <v>20.038438796997</v>
+        <v>20.045381546021</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Wańkowicza</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>18 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>50.086769104004</v>
+        <v>50.017478942871</v>
       </c>
       <c r="E114" t="n">
-        <v>20.045555114746</v>
+        <v>19.991180419922</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Wańkowicza</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>461</v>
+        <v>601</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>29 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>50.08674621582</v>
+        <v>50.029666900635</v>
       </c>
       <c r="E115" t="n">
-        <v>20.045381546021</v>
+        <v>19.974061965942</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Wańkowicza</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>462</v>
+        <v>602</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B116" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>4 minutes ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>50.069526672363</v>
+        <v>50.030826568604</v>
       </c>
       <c r="E116" t="n">
-        <v>19.980833053589</v>
+        <v>19.972917556763</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B117" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>14 days ago</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>50.036773681641</v>
+        <v>50.018688201904</v>
       </c>
       <c r="E117" t="n">
-        <v>19.940799713135</v>
+        <v>19.88885307312</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Dworzec Towarowy</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B118" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -3610,10 +3610,10 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>50.04016494751</v>
+        <v>50.066246032715</v>
       </c>
       <c r="E118" t="n">
-        <v>20.000556945801</v>
+        <v>19.938299179077</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -3621,42 +3621,42 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B119" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>12 days ago</t>
+          <t>2 hours ago</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>50.018688201904</v>
+        <v>50.012786865234</v>
       </c>
       <c r="E119" t="n">
-        <v>19.88885307312</v>
+        <v>19.927673339844</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B120" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -3664,37 +3664,37 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>50.023971557617</v>
+        <v>50.077201843262</v>
       </c>
       <c r="E120" t="n">
-        <v>19.933645248413</v>
+        <v>19.901874542236</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B121" t="n">
         <v>13</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>12 minutes ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>50.015316009521</v>
+        <v>50.01586151123</v>
       </c>
       <c r="E121" t="n">
-        <v>20.023403167725</v>
+        <v>20.02357673645</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -3702,26 +3702,26 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B122" t="n">
         <v>20</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>23 hours ago</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>50.039962768555</v>
+        <v>50.040393829346</v>
       </c>
       <c r="E122" t="n">
-        <v>20.001457214355</v>
+        <v>20.00156211853</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -3729,12 +3729,12 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B123" t="n">
         <v>72</v>
@@ -3745,107 +3745,107 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>50.039073944092</v>
+        <v>50.064811706543</v>
       </c>
       <c r="E123" t="n">
-        <v>19.964513778687</v>
+        <v>19.944549560547</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Cmentarz Rakowicki</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B124" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>50.065223693848</v>
+        <v>50.013038635254</v>
       </c>
       <c r="E124" t="n">
-        <v>19.943193435669</v>
+        <v>19.927188873291</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B125" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>50.024471282959</v>
+        <v>50.040393829346</v>
       </c>
       <c r="E125" t="n">
-        <v>19.933818817139</v>
+        <v>20.001527786255</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B126" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>23 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>50.013038635254</v>
+        <v>50.018230438232</v>
       </c>
       <c r="E126" t="n">
-        <v>19.927188873291</v>
+        <v>19.889930725098</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B127" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -3853,50 +3853,50 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>50.063011169434</v>
+        <v>50.069389343262</v>
       </c>
       <c r="E127" t="n">
-        <v>19.903263092041</v>
+        <v>19.926042556763</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B128" t="n">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>6 minutes ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>50.012401580811</v>
+        <v>50.074264526367</v>
       </c>
       <c r="E128" t="n">
-        <v>19.927118301392</v>
+        <v>19.957534790039</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B129" t="n">
         <v>17</v>
@@ -3907,131 +3907,131 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>50.021854400635</v>
+        <v>50.04642868042</v>
       </c>
       <c r="E129" t="n">
-        <v>19.899305343628</v>
+        <v>19.955173492432</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Dworzec Towarowy</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B130" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>8 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>50.071189880371</v>
+        <v>50.045520782471</v>
       </c>
       <c r="E130" t="n">
-        <v>19.982950210571</v>
+        <v>19.972846984863</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B131" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>2 hours ago</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>50.0452003479</v>
+        <v>50.01301574707</v>
       </c>
       <c r="E131" t="n">
-        <v>19.955034255981</v>
+        <v>19.927152633667</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B132" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>50.063877105713</v>
+        <v>50.0126953125</v>
       </c>
       <c r="E132" t="n">
-        <v>19.932638168335</v>
+        <v>19.927673339844</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B133" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>50.046405792236</v>
+        <v>50.062942504883</v>
       </c>
       <c r="E133" t="n">
-        <v>19.955104827881</v>
+        <v>19.903749465942</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B134" t="n">
         <v>13</v>
@@ -4042,23 +4042,23 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>50.044425964355</v>
+        <v>50.051280975342</v>
       </c>
       <c r="E134" t="n">
-        <v>19.957326889038</v>
+        <v>19.942222595215</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B135" t="n">
         <v>20</v>
@@ -4069,26 +4069,26 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>50.049118041992</v>
+        <v>50.040008544922</v>
       </c>
       <c r="E135" t="n">
-        <v>19.967222213745</v>
+        <v>20.001527786255</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B136" t="n">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -4096,53 +4096,53 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>50.040370941162</v>
+        <v>50.057498931885</v>
       </c>
       <c r="E136" t="n">
-        <v>20.000799179077</v>
+        <v>19.946285247803</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Dworzec Towarowy</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B137" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>10 hours ago</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>50.014972686768</v>
+        <v>50.013038635254</v>
       </c>
       <c r="E137" t="n">
-        <v>19.996978759766</v>
+        <v>19.927221298218</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B138" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -4150,107 +4150,107 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>50.051464080811</v>
+        <v>50.084606170654</v>
       </c>
       <c r="E138" t="n">
-        <v>19.94197845459</v>
+        <v>20.020416259766</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>624</v>
+        <v>628</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B139" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>50.030643463135</v>
+        <v>50.018367767334</v>
       </c>
       <c r="E139" t="n">
-        <v>19.925104141235</v>
+        <v>19.888610839844</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B140" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>50.094352722168</v>
+        <v>50.077247619629</v>
       </c>
       <c r="E140" t="n">
-        <v>20.011423110962</v>
+        <v>19.901527404785</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>626</v>
+        <v>630</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B141" t="n">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>21 hours ago</t>
+          <t>8 hours ago</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>50.015815734863</v>
+        <v>50.018413543701</v>
       </c>
       <c r="E141" t="n">
-        <v>20.023818969727</v>
+        <v>19.889617919922</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B142" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -4258,80 +4258,80 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>50.040393829346</v>
+        <v>50.057910919189</v>
       </c>
       <c r="E142" t="n">
-        <v>20.000694274902</v>
+        <v>19.959062576294</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B143" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>2 hours ago</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>50.043674468994</v>
+        <v>50.076953887939</v>
       </c>
       <c r="E143" t="n">
-        <v>19.946943283081</v>
+        <v>19.90305519104</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B144" t="n">
         <v>13</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>18 hours ago</t>
+          <t>2 hours ago</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>50.077247619629</v>
+        <v>50.015384674072</v>
       </c>
       <c r="E144" t="n">
-        <v>19.901527404785</v>
+        <v>20.022777557373</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>630</v>
+        <v>634</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B145" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -4339,53 +4339,53 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>50.044788360596</v>
+        <v>50.072147369385</v>
       </c>
       <c r="E145" t="n">
-        <v>19.97350692749</v>
+        <v>19.945138931274</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B146" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>11 hours ago</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>50.076110839844</v>
+        <v>50.030872344971</v>
       </c>
       <c r="E146" t="n">
-        <v>19.939687728882</v>
+        <v>19.933576583862</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Dworzec Towarowy</t>
+          <t>Pleszów</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B147" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -4393,107 +4393,107 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>50.068683624268</v>
+        <v>50.024837493896</v>
       </c>
       <c r="E147" t="n">
-        <v>19.926910400391</v>
+        <v>19.934097290039</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B148" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>2 hours ago</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>50.0139503479</v>
+        <v>50.088932037354</v>
       </c>
       <c r="E148" t="n">
-        <v>19.966007232666</v>
+        <v>19.931562423706</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B149" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>6 hours ago</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>50.017433166504</v>
+        <v>50.062782287598</v>
       </c>
       <c r="E149" t="n">
-        <v>19.991180419922</v>
+        <v>19.903854370117</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B150" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>23 hours ago</t>
+          <t>2 hours ago</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>50.04048538208</v>
+        <v>50.012672424316</v>
       </c>
       <c r="E150" t="n">
-        <v>20.000833511353</v>
+        <v>19.927568435669</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B151" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -4501,26 +4501,26 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>50.018642425537</v>
+        <v>50.015632629395</v>
       </c>
       <c r="E151" t="n">
-        <v>19.888957977295</v>
+        <v>20.023090362549</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B152" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -4528,118 +4528,118 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>50.089458465576</v>
+        <v>50.063011169434</v>
       </c>
       <c r="E152" t="n">
-        <v>19.931735992432</v>
+        <v>19.903228759766</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B153" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>3 hours ago</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>50.018367767334</v>
+        <v>50.040370941162</v>
       </c>
       <c r="E153" t="n">
-        <v>19.889652252197</v>
+        <v>20.001527786255</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B154" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>21 hours ago</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>50.077041625977</v>
+        <v>50.015769958496</v>
       </c>
       <c r="E154" t="n">
-        <v>19.90135383606</v>
+        <v>20.024200439453</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B155" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>8 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>50.032238006592</v>
+        <v>50.059093475342</v>
       </c>
       <c r="E155" t="n">
-        <v>19.933681488037</v>
+        <v>19.940034866333</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B156" t="n">
         <v>13</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>50.015838623047</v>
+        <v>50.014972686768</v>
       </c>
       <c r="E156" t="n">
-        <v>20.023506164551</v>
+        <v>19.997188568115</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -4647,42 +4647,42 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B157" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>2 hours ago</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>50.061328887939</v>
+        <v>50.077156066895</v>
       </c>
       <c r="E157" t="n">
-        <v>19.911041259766</v>
+        <v>19.90191078186</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B158" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -4690,53 +4690,53 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>50.074104309082</v>
+        <v>50.040439605713</v>
       </c>
       <c r="E158" t="n">
-        <v>20.001388549805</v>
+        <v>20.000799179077</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B159" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>5 minutes ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>50.076221466064</v>
+        <v>50.017936706543</v>
       </c>
       <c r="E159" t="n">
-        <v>19.904964447021</v>
+        <v>19.889305114746</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Dworzec Towarowy</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B160" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -4744,53 +4744,53 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>50.022171020508</v>
+        <v>50.023494720459</v>
       </c>
       <c r="E160" t="n">
-        <v>19.932674407959</v>
+        <v>19.979131698608</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B161" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>11 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>50.032238006592</v>
+        <v>50.012832641602</v>
       </c>
       <c r="E161" t="n">
-        <v>19.933750152588</v>
+        <v>19.948715209961</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>647</v>
+        <v>701</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B162" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -4798,26 +4798,26 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>50.060894012451</v>
+        <v>50.095039367676</v>
       </c>
       <c r="E162" t="n">
-        <v>19.932256698608</v>
+        <v>19.995311737061</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Mistrzejowice</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>648</v>
+        <v>702</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B163" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -4825,26 +4825,26 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>50.015769958496</v>
+        <v>50.054061889648</v>
       </c>
       <c r="E163" t="n">
-        <v>20.023471832275</v>
+        <v>19.943958282471</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Kombinat</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>649</v>
+        <v>705</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B164" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -4852,50 +4852,50 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>50.039756774902</v>
+        <v>50.071781158447</v>
       </c>
       <c r="E164" t="n">
-        <v>20.0002784729</v>
+        <v>20.035381317139</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>650</v>
+        <v>706</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B165" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>50.072555541992</v>
+        <v>50.087043762207</v>
       </c>
       <c r="E165" t="n">
-        <v>20.039131164551</v>
+        <v>20.06236076355</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Kombinat</t>
+          <t>Bronowice Małe</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>701</v>
+        <v>709</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B166" t="n">
         <v>50</v>
@@ -4906,10 +4906,10 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>50.088817596436</v>
+        <v>50.105331420898</v>
       </c>
       <c r="E166" t="n">
-        <v>19.932846069336</v>
+        <v>19.96079826355</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -4917,42 +4917,42 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>702</v>
+        <v>714</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B167" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>2 hours ago</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>50.063991546631</v>
+        <v>50.102600097656</v>
       </c>
       <c r="E167" t="n">
-        <v>19.988924026489</v>
+        <v>19.957674026489</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Mistrzejowice</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>703</v>
+        <v>715</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B168" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -4960,10 +4960,10 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>50.031169891357</v>
+        <v>50.083625793457</v>
       </c>
       <c r="E168" t="n">
-        <v>19.916042327881</v>
+        <v>19.933923721313</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -4971,15 +4971,15 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>704</v>
+        <v>716</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B169" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -4987,26 +4987,26 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>50.012626647949</v>
+        <v>50.060619354248</v>
       </c>
       <c r="E169" t="n">
-        <v>19.956701278687</v>
+        <v>19.969999313354</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Mistrzejowice</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>705</v>
+        <v>717</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B170" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -5014,26 +5014,26 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>50.014881134033</v>
+        <v>50.057888031006</v>
       </c>
       <c r="E170" t="n">
-        <v>19.941215515137</v>
+        <v>19.943853378296</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>706</v>
+        <v>719</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B171" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -5041,37 +5041,37 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>50.051052093506</v>
+        <v>50.09455871582</v>
       </c>
       <c r="E171" t="n">
-        <v>19.962118148804</v>
+        <v>20.012222290039</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Mistrzejowice</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>707</v>
+        <v>722</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="B172" t="n">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>21 hours ago</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>50.050437927246</v>
+        <v>50.085674285889</v>
       </c>
       <c r="E172" t="n">
-        <v>19.938680648804</v>
+        <v>20.062847137451</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -5079,80 +5079,80 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>708</v>
+        <v>723</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="B173" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>50.019416809082</v>
+        <v>50.077861785889</v>
       </c>
       <c r="E173" t="n">
-        <v>19.93138885498</v>
+        <v>19.938299179077</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>710</v>
+        <v>724</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="B174" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>50.095062255859</v>
+        <v>50.06759262085</v>
       </c>
       <c r="E174" t="n">
-        <v>19.995277404785</v>
+        <v>20.061805725098</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Bardosa</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>711</v>
+        <v>725</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="B175" t="n">
         <v>9</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>21 hours ago</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>50.01549911499</v>
+        <v>50.095218658447</v>
       </c>
       <c r="E175" t="n">
-        <v>20.02329826355</v>
+        <v>19.995035171509</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -5160,15 +5160,15 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>713</v>
+        <v>726</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="B176" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -5176,26 +5176,26 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>50.043811798096</v>
+        <v>50.043216705322</v>
       </c>
       <c r="E176" t="n">
-        <v>19.947048187256</v>
+        <v>19.960103988647</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Pleszów</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>714</v>
+        <v>727</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="B177" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -5203,23 +5203,23 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>50.064994812012</v>
+        <v>50.020668029785</v>
       </c>
       <c r="E177" t="n">
-        <v>19.934722900391</v>
+        <v>19.932083129883</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>716</v>
+        <v>729</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="B178" t="n">
         <v>22</v>
@@ -5230,10 +5230,10 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>50.05827331543</v>
+        <v>50.030120849609</v>
       </c>
       <c r="E178" t="n">
-        <v>19.95475769043</v>
+        <v>19.933923721313</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -5241,12 +5241,12 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>717</v>
+        <v>730</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="B179" t="n">
         <v>9</v>
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>50.074104309082</v>
+        <v>50.058364868164</v>
       </c>
       <c r="E179" t="n">
-        <v>20.004861831665</v>
+        <v>19.95923614502</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -5268,15 +5268,15 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>718</v>
+        <v>731</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="B180" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -5284,26 +5284,26 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>50.065994262695</v>
+        <v>50.073055267334</v>
       </c>
       <c r="E180" t="n">
-        <v>19.9997215271</v>
+        <v>20.018957138062</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Pleszów</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>719</v>
+        <v>734</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="B181" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -5311,26 +5311,26 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>50.102142333984</v>
+        <v>50.018756866455</v>
       </c>
       <c r="E181" t="n">
-        <v>20.011318206787</v>
+        <v>19.888784408569</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Os.Piastów</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G181" t="n">
-        <v>720</v>
+        <v>735</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="B182" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -5338,53 +5338,53 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>50.071781158447</v>
+        <v>50.073104858398</v>
       </c>
       <c r="E182" t="n">
-        <v>20.104791641235</v>
+        <v>20.021701812744</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>721</v>
+        <v>736</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="B183" t="n">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>7 hours ago</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>50.08581161499</v>
+        <v>50.07389831543</v>
       </c>
       <c r="E183" t="n">
-        <v>20.062812805176</v>
+        <v>19.999410629272</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Os.Piastów</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>722</v>
+        <v>737</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="B184" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -5392,107 +5392,107 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>50.088706970215</v>
+        <v>50.060642242432</v>
       </c>
       <c r="E184" t="n">
-        <v>19.932777404785</v>
+        <v>19.932395935059</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>724</v>
+        <v>742</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="B185" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>50.084651947021</v>
+        <v>50.105014801025</v>
       </c>
       <c r="E185" t="n">
-        <v>20.020763397217</v>
+        <v>19.959583282471</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Mistrzejowice</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>725</v>
+        <v>743</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="B186" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>22 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>50.082008361816</v>
+        <v>50.064582824707</v>
       </c>
       <c r="E186" t="n">
-        <v>19.880729675293</v>
+        <v>19.931840896606</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>726</v>
+        <v>744</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="B187" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>50.065700531006</v>
+        <v>50.013130187988</v>
       </c>
       <c r="E187" t="n">
-        <v>19.997222900391</v>
+        <v>19.948055267334</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Kombinat</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G187" t="n">
-        <v>727</v>
+        <v>801</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="B188" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -5500,26 +5500,26 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>50.028049468994</v>
+        <v>50.082077026367</v>
       </c>
       <c r="E188" t="n">
-        <v>19.975624084473</v>
+        <v>19.8828125</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Bronowice Małe</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>728</v>
+        <v>803</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="B189" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -5527,53 +5527,53 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>50.065994262695</v>
+        <v>50.059116363525</v>
       </c>
       <c r="E189" t="n">
-        <v>19.96107673645</v>
+        <v>19.93763923645</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Pleszów</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>729</v>
+        <v>804</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="B190" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>43 minutes ago</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>50.024063110352</v>
+        <v>50.030166625977</v>
       </c>
       <c r="E190" t="n">
-        <v>19.979825973511</v>
+        <v>19.934236526489</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Bronowice Małe</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>730</v>
+        <v>805</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="B191" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -5581,26 +5581,26 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>50.03044128418</v>
+        <v>50.065563201904</v>
       </c>
       <c r="E191" t="n">
-        <v>19.927743911743</v>
+        <v>19.996597290039</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Kopiec Wandy</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G191" t="n">
-        <v>732</v>
+        <v>806</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="B192" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -5608,50 +5608,50 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>50.055244445801</v>
+        <v>50.077705383301</v>
       </c>
       <c r="E192" t="n">
-        <v>19.95951461792</v>
+        <v>19.900903701782</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>733</v>
+        <v>808</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="B193" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>21 hours ago</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>50.029392242432</v>
+        <v>50.01294708252</v>
       </c>
       <c r="E193" t="n">
-        <v>19.935903549194</v>
+        <v>19.948299407959</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>734</v>
+        <v>809</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="B194" t="n">
         <v>8</v>
@@ -5662,26 +5662,26 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>50.050277709961</v>
+        <v>50.031875610352</v>
       </c>
       <c r="E194" t="n">
-        <v>19.942499160767</v>
+        <v>19.933784484863</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Bronowice Małe</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>735</v>
+        <v>810</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="B195" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -5689,26 +5689,26 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>50.014198303223</v>
+        <v>50.062488555908</v>
       </c>
       <c r="E195" t="n">
-        <v>19.998889923096</v>
+        <v>19.932117462158</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Bronowice Małe</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>736</v>
+        <v>811</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="B196" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -5716,80 +5716,80 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>50.055744171143</v>
+        <v>50.065723419189</v>
       </c>
       <c r="E196" t="n">
-        <v>19.946180343628</v>
+        <v>19.959478378296</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>737</v>
+        <v>812</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="B197" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>50.015476226807</v>
+        <v>50.012901306152</v>
       </c>
       <c r="E197" t="n">
-        <v>20.023263931274</v>
+        <v>19.927465438843</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>740</v>
+        <v>814</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="B198" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>50.104400634766</v>
+        <v>50.031509399414</v>
       </c>
       <c r="E198" t="n">
-        <v>19.964235305786</v>
+        <v>19.933923721313</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>741</v>
+        <v>815</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="B199" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -5797,26 +5797,26 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>50.012535095215</v>
+        <v>50.074264526367</v>
       </c>
       <c r="E199" t="n">
-        <v>19.927812576294</v>
+        <v>19.909999847412</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Mistrzejowice</t>
         </is>
       </c>
       <c r="G199" t="n">
-        <v>742</v>
+        <v>817</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="B200" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -5824,188 +5824,188 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>50.046611785889</v>
+        <v>50.01326751709</v>
       </c>
       <c r="E200" t="n">
-        <v>19.92506980896</v>
+        <v>19.926874160767</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Bronowice Małe</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>743</v>
+        <v>818</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="B201" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>50.023994445801</v>
+        <v>50.013221740723</v>
       </c>
       <c r="E201" t="n">
-        <v>19.901700973511</v>
+        <v>19.926839828491</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>744</v>
+        <v>819</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="B202" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>50.07954788208</v>
+        <v>50.013038635254</v>
       </c>
       <c r="E202" t="n">
-        <v>20.027082443237</v>
+        <v>19.927188873291</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G202" t="n">
-        <v>745</v>
+        <v>820</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="B203" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>19 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>50.013130187988</v>
+        <v>50.030349731445</v>
       </c>
       <c r="E203" t="n">
-        <v>19.948055267334</v>
+        <v>19.936874389648</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>801</v>
+        <v>821</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="B204" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>34 minutes ago</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>50.081962585449</v>
+        <v>50.01388168335</v>
       </c>
       <c r="E204" t="n">
-        <v>19.883646011353</v>
+        <v>19.949409484863</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>803</v>
+        <v>822</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="B205" t="n">
         <v>8</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>50.014427185059</v>
+        <v>50.012535095215</v>
       </c>
       <c r="E205" t="n">
-        <v>19.928089141846</v>
+        <v>19.927534103394</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>804</v>
+        <v>824</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B206" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>50.081279754639</v>
+        <v>50.031284332275</v>
       </c>
       <c r="E206" t="n">
-        <v>19.890035629272</v>
+        <v>19.934965133667</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>805</v>
+        <v>825</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="B207" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -6013,53 +6013,53 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>50.08166885376</v>
+        <v>50.068115234375</v>
       </c>
       <c r="E207" t="n">
-        <v>19.880937576294</v>
+        <v>19.938472747803</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>806</v>
+        <v>826</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="B208" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>50.0126953125</v>
+        <v>50.081508636475</v>
       </c>
       <c r="E208" t="n">
-        <v>19.927568435669</v>
+        <v>19.881458282471</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Bronowice Małe</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>808</v>
+        <v>829</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="B209" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -6067,26 +6067,26 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>50.059162139893</v>
+        <v>50.053218841553</v>
       </c>
       <c r="E209" t="n">
-        <v>19.937707901001</v>
+        <v>19.948888778687</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Bronowice Małe</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>809</v>
+        <v>830</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="B210" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -6094,26 +6094,26 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>50.031875610352</v>
+        <v>50.039665222168</v>
       </c>
       <c r="E210" t="n">
-        <v>19.933784484863</v>
+        <v>19.942083358765</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Pleszów</t>
         </is>
       </c>
       <c r="G210" t="n">
-        <v>810</v>
+        <v>831</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="B211" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -6121,26 +6121,26 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>50.06665802002</v>
+        <v>50.018482208252</v>
       </c>
       <c r="E211" t="n">
-        <v>19.929235458374</v>
+        <v>19.889339447021</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G211" t="n">
-        <v>811</v>
+        <v>832</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="B212" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -6148,26 +6148,26 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>50.012489318848</v>
+        <v>50.068820953369</v>
       </c>
       <c r="E212" t="n">
-        <v>19.927499771118</v>
+        <v>20.069965362549</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Kopiec Wandy</t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>812</v>
+        <v>833</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="B213" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -6175,37 +6175,37 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>50.059070587158</v>
+        <v>50.057636260986</v>
       </c>
       <c r="E213" t="n">
-        <v>19.933853149414</v>
+        <v>19.959028244019</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>813</v>
+        <v>836</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="B214" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>22 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>50.012901306152</v>
+        <v>50.012718200684</v>
       </c>
       <c r="E214" t="n">
-        <v>19.927465438843</v>
+        <v>19.927846908569</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -6213,42 +6213,42 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>814</v>
+        <v>842</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="B215" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>27 days ago</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>50.031509399414</v>
+        <v>50.032238006592</v>
       </c>
       <c r="E215" t="n">
-        <v>19.933923721313</v>
+        <v>19.935243606567</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>815</v>
+        <v>843</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="B216" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -6256,80 +6256,80 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>50.032901763916</v>
+        <v>50.02428817749</v>
       </c>
       <c r="E216" t="n">
-        <v>19.938402175903</v>
+        <v>19.97947883606</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G216" t="n">
-        <v>816</v>
+        <v>845</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="B217" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>50.060165405273</v>
+        <v>50.088706970215</v>
       </c>
       <c r="E217" t="n">
-        <v>19.967292785645</v>
+        <v>19.931180953979</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G217" t="n">
-        <v>817</v>
+        <v>846</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="B218" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>50.081554412842</v>
+        <v>50.095355987549</v>
       </c>
       <c r="E218" t="n">
-        <v>19.881492614746</v>
+        <v>19.995069503784</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Mistrzejowice</t>
         </is>
       </c>
       <c r="G218" t="n">
-        <v>818</v>
+        <v>847</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="B219" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -6337,26 +6337,26 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>50.073398590088</v>
+        <v>50.015975952148</v>
       </c>
       <c r="E219" t="n">
-        <v>20.016666412354</v>
+        <v>20.01996421814</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Pleszów</t>
+          <t>Mistrzejowice</t>
         </is>
       </c>
       <c r="G219" t="n">
-        <v>819</v>
+        <v>848</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="B220" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -6364,80 +6364,80 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>50.094993591309</v>
+        <v>50.104969024658</v>
       </c>
       <c r="E220" t="n">
-        <v>19.996318817139</v>
+        <v>19.963785171509</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G220" t="n">
-        <v>820</v>
+        <v>849</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="B221" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>39 minutes ago</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>50.036819458008</v>
+        <v>50.105243682861</v>
       </c>
       <c r="E221" t="n">
-        <v>19.940799713135</v>
+        <v>19.963714599609</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G221" t="n">
-        <v>822</v>
+        <v>850</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="B222" t="n">
         <v>8</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>50.071964263916</v>
+        <v>50.081554412842</v>
       </c>
       <c r="E222" t="n">
-        <v>19.919027328491</v>
+        <v>19.881458282471</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Bronowice Małe</t>
         </is>
       </c>
       <c r="G222" t="n">
-        <v>823</v>
+        <v>852</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="B223" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -6445,26 +6445,26 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>50.04613494873</v>
+        <v>50.048206329346</v>
       </c>
       <c r="E223" t="n">
-        <v>19.944410324097</v>
+        <v>19.943714141846</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G223" t="n">
-        <v>824</v>
+        <v>855</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="B224" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -6472,26 +6472,26 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>50.065769195557</v>
+        <v>50.078773498535</v>
       </c>
       <c r="E224" t="n">
-        <v>19.997604370117</v>
+        <v>20.065902709961</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Kopiec Wandy</t>
         </is>
       </c>
       <c r="G224" t="n">
-        <v>825</v>
+        <v>856</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="B225" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -6499,26 +6499,26 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>50.083808898926</v>
+        <v>50.078704833984</v>
       </c>
       <c r="E225" t="n">
-        <v>19.93430519104</v>
+        <v>20.025938034058</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G225" t="n">
-        <v>826</v>
+        <v>857</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="B226" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -6526,26 +6526,26 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>50.073013305664</v>
+        <v>50.07360458374</v>
       </c>
       <c r="E226" t="n">
-        <v>19.93586730957</v>
+        <v>19.944965362549</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G226" t="n">
-        <v>827</v>
+        <v>859</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="B227" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -6553,23 +6553,23 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>50.07670211792</v>
+        <v>50.094764709473</v>
       </c>
       <c r="E227" t="n">
-        <v>19.903749465942</v>
+        <v>19.996423721313</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G227" t="n">
-        <v>828</v>
+        <v>860</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="B228" t="n">
         <v>50</v>
@@ -6580,53 +6580,53 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>50.023536682129</v>
+        <v>50.066017150879</v>
       </c>
       <c r="E228" t="n">
-        <v>19.979167938232</v>
+        <v>19.958715438843</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G228" t="n">
-        <v>829</v>
+        <v>863</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="B229" t="n">
         <v>50</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>50.041168212891</v>
+        <v>50.101871490479</v>
       </c>
       <c r="E229" t="n">
-        <v>19.975416183472</v>
+        <v>19.95774269104</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G229" t="n">
-        <v>831</v>
+        <v>864</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="B230" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -6634,10 +6634,10 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>50.017959594727</v>
+        <v>50.026569366455</v>
       </c>
       <c r="E230" t="n">
-        <v>19.889167785645</v>
+        <v>19.977325439453</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -6645,15 +6645,15 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>832</v>
+        <v>865</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="B231" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -6661,26 +6661,26 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>50.016159057617</v>
+        <v>50.094856262207</v>
       </c>
       <c r="E231" t="n">
-        <v>20.010381698608</v>
+        <v>19.996667861938</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G231" t="n">
-        <v>833</v>
+        <v>866</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="B232" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -6688,26 +6688,26 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>50.041851043701</v>
+        <v>50.066635131836</v>
       </c>
       <c r="E232" t="n">
-        <v>19.961597442627</v>
+        <v>20.003541946411</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Kopiec Wandy</t>
         </is>
       </c>
       <c r="G232" t="n">
-        <v>834</v>
+        <v>867</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="B233" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -6715,26 +6715,26 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>50.031169891357</v>
+        <v>50.039367675781</v>
       </c>
       <c r="E233" t="n">
-        <v>19.972431182861</v>
+        <v>19.925382614136</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G233" t="n">
-        <v>835</v>
+        <v>868</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="B234" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -6742,26 +6742,26 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>50.074287414551</v>
+        <v>50.089595794678</v>
       </c>
       <c r="E234" t="n">
-        <v>19.909757614136</v>
+        <v>19.931770324707</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G234" t="n">
-        <v>836</v>
+        <v>869</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="B235" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -6769,26 +6769,26 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>50.071529388428</v>
+        <v>50.084831237793</v>
       </c>
       <c r="E235" t="n">
-        <v>19.944826126099</v>
+        <v>19.933610916138</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G235" t="n">
-        <v>837</v>
+        <v>871</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="B236" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -6796,26 +6796,26 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>50.063034057617</v>
+        <v>50.072761535645</v>
       </c>
       <c r="E236" t="n">
-        <v>19.93260383606</v>
+        <v>20.117082595825</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G236" t="n">
-        <v>838</v>
+        <v>874</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="B237" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -6823,26 +6823,26 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>50.068431854248</v>
+        <v>50.0954246521</v>
       </c>
       <c r="E237" t="n">
-        <v>20.009443283081</v>
+        <v>19.93302154541</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G237" t="n">
-        <v>839</v>
+        <v>875</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="B238" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -6850,53 +6850,53 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>50.066246032715</v>
+        <v>50.015701293945</v>
       </c>
       <c r="E238" t="n">
-        <v>19.939306259155</v>
+        <v>20.023889541626</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Mistrzejowice</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G238" t="n">
-        <v>842</v>
+        <v>876</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="B239" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>25 days ago</t>
+          <t>10 hours ago</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>50.032238006592</v>
+        <v>50.033172607422</v>
       </c>
       <c r="E239" t="n">
-        <v>19.935243606567</v>
+        <v>19.934478759766</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G239" t="n">
-        <v>843</v>
+        <v>878</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="B240" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -6904,26 +6904,26 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>50.077728271484</v>
+        <v>50.016410827637</v>
       </c>
       <c r="E240" t="n">
-        <v>20.057916641235</v>
+        <v>20.007707595825</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G240" t="n">
-        <v>844</v>
+        <v>879</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="B241" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -6931,23 +6931,23 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>50.037525177002</v>
+        <v>50.013813018799</v>
       </c>
       <c r="E241" t="n">
-        <v>19.925693511963</v>
+        <v>19.950416564941</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G241" t="n">
-        <v>845</v>
+        <v>880</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="B242" t="n">
         <v>50</v>
@@ -6958,26 +6958,26 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>50.01330947876</v>
+        <v>50.075744628906</v>
       </c>
       <c r="E242" t="n">
-        <v>19.952535629272</v>
+        <v>19.941284179688</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G242" t="n">
-        <v>846</v>
+        <v>881</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="B243" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -6985,26 +6985,26 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>50.071006774902</v>
+        <v>50.012855529785</v>
       </c>
       <c r="E243" t="n">
-        <v>19.944791793823</v>
+        <v>19.955347061157</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G243" t="n">
-        <v>847</v>
+        <v>882</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="B244" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -7012,26 +7012,26 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>50.087429046631</v>
+        <v>50.07230758667</v>
       </c>
       <c r="E244" t="n">
-        <v>19.932950973511</v>
+        <v>20.115867614746</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Pleszów</t>
         </is>
       </c>
       <c r="G244" t="n">
-        <v>848</v>
+        <v>883</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="B245" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -7039,26 +7039,26 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>50.077270507812</v>
+        <v>50.104469299316</v>
       </c>
       <c r="E245" t="n">
-        <v>19.901979446411</v>
+        <v>19.964235305786</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G245" t="n">
-        <v>849</v>
+        <v>885</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="B246" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -7066,26 +7066,26 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>50.01647567749</v>
+        <v>50.066223144531</v>
       </c>
       <c r="E246" t="n">
-        <v>19.975971221924</v>
+        <v>19.938749313354</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G246" t="n">
-        <v>850</v>
+        <v>887</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="B247" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -7093,10 +7093,10 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>50.012992858887</v>
+        <v>50.013767242432</v>
       </c>
       <c r="E247" t="n">
-        <v>19.948818206787</v>
+        <v>19.94864654541</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -7104,15 +7104,15 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>851</v>
+        <v>888</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="B248" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -7120,53 +7120,53 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>50.016136169434</v>
+        <v>50.046634674072</v>
       </c>
       <c r="E248" t="n">
-        <v>20.012014389038</v>
+        <v>19.925104141235</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G248" t="n">
-        <v>852</v>
+        <v>889</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="B249" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>20 days ago</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>50.085105895996</v>
+        <v>50.033515930176</v>
       </c>
       <c r="E249" t="n">
-        <v>19.932674407959</v>
+        <v>19.938646316528</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G249" t="n">
-        <v>853</v>
+        <v>899</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="B250" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -7174,80 +7174,80 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>50.012992858887</v>
+        <v>50.0719871521</v>
       </c>
       <c r="E250" t="n">
-        <v>19.948263168335</v>
+        <v>19.919479370117</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Zaj. Nowa Huta</t>
         </is>
       </c>
       <c r="G250" t="n">
-        <v>854</v>
+        <v>902</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="B251" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>50.094993591309</v>
+        <v>50.08203125</v>
       </c>
       <c r="E251" t="n">
-        <v>19.930311203003</v>
+        <v>19.882465362549</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Bronowice Małe</t>
         </is>
       </c>
       <c r="G251" t="n">
-        <v>855</v>
+        <v>903</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="B252" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>16 hours ago</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>50.067432403564</v>
+        <v>50.032283782959</v>
       </c>
       <c r="E252" t="n">
-        <v>20.005798339844</v>
+        <v>19.934097290039</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Kopiec Wandy</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G252" t="n">
-        <v>856</v>
+        <v>904</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="B253" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -7255,26 +7255,26 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>50.01326751709</v>
+        <v>50.040691375732</v>
       </c>
       <c r="E253" t="n">
-        <v>19.927013397217</v>
+        <v>19.976839065552</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Kopiec Wandy</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G253" t="n">
-        <v>857</v>
+        <v>906</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="B254" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -7282,26 +7282,26 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>50.056522369385</v>
+        <v>50.105289459229</v>
       </c>
       <c r="E254" t="n">
-        <v>19.9453125</v>
+        <v>19.960277557373</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G254" t="n">
-        <v>858</v>
+        <v>907</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="B255" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -7309,26 +7309,26 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>50.015907287598</v>
+        <v>50.012672424316</v>
       </c>
       <c r="E255" t="n">
-        <v>20.023958206177</v>
+        <v>19.927499771118</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G255" t="n">
-        <v>859</v>
+        <v>908</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="B256" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -7336,53 +7336,53 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>50.076110839844</v>
+        <v>50.090801239014</v>
       </c>
       <c r="E256" t="n">
-        <v>19.940624237061</v>
+        <v>20.020624160767</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G256" t="n">
-        <v>860</v>
+        <v>909</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="B257" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>9 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>50.105197906494</v>
+        <v>50.034130096436</v>
       </c>
       <c r="E257" t="n">
-        <v>19.960069656372</v>
+        <v>19.969583511353</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G257" t="n">
-        <v>861</v>
+        <v>910</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="B258" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -7390,53 +7390,53 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>50.070346832275</v>
+        <v>50.024231</v>
       </c>
       <c r="E258" t="n">
-        <v>20.100555419922</v>
+        <v>19.979951</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Pleszów</t>
+          <t>Bronowice Małe</t>
         </is>
       </c>
       <c r="G258" t="n">
-        <v>862</v>
+        <v>911</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="B259" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>9 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>50.085586547852</v>
+        <v>50.095153808594</v>
       </c>
       <c r="E259" t="n">
-        <v>20.06420135498</v>
+        <v>19.931909561157</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Mistrzejowice</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G259" t="n">
-        <v>863</v>
+        <v>913</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="B260" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -7444,23 +7444,23 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>50.078704833984</v>
+        <v>50.081508636475</v>
       </c>
       <c r="E260" t="n">
-        <v>19.938056945801</v>
+        <v>19.888889312744</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G260" t="n">
-        <v>864</v>
+        <v>914</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="B261" t="n">
         <v>52</v>
@@ -7471,10 +7471,10 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>50.073513031006</v>
+        <v>50.057273864746</v>
       </c>
       <c r="E261" t="n">
-        <v>19.990556716919</v>
+        <v>19.944688796997</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -7482,15 +7482,15 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>865</v>
+        <v>915</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>276</v>
+        <v>322</v>
       </c>
       <c r="B262" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -7498,26 +7498,26 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>50.026634216309</v>
+        <v>50.066566467285</v>
       </c>
       <c r="E262" t="n">
-        <v>19.977083206177</v>
+        <v>19.965034484863</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Zaj. Nowa Huta</t>
         </is>
       </c>
       <c r="G262" t="n">
-        <v>866</v>
+        <v>922</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>277</v>
+        <v>324</v>
       </c>
       <c r="B263" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -7525,26 +7525,26 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>50.093944549561</v>
+        <v>50.048637390137</v>
       </c>
       <c r="E263" t="n">
-        <v>19.930034637451</v>
+        <v>19.93124961853</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Os.Piastów</t>
         </is>
       </c>
       <c r="G263" t="n">
-        <v>867</v>
+        <v>924</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>278</v>
+        <v>325</v>
       </c>
       <c r="B264" t="n">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -7552,26 +7552,26 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>50.020690917969</v>
+        <v>50.052284240723</v>
       </c>
       <c r="E264" t="n">
-        <v>19.985799789429</v>
+        <v>19.94211769104</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Mistrzejowice</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G264" t="n">
-        <v>868</v>
+        <v>925</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>279</v>
+        <v>326</v>
       </c>
       <c r="B265" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -7579,26 +7579,26 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>50.06702041626</v>
+        <v>50.085857391357</v>
       </c>
       <c r="E265" t="n">
-        <v>19.938854217529</v>
+        <v>20.063020706177</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Zaj. Nowa Huta</t>
         </is>
       </c>
       <c r="G265" t="n">
-        <v>869</v>
+        <v>926</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>280</v>
+        <v>327</v>
       </c>
       <c r="B266" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -7606,26 +7606,26 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>50.012512207031</v>
+        <v>50.07360458374</v>
       </c>
       <c r="E266" t="n">
-        <v>19.927360534668</v>
+        <v>19.99090385437</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Bronowice Małe</t>
         </is>
       </c>
       <c r="G266" t="n">
-        <v>870</v>
+        <v>927</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>281</v>
+        <v>328</v>
       </c>
       <c r="B267" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -7633,26 +7633,26 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>50.058616638184</v>
+        <v>50.063831329346</v>
       </c>
       <c r="E267" t="n">
-        <v>19.941007614136</v>
+        <v>19.933471679688</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Bronowice Małe</t>
         </is>
       </c>
       <c r="G267" t="n">
-        <v>871</v>
+        <v>928</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="B268" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -7660,26 +7660,26 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>50.095264434814</v>
+        <v>50.080871582031</v>
       </c>
       <c r="E268" t="n">
-        <v>19.939548492432</v>
+        <v>20.025798797607</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Os.Piastów</t>
         </is>
       </c>
       <c r="G268" t="n">
-        <v>872</v>
+        <v>930</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>283</v>
+        <v>332</v>
       </c>
       <c r="B269" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -7687,26 +7687,26 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>50.057430267334</v>
+        <v>50.081825256348</v>
       </c>
       <c r="E269" t="n">
-        <v>19.958957672119</v>
+        <v>19.881944656372</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Zaj. Nowa Huta</t>
         </is>
       </c>
       <c r="G269" t="n">
-        <v>874</v>
+        <v>932</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>284</v>
+        <v>333</v>
       </c>
       <c r="B270" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -7714,1044 +7714,18 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>50.104946136475</v>
+        <v>50.081279754639</v>
       </c>
       <c r="E270" t="n">
-        <v>19.959617614746</v>
+        <v>19.889583587646</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Bronowice Małe</t>
         </is>
       </c>
       <c r="G270" t="n">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B271" t="n">
-        <v>22</v>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D271" t="n">
-        <v>50.076202392578</v>
-      </c>
-      <c r="E271" t="n">
-        <v>20.063957214355</v>
-      </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>Kopiec Wandy</t>
-        </is>
-      </c>
-      <c r="G271" t="n">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B272" t="n">
-        <v>18</v>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D272" t="n">
-        <v>50.046840667725</v>
-      </c>
-      <c r="E272" t="n">
-        <v>19.925867080688</v>
-      </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>Papierni Prądnickich</t>
-        </is>
-      </c>
-      <c r="G272" t="n">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B273" t="n">
-        <v>3</v>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>5 hours ago</t>
-        </is>
-      </c>
-      <c r="D273" t="n">
-        <v>50.089366912842</v>
-      </c>
-      <c r="E273" t="n">
-        <v>19.931701660156</v>
-      </c>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>Nowy Bieżanów P+R</t>
-        </is>
-      </c>
-      <c r="G273" t="n">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B274" t="n">
-        <v>10</v>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D274" t="n">
-        <v>50.047637939453</v>
-      </c>
-      <c r="E274" t="n">
-        <v>19.943576812744</v>
-      </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>Kurdwanów P+R</t>
-        </is>
-      </c>
-      <c r="G274" t="n">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B275" t="n">
-        <v>10</v>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D275" t="n">
-        <v>50.073104858398</v>
-      </c>
-      <c r="E275" t="n">
-        <v>20.021631240845</v>
-      </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>Kurdwanów P+R</t>
-        </is>
-      </c>
-      <c r="G275" t="n">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B276" t="n">
-        <v>50</v>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D276" t="n">
-        <v>50.01326751709</v>
-      </c>
-      <c r="E276" t="n">
-        <v>19.948854446411</v>
-      </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>Kurdwanów P+R</t>
-        </is>
-      </c>
-      <c r="G276" t="n">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B277" t="n">
-        <v>24</v>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D277" t="n">
-        <v>50.02709197998</v>
-      </c>
-      <c r="E277" t="n">
-        <v>19.976528167725</v>
-      </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>Kurdwanów P+R</t>
-        </is>
-      </c>
-      <c r="G277" t="n">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B278" t="n">
-        <v>10</v>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D278" t="n">
-        <v>50.014152526855</v>
-      </c>
-      <c r="E278" t="n">
-        <v>19.947881698608</v>
-      </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>Pleszów</t>
-        </is>
-      </c>
-      <c r="G278" t="n">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B279" t="n">
-        <v>8</v>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D279" t="n">
-        <v>50.062831878662</v>
-      </c>
-      <c r="E279" t="n">
-        <v>19.932325363159</v>
-      </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>Borek Fałęcki</t>
-        </is>
-      </c>
-      <c r="G279" t="n">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B280" t="n">
-        <v>50</v>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D280" t="n">
-        <v>50.092849731445</v>
-      </c>
-      <c r="E280" t="n">
-        <v>19.931215286255</v>
-      </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>Papierni Prądnickich</t>
-        </is>
-      </c>
-      <c r="G280" t="n">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B281" t="n">
-        <v>22</v>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D281" t="n">
-        <v>50.057113647461</v>
-      </c>
-      <c r="E281" t="n">
-        <v>19.945938110352</v>
-      </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>Borek Fałęcki</t>
-        </is>
-      </c>
-      <c r="G281" t="n">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B282" t="n">
-        <v>18</v>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D282" t="n">
-        <v>50.096565246582</v>
-      </c>
-      <c r="E282" t="n">
-        <v>19.942916870117</v>
-      </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>Czerwone Maki P+R</t>
-        </is>
-      </c>
-      <c r="G282" t="n">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B283" t="n">
-        <v>18</v>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>4 hours ago</t>
-        </is>
-      </c>
-      <c r="D283" t="n">
-        <v>50.104602813721</v>
-      </c>
-      <c r="E283" t="n">
-        <v>19.964305877686</v>
-      </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>Papierni Prądnickich</t>
-        </is>
-      </c>
-      <c r="G283" t="n">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B284" t="n">
-        <v>10</v>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>18 days ago</t>
-        </is>
-      </c>
-      <c r="D284" t="n">
-        <v>50.033515930176</v>
-      </c>
-      <c r="E284" t="n">
-        <v>19.938646316528</v>
-      </c>
-      <c r="F284" t="inlineStr">
-        <is>
-          <t>Kurdwanów P+R</t>
-        </is>
-      </c>
-      <c r="G284" t="n">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B285" t="n">
-        <v>24</v>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D285" t="n">
-        <v>50.059139251709</v>
-      </c>
-      <c r="E285" t="n">
-        <v>19.942638397217</v>
-      </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>Kurdwanów P+R</t>
-        </is>
-      </c>
-      <c r="G285" t="n">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B286" t="n">
-        <v>50</v>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D286" t="n">
-        <v>50.033401489258</v>
-      </c>
-      <c r="E286" t="n">
-        <v>19.976839065552</v>
-      </c>
-      <c r="F286" t="inlineStr">
-        <is>
-          <t>Borek Fałęcki</t>
-        </is>
-      </c>
-      <c r="G286" t="n">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B287" t="n">
-        <v>50</v>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D287" t="n">
-        <v>50.055721282959</v>
-      </c>
-      <c r="E287" t="n">
-        <v>19.959201812744</v>
-      </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>Papierni Prądnickich</t>
-        </is>
-      </c>
-      <c r="G287" t="n">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B288" t="n">
-        <v>52</v>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D288" t="n">
-        <v>50.10237121582</v>
-      </c>
-      <c r="E288" t="n">
-        <v>20.011528015137</v>
-      </c>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>Os.Piastów</t>
-        </is>
-      </c>
-      <c r="G288" t="n">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B289" t="n">
-        <v>4</v>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D289" t="n">
-        <v>50.072555541992</v>
-      </c>
-      <c r="E289" t="n">
-        <v>20.026214599609</v>
-      </c>
-      <c r="F289" t="inlineStr">
-        <is>
-          <t>Zaj. Nowa Huta</t>
-        </is>
-      </c>
-      <c r="G289" t="n">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B290" t="n">
-        <v>4</v>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D290" t="n">
-        <v>50.082008361816</v>
-      </c>
-      <c r="E290" t="n">
-        <v>19.883993148804</v>
-      </c>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>Bronowice Małe</t>
-        </is>
-      </c>
-      <c r="G290" t="n">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B291" t="n">
-        <v>24</v>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D291" t="n">
-        <v>50.081485748291</v>
-      </c>
-      <c r="E291" t="n">
-        <v>19.881492614746</v>
-      </c>
-      <c r="F291" t="inlineStr">
-        <is>
-          <t>Bronowice Małe</t>
-        </is>
-      </c>
-      <c r="G291" t="n">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B292" t="n">
-        <v>50</v>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D292" t="n">
-        <v>50.095767974854</v>
-      </c>
-      <c r="E292" t="n">
-        <v>19.949306488037</v>
-      </c>
-      <c r="F292" t="inlineStr">
-        <is>
-          <t>Borek Fałęcki</t>
-        </is>
-      </c>
-      <c r="G292" t="n">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B293" t="n">
-        <v>50</v>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D293" t="n">
-        <v>50.041145324707</v>
-      </c>
-      <c r="E293" t="n">
-        <v>19.975381851196</v>
-      </c>
-      <c r="F293" t="inlineStr">
-        <is>
-          <t>Papierni Prądnickich</t>
-        </is>
-      </c>
-      <c r="G293" t="n">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B294" t="n">
-        <v>4</v>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D294" t="n">
-        <v>50.085880279541</v>
-      </c>
-      <c r="E294" t="n">
-        <v>20.063125610352</v>
-      </c>
-      <c r="F294" t="inlineStr">
-        <is>
-          <t>Zaj. Nowa Huta</t>
-        </is>
-      </c>
-      <c r="G294" t="n">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B295" t="n">
-        <v>4</v>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D295" t="n">
-        <v>50.069483</v>
-      </c>
-      <c r="E295" t="n">
-        <v>19.980699</v>
-      </c>
-      <c r="F295" t="inlineStr">
-        <is>
-          <t>Bronowice Małe</t>
-        </is>
-      </c>
-      <c r="G295" t="n">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B296" t="n">
-        <v>4</v>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D296" t="n">
-        <v>50.081825256348</v>
-      </c>
-      <c r="E296" t="n">
-        <v>19.881944656372</v>
-      </c>
-      <c r="F296" t="inlineStr">
-        <is>
-          <t>Zaj. Nowa Huta</t>
-        </is>
-      </c>
-      <c r="G296" t="n">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B297" t="n">
-        <v>4</v>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D297" t="n">
-        <v>50.065699</v>
-      </c>
-      <c r="E297" t="n">
-        <v>19.930574</v>
-      </c>
-      <c r="F297" t="inlineStr">
-        <is>
-          <t>Bronowice Małe</t>
-        </is>
-      </c>
-      <c r="G297" t="n">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B298" t="n">
-        <v>52</v>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D298" t="n">
-        <v>50.02734375</v>
-      </c>
-      <c r="E298" t="n">
-        <v>19.906181335449</v>
-      </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>Os.Piastów</t>
-        </is>
-      </c>
-      <c r="G298" t="n">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B299" t="n">
-        <v>52</v>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D299" t="n">
-        <v>50.074035644531</v>
-      </c>
-      <c r="E299" t="n">
-        <v>20.010902404785</v>
-      </c>
-      <c r="F299" t="inlineStr">
-        <is>
-          <t>Czerwone Maki P+R</t>
-        </is>
-      </c>
-      <c r="G299" t="n">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B300" t="n">
-        <v>52</v>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D300" t="n">
-        <v>50.01834487915</v>
-      </c>
-      <c r="E300" t="n">
-        <v>19.888645172119</v>
-      </c>
-      <c r="F300" t="inlineStr">
-        <is>
-          <t>Czerwone Maki P+R</t>
-        </is>
-      </c>
-      <c r="G300" t="n">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B301" t="n">
-        <v>4</v>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D301" t="n">
-        <v>50.068161010742</v>
-      </c>
-      <c r="E301" t="n">
-        <v>19.927707672119</v>
-      </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>Zaj. Nowa Huta</t>
-        </is>
-      </c>
-      <c r="G301" t="n">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B302" t="n">
-        <v>52</v>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D302" t="n">
-        <v>50.066588</v>
-      </c>
-      <c r="E302" t="n">
-        <v>19.969232</v>
-      </c>
-      <c r="F302" t="inlineStr">
-        <is>
-          <t>Czerwone Maki P+R</t>
-        </is>
-      </c>
-      <c r="G302" t="n">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B303" t="n">
-        <v>52</v>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D303" t="n">
-        <v>50.050666809082</v>
-      </c>
-      <c r="E303" t="n">
-        <v>19.939306259155</v>
-      </c>
-      <c r="F303" t="inlineStr">
-        <is>
-          <t>Os.Piastów</t>
-        </is>
-      </c>
-      <c r="G303" t="n">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B304" t="n">
-        <v>52</v>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D304" t="n">
-        <v>50.080345153809</v>
-      </c>
-      <c r="E304" t="n">
-        <v>20.02635383606</v>
-      </c>
-      <c r="F304" t="inlineStr">
-        <is>
-          <t>Czerwone Maki P+R</t>
-        </is>
-      </c>
-      <c r="G304" t="n">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B305" t="n">
-        <v>4</v>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D305" t="n">
-        <v>50.07483291626</v>
-      </c>
-      <c r="E305" t="n">
-        <v>20.047256469727</v>
-      </c>
-      <c r="F305" t="inlineStr">
-        <is>
-          <t>Bronowice Małe</t>
-        </is>
-      </c>
-      <c r="G305" t="n">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B306" t="n">
-        <v>4</v>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D306" t="n">
-        <v>50.067886352539</v>
-      </c>
-      <c r="E306" t="n">
-        <v>19.97812461853</v>
-      </c>
-      <c r="F306" t="inlineStr">
-        <is>
-          <t>Zaj. Nowa Huta</t>
-        </is>
-      </c>
-      <c r="G306" t="n">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B307" t="n">
-        <v>52</v>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D307" t="n">
-        <v>50.097747802734</v>
-      </c>
-      <c r="E307" t="n">
-        <v>20.012985229492</v>
-      </c>
-      <c r="F307" t="inlineStr">
-        <is>
-          <t>Os.Piastów</t>
-        </is>
-      </c>
-      <c r="G307" t="n">
         <v>933</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B308" t="n">
-        <v>52</v>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D308" t="n">
-        <v>50.03396987915</v>
-      </c>
-      <c r="E308" t="n">
-        <v>19.926006317139</v>
-      </c>
-      <c r="F308" t="inlineStr">
-        <is>
-          <t>Czerwone Maki P+R</t>
-        </is>
-      </c>
-      <c r="G308" t="n">
-        <v>936</v>
       </c>
     </row>
   </sheetData>

--- a/data/generated/excel/vehicles_in_ttss.xlsx
+++ b/data/generated/excel/vehicles_in_ttss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G270"/>
+  <dimension ref="A1:G294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,14 +478,14 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>50.102123260498</v>
+        <v>50.069297790527</v>
       </c>
       <c r="E2" t="n">
-        <v>20.011701583862</v>
+        <v>20.067499160767</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Os.Piastów</t>
+          <t>Kopiec Wandy</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -501,7 +501,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>36 days ago</t>
+          <t>41 days ago</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>50.084991455078</v>
+        <v>50.068912506104</v>
       </c>
       <c r="E4" t="n">
-        <v>20.063507080078</v>
+        <v>20.069583892822</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -551,22 +551,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50.07360458374</v>
+        <v>50.079116821289</v>
       </c>
       <c r="E5" t="n">
-        <v>19.991214752197</v>
+        <v>20.063714981079</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Wieczysta</t>
+          <t>Kombinat</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -582,14 +582,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2 hours ago</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>50.07861328125</v>
+        <v>50.078113555908</v>
       </c>
       <c r="E6" t="n">
-        <v>20.061492919922</v>
+        <v>20.059513092041</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -605,22 +605,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>50.095081329346</v>
+        <v>50.10237121582</v>
       </c>
       <c r="E7" t="n">
-        <v>19.996389389038</v>
+        <v>20.011596679688</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mistrzejowice</t>
+          <t>Pleszów</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -636,14 +636,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3 hours ago</t>
+          <t>45 minutes ago</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>50.072532653809</v>
+        <v>50.078388214111</v>
       </c>
       <c r="E8" t="n">
-        <v>20.038681030273</v>
+        <v>20.06079864502</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -663,18 +663,18 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>50.065517425537</v>
+        <v>50.072078704834</v>
       </c>
       <c r="E9" t="n">
-        <v>19.958055496216</v>
+        <v>20.031145095825</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dworzec Towarowy</t>
+          <t>Kombinat</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -690,14 +690,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>50.076816558838</v>
+        <v>50.073215484619</v>
       </c>
       <c r="E10" t="n">
-        <v>20.0309715271</v>
+        <v>20.117568969727</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -717,18 +717,18 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>22 hours ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>50.07266998291</v>
+        <v>50.084583282471</v>
       </c>
       <c r="E11" t="n">
-        <v>20.116666793823</v>
+        <v>20.063749313354</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Pleszów</t>
+          <t>Kopiec Wandy</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -744,7 +744,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>110 days ago</t>
+          <t>115 days ago</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>13 days ago</t>
+          <t>18 days ago</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -798,14 +798,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2 hours ago</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>50.079025268555</v>
+        <v>50.079048156738</v>
       </c>
       <c r="E14" t="n">
-        <v>20.063194274902</v>
+        <v>20.063367843628</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -821,22 +821,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>50.079139709473</v>
+        <v>50.078365325928</v>
       </c>
       <c r="E15" t="n">
-        <v>20.064582824707</v>
+        <v>20.060520172119</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Wieczysta</t>
+          <t>Kombinat</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -852,14 +852,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3 hours ago</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>50.075973510742</v>
+        <v>50.078456878662</v>
       </c>
       <c r="E16" t="n">
-        <v>20.05163192749</v>
+        <v>20.06079864502</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -879,14 +879,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>2 hours ago</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>50.077770233154</v>
+        <v>50.079116821289</v>
       </c>
       <c r="E17" t="n">
-        <v>20.058193206787</v>
+        <v>20.063646316528</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -902,26 +902,26 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>120 days ago</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>50.031009674072</v>
+        <v>50.073535919189</v>
       </c>
       <c r="E18" t="n">
-        <v>19.934930801392</v>
+        <v>19.989688873291</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Wieczysta</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19">
@@ -929,26 +929,26 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2 hours ago</t>
+          <t>3 hours ago</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>50.079162597656</v>
+        <v>50.094879150391</v>
       </c>
       <c r="E19" t="n">
-        <v>20.064479827881</v>
+        <v>19.995971679688</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kombinat</t>
+          <t>Mistrzejowice</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20">
@@ -956,26 +956,26 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>104 days ago</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>50.083786010742</v>
+        <v>50.041442871094</v>
       </c>
       <c r="E20" t="n">
-        <v>20.06555557251</v>
+        <v>19.961875915527</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bardosa</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21">
@@ -983,26 +983,26 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>99 days ago</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>50.041442871094</v>
+        <v>50.09481048584</v>
       </c>
       <c r="E21" t="n">
-        <v>19.961875915527</v>
+        <v>19.995937347412</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Mistrzejowice</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22">
@@ -1010,26 +1010,26 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>58 minutes ago</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>50.09481048584</v>
+        <v>50.074764251709</v>
       </c>
       <c r="E22" t="n">
-        <v>19.995937347412</v>
+        <v>20.04701423645</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Mistrzejowice</t>
+          <t>Kombinat</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23">
@@ -1037,26 +1037,26 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>19 hours ago</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>50.077930450439</v>
+        <v>50.018573760986</v>
       </c>
       <c r="E23" t="n">
-        <v>20.058992385864</v>
+        <v>19.889339447021</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kombinat</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>164</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24">
@@ -1064,26 +1064,26 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>46 days ago</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>50.073787689209</v>
+        <v>50.015361785889</v>
       </c>
       <c r="E24" t="n">
-        <v>19.994548797607</v>
+        <v>20.023853302002</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25">
@@ -1095,22 +1095,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>41 days ago</t>
+          <t>36 days ago</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>50.015361785889</v>
+        <v>50.077110290527</v>
       </c>
       <c r="E25" t="n">
-        <v>20.023853302002</v>
+        <v>19.901458740234</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26">
@@ -1118,26 +1118,26 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>31 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>50.077110290527</v>
+        <v>50.070346832275</v>
       </c>
       <c r="E26" t="n">
-        <v>19.901458740234</v>
+        <v>19.982013702393</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Os.Piastów</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27">
@@ -1149,14 +1149,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>12 minutes ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>50.018527984619</v>
+        <v>50.031238555908</v>
       </c>
       <c r="E27" t="n">
-        <v>19.888610839844</v>
+        <v>19.935035705566</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28">
@@ -1172,26 +1172,26 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>50.074333190918</v>
+        <v>50.032192230225</v>
       </c>
       <c r="E28" t="n">
-        <v>20.004409790039</v>
+        <v>19.933958053589</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29">
@@ -1199,26 +1199,26 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>50.032192230225</v>
+        <v>50.034744262695</v>
       </c>
       <c r="E29" t="n">
-        <v>19.933958053589</v>
+        <v>19.926076889038</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Os.Piastów</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30">
@@ -1226,26 +1226,26 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>32 minutes ago</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>50.0182762146</v>
+        <v>50.015769958496</v>
       </c>
       <c r="E30" t="n">
-        <v>19.888681411743</v>
+        <v>20.023506164551</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31">
@@ -1257,22 +1257,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2 hours ago</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>50.015884399414</v>
+        <v>50.076587677002</v>
       </c>
       <c r="E31" t="n">
-        <v>20.023992538452</v>
+        <v>19.904062271118</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>50.015815734863</v>
+        <v>50.015701293945</v>
       </c>
       <c r="E32" t="n">
-        <v>20.0234375</v>
+        <v>20.023124694824</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33">
@@ -1307,26 +1307,26 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2 hours ago</t>
+          <t>9 minutes ago</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>50.077247619629</v>
+        <v>50.067497253418</v>
       </c>
       <c r="E33" t="n">
-        <v>19.902048110962</v>
+        <v>19.976909637451</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34">
@@ -1334,26 +1334,26 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>53 days ago</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>50.05704498291</v>
+        <v>50.072326660156</v>
       </c>
       <c r="E34" t="n">
-        <v>19.944931030273</v>
+        <v>19.98451423645</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Os.Piastów</t>
+          <t>Wieczysta</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35">
@@ -1361,26 +1361,26 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>48 days ago</t>
+          <t>59 minutes ago</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>50.072326660156</v>
+        <v>50.059276580811</v>
       </c>
       <c r="E35" t="n">
-        <v>19.98451423645</v>
+        <v>19.942291259766</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Wieczysta</t>
+          <t>Os.Piastów</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36">
@@ -1388,26 +1388,26 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>53 days ago</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>50.101894378662</v>
+        <v>50.074287414551</v>
       </c>
       <c r="E36" t="n">
-        <v>20.012187957764</v>
+        <v>20.004930496216</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Wieczysta</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37">
@@ -1415,26 +1415,26 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>48 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>50.074287414551</v>
+        <v>50.032146453857</v>
       </c>
       <c r="E37" t="n">
-        <v>20.004930496216</v>
+        <v>19.933889389038</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Wieczysta</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38">
@@ -1450,18 +1450,18 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>50.101871490479</v>
+        <v>50.018321990967</v>
       </c>
       <c r="E38" t="n">
-        <v>20.012535095215</v>
+        <v>19.888645172119</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Os.Piastów</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39">
@@ -1469,7 +1469,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1477,18 +1477,18 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>50.030075073242</v>
+        <v>50.057819366455</v>
       </c>
       <c r="E39" t="n">
-        <v>19.912881851196</v>
+        <v>19.960138320923</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Wańkowicza</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>278</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40">
@@ -1496,34 +1496,34 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>50.031646728516</v>
+        <v>50.086791992188</v>
       </c>
       <c r="E40" t="n">
-        <v>19.933853149414</v>
+        <v>20.045938491821</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Wańkowicza</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>50.059799194336</v>
+        <v>50.079277038574</v>
       </c>
       <c r="E41" t="n">
-        <v>19.920694351196</v>
+        <v>19.939027786255</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42">
@@ -1550,26 +1550,26 @@
         <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>50.058227539062</v>
+        <v>50.082054138184</v>
       </c>
       <c r="E42" t="n">
-        <v>19.961214065552</v>
+        <v>19.882604598999</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Wańkowicza</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43">
@@ -1577,26 +1577,26 @@
         <v>43</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>2 hours ago</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>50.068046569824</v>
+        <v>50.032466888428</v>
       </c>
       <c r="E43" t="n">
-        <v>20.008125305176</v>
+        <v>19.934549331665</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Wańkowicza</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44">
@@ -1604,26 +1604,26 @@
         <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>10 minutes ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>50.089595794678</v>
+        <v>50.059959411621</v>
       </c>
       <c r="E44" t="n">
-        <v>19.931354522705</v>
+        <v>19.928680419922</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Wańkowicza</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45">
@@ -1631,26 +1631,26 @@
         <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>23 hours ago</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>50.03199005127</v>
+        <v>50.062671661377</v>
       </c>
       <c r="E45" t="n">
-        <v>19.933645248413</v>
+        <v>19.903888702393</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46">
@@ -1658,26 +1658,26 @@
         <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>50 minutes ago</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>50.0842628479</v>
+        <v>50.060211181641</v>
       </c>
       <c r="E46" t="n">
-        <v>19.933784484863</v>
+        <v>19.967430114746</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Wańkowicza</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="47">
@@ -1689,14 +1689,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>33 minutes ago</t>
+          <t>11 days ago</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>50.062896728516</v>
+        <v>50.062717437744</v>
       </c>
       <c r="E47" t="n">
-        <v>19.903610229492</v>
+        <v>19.903993606567</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="48">
@@ -1716,14 +1716,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>35 minutes ago</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>50.062717437744</v>
+        <v>50.062671661377</v>
       </c>
       <c r="E48" t="n">
-        <v>19.903993606567</v>
+        <v>19.903957366943</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49">
@@ -1739,26 +1739,26 @@
         <v>49</v>
       </c>
       <c r="B49" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>14 hours ago</t>
+          <t>58 minutes ago</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>50.032421112061</v>
+        <v>50.062854766846</v>
       </c>
       <c r="E49" t="n">
-        <v>19.934825897217</v>
+        <v>19.903610229492</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50">
@@ -1770,14 +1770,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>16 minutes ago</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>50.062831878662</v>
+        <v>50.062740325928</v>
       </c>
       <c r="E50" t="n">
-        <v>19.903680801392</v>
+        <v>19.903785705566</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51">
@@ -1793,26 +1793,26 @@
         <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>42 minutes ago</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>50.062896728516</v>
+        <v>50.013561248779</v>
       </c>
       <c r="E51" t="n">
-        <v>19.903749465942</v>
+        <v>19.926528930664</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52">
@@ -1824,14 +1824,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>20 minutes ago</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>50.062351226807</v>
+        <v>50.062919616699</v>
       </c>
       <c r="E52" t="n">
-        <v>19.904582977295</v>
+        <v>19.903575897217</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53">
@@ -1847,7 +1847,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1855,18 +1855,18 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>50.031440734863</v>
+        <v>50.062854766846</v>
       </c>
       <c r="E53" t="n">
-        <v>19.934896469116</v>
+        <v>19.903507232666</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Wańkowicza</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54">
@@ -1878,14 +1878,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>3 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>50.087177276611</v>
+        <v>50.072647094727</v>
       </c>
       <c r="E54" t="n">
-        <v>20.04993057251</v>
+        <v>19.984895706177</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55">
@@ -1909,10 +1909,10 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>50.068820953369</v>
+        <v>50.086494445801</v>
       </c>
       <c r="E55" t="n">
-        <v>19.979825973511</v>
+        <v>20.043159484863</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56">
@@ -1932,14 +1932,14 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>50.062965393066</v>
+        <v>50.057521820068</v>
       </c>
       <c r="E56" t="n">
-        <v>19.903263092041</v>
+        <v>19.957431793213</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="57">
@@ -1959,14 +1959,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>50.062942504883</v>
+        <v>50.061100006104</v>
       </c>
       <c r="E57" t="n">
-        <v>19.903610229492</v>
+        <v>19.979688644409</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58">
@@ -1982,7 +1982,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1990,18 +1990,18 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>50.086975097656</v>
+        <v>50.073650360107</v>
       </c>
       <c r="E58" t="n">
-        <v>20.047811508179</v>
+        <v>19.992013931274</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Wańkowicza</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59">
@@ -2009,7 +2009,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2017,18 +2017,18 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>50.086975097656</v>
+        <v>50.059024810791</v>
       </c>
       <c r="E59" t="n">
-        <v>20.047847747803</v>
+        <v>19.933853149414</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60">
@@ -2044,10 +2044,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>50.069435119629</v>
+        <v>50.06237411499</v>
       </c>
       <c r="E60" t="n">
-        <v>20.012847900391</v>
+        <v>19.90454864502</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61">
@@ -2063,26 +2063,26 @@
         <v>61</v>
       </c>
       <c r="B61" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>21 days ago</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>50.073535919189</v>
+        <v>50.031898498535</v>
       </c>
       <c r="E61" t="n">
-        <v>19.990556716919</v>
+        <v>19.934999465942</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Wańkowicza</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62">
@@ -2090,26 +2090,26 @@
         <v>62</v>
       </c>
       <c r="B62" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>16 days ago</t>
+          <t>5 minutes ago</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>50.031898498535</v>
+        <v>50.062694549561</v>
       </c>
       <c r="E62" t="n">
-        <v>19.934999465942</v>
+        <v>19.903854370117</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63">
@@ -2121,14 +2121,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>19 minutes ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>50.062694549561</v>
+        <v>50.075630187988</v>
       </c>
       <c r="E63" t="n">
-        <v>19.903888702393</v>
+        <v>20.020347595215</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64">
@@ -2148,14 +2148,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>3 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>50.086929321289</v>
+        <v>50.062942504883</v>
       </c>
       <c r="E64" t="n">
-        <v>20.047916412354</v>
+        <v>19.903299331665</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="65">
@@ -2171,26 +2171,26 @@
         <v>65</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>23 days ago</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>50.058910369873</v>
+        <v>50.076042175293</v>
       </c>
       <c r="E65" t="n">
-        <v>19.962568283081</v>
+        <v>19.939687728882</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Dworzec Towarowy</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="66">
@@ -2198,26 +2198,26 @@
         <v>66</v>
       </c>
       <c r="B66" t="n">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>18 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>50.076042175293</v>
+        <v>50.074195861816</v>
       </c>
       <c r="E66" t="n">
-        <v>19.939687728882</v>
+        <v>19.957534790039</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Dworzec Towarowy</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>329</v>
+        <v>401</v>
       </c>
     </row>
     <row r="67">
@@ -2225,26 +2225,26 @@
         <v>67</v>
       </c>
       <c r="B67" t="n">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>46 minutes ago</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>50.070232391357</v>
+        <v>50.067749023438</v>
       </c>
       <c r="E67" t="n">
-        <v>20.014999389648</v>
+        <v>20.065069198608</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Cmentarz Rakowicki</t>
+          <t>Bardosa</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="68">
@@ -2252,26 +2252,26 @@
         <v>68</v>
       </c>
       <c r="B68" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>22 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>50.075744628906</v>
+        <v>50.075927734375</v>
       </c>
       <c r="E68" t="n">
-        <v>19.939582824707</v>
+        <v>20.064027786255</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Dworzec Towarowy</t>
+          <t>Bardosa</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="69">
@@ -2279,26 +2279,26 @@
         <v>69</v>
       </c>
       <c r="B69" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>50.089412689209</v>
+        <v>50.043308258057</v>
       </c>
       <c r="E69" t="n">
-        <v>19.931667327881</v>
+        <v>19.974096298218</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="70">
@@ -2306,26 +2306,26 @@
         <v>70</v>
       </c>
       <c r="B70" t="n">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>10 days ago</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>50.041397094727</v>
+        <v>50.095264434814</v>
       </c>
       <c r="E70" t="n">
-        <v>19.961944580078</v>
+        <v>19.996076583862</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Mistrzejowice</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="71">
@@ -2333,26 +2333,26 @@
         <v>71</v>
       </c>
       <c r="B71" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>50.095264434814</v>
+        <v>50.030620574951</v>
       </c>
       <c r="E71" t="n">
-        <v>19.996076583862</v>
+        <v>19.92635345459</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Mistrzejowice</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="72">
@@ -2360,26 +2360,26 @@
         <v>72</v>
       </c>
       <c r="B72" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>21 hours ago</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>50.040187835693</v>
+        <v>50.075336456299</v>
       </c>
       <c r="E72" t="n">
-        <v>19.995903015137</v>
+        <v>19.940347671509</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Dworzec Towarowy</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="73">
@@ -2387,26 +2387,26 @@
         <v>73</v>
       </c>
       <c r="B73" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>20 hours ago</t>
+          <t>10 hours ago</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>50.040531158447</v>
+        <v>50.075744628906</v>
       </c>
       <c r="E73" t="n">
-        <v>20.001319885254</v>
+        <v>19.939653396606</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Dworzec Towarowy</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="74">
@@ -2414,26 +2414,26 @@
         <v>74</v>
       </c>
       <c r="B74" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2 hours ago</t>
+          <t>4 hours ago</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>50.088954925537</v>
+        <v>50.026977539062</v>
       </c>
       <c r="E74" t="n">
-        <v>19.931631088257</v>
+        <v>19.905347824097</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="75">
@@ -2441,26 +2441,26 @@
         <v>75</v>
       </c>
       <c r="B75" t="n">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>9 hours ago</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>50.102214813232</v>
+        <v>50.088932037354</v>
       </c>
       <c r="E75" t="n">
-        <v>20.012395858765</v>
+        <v>19.931596755981</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Os.Piastów</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="76">
@@ -2468,7 +2468,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="n">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2476,18 +2476,18 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>50.033103942871</v>
+        <v>50.065380096436</v>
       </c>
       <c r="E76" t="n">
-        <v>19.938402175903</v>
+        <v>19.951736450195</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Dworzec Towarowy</t>
+          <t>Cmentarz Rakowicki</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="77">
@@ -2495,26 +2495,26 @@
         <v>77</v>
       </c>
       <c r="B77" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2 hours ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>50.071758270264</v>
+        <v>50.072944641113</v>
       </c>
       <c r="E77" t="n">
-        <v>19.985000610352</v>
+        <v>20.118299484253</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Wieczysta</t>
+          <t>Pleszów</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="78">
@@ -2522,7 +2522,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="n">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2530,18 +2530,18 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>50.040142059326</v>
+        <v>50.039939880371</v>
       </c>
       <c r="E78" t="n">
-        <v>20.000556945801</v>
+        <v>20.001493453979</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="79">
@@ -2549,7 +2549,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2557,18 +2557,18 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>50.069549560547</v>
+        <v>50.023494720459</v>
       </c>
       <c r="E79" t="n">
-        <v>20.06711769104</v>
+        <v>19.979131698608</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Kopiec Wandy</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="80">
@@ -2576,26 +2576,26 @@
         <v>80</v>
       </c>
       <c r="B80" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>50.076065063477</v>
+        <v>50.077453613281</v>
       </c>
       <c r="E80" t="n">
-        <v>19.939792633057</v>
+        <v>20.065729141235</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Bardosa</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="81">
@@ -2603,26 +2603,26 @@
         <v>81</v>
       </c>
       <c r="B81" t="n">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>30 days ago</t>
+          <t>56 minutes ago</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>50.072078704834</v>
+        <v>50.073104858398</v>
       </c>
       <c r="E81" t="n">
-        <v>19.955381393433</v>
+        <v>20.063924789429</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Cmentarz Rakowicki</t>
+          <t>Bardosa</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="82">
@@ -2630,7 +2630,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2638,18 +2638,18 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>50.067680358887</v>
+        <v>50.072372436523</v>
       </c>
       <c r="E82" t="n">
-        <v>20.064479827881</v>
+        <v>19.984582901001</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Bardosa</t>
+          <t>Wieczysta</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="83">
@@ -2657,7 +2657,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="n">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2665,18 +2665,18 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>50.065517425537</v>
+        <v>50.053649902344</v>
       </c>
       <c r="E83" t="n">
-        <v>19.956493377686</v>
+        <v>19.939756393433</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Cmentarz Rakowicki</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="84">
@@ -2684,49 +2684,49 @@
         <v>84</v>
       </c>
       <c r="B84" t="n">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>50.078525543213</v>
+        <v>50.059139251709</v>
       </c>
       <c r="E84" t="n">
-        <v>20.066041946411</v>
+        <v>19.937673568726</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Bardosa</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" t="n">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>50.085334777832</v>
+        <v>50.039939880371</v>
       </c>
       <c r="E85" t="n">
-        <v>20.063680648804</v>
+        <v>20.001493453979</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Cmentarz Rakowicki</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -2735,14 +2735,14 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" t="n">
         <v>17</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>14 days ago</t>
+          <t>19 days ago</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -2762,25 +2762,25 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" t="n">
         <v>72</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>50.048114776611</v>
+        <v>50.040370941162</v>
       </c>
       <c r="E87" t="n">
-        <v>19.943368911743</v>
+        <v>20.001527786255</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Cmentarz Rakowicki</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -2789,21 +2789,21 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" t="n">
         <v>20</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>50.040439605713</v>
+        <v>50.040256500244</v>
       </c>
       <c r="E88" t="n">
-        <v>20.000659942627</v>
+        <v>20.00156211853</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" t="n">
         <v>20</v>
@@ -2827,14 +2827,14 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>50.061347961426</v>
+        <v>50.065517425537</v>
       </c>
       <c r="E89" t="n">
-        <v>19.91100692749</v>
+        <v>19.935451507568</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -2843,10 +2843,10 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" t="n">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2854,14 +2854,14 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>50.036998748779</v>
+        <v>50.058456420898</v>
       </c>
       <c r="E90" t="n">
-        <v>19.982707977295</v>
+        <v>19.95923614502</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Cmentarz Rakowicki</t>
+          <t>Dworzec Towarowy</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -2870,25 +2870,25 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>50.073627471924</v>
+        <v>50.068298339844</v>
       </c>
       <c r="E91" t="n">
-        <v>19.990694046021</v>
+        <v>20.070068359375</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Wieczysta</t>
+          <t>Bardosa</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -2897,10 +2897,10 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" t="n">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2908,14 +2908,14 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>50.026317596436</v>
+        <v>50.073947906494</v>
       </c>
       <c r="E92" t="n">
-        <v>19.903749465942</v>
+        <v>20.017568588257</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -2924,25 +2924,25 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93" t="n">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>57 minutes ago</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>50.015110015869</v>
+        <v>50.073558807373</v>
       </c>
       <c r="E93" t="n">
-        <v>19.944513320923</v>
+        <v>19.989652633667</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Wieczysta</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -2951,14 +2951,14 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" t="n">
         <v>49</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>31 days ago</t>
+          <t>36 days ago</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -2978,10 +2978,10 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2989,14 +2989,14 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>50.09517288208</v>
+        <v>50.072170257568</v>
       </c>
       <c r="E95" t="n">
-        <v>19.996215820312</v>
+        <v>19.945207595825</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -3005,25 +3005,25 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>3 hours ago</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>50.102054595947</v>
+        <v>50.018527984619</v>
       </c>
       <c r="E96" t="n">
-        <v>20.011909484863</v>
+        <v>19.888818740845</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Os.Piastów</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -3032,25 +3032,25 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97" t="n">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>50.088840484619</v>
+        <v>50.073329925537</v>
       </c>
       <c r="E97" t="n">
-        <v>19.930728912354</v>
+        <v>19.986492156982</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Wieczysta</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -3059,21 +3059,21 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" t="n">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>50.059230804443</v>
+        <v>50.040348052979</v>
       </c>
       <c r="E98" t="n">
-        <v>19.933090209961</v>
+        <v>20.000799179077</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -3086,25 +3086,25 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B99" t="n">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>50.064289093018</v>
+        <v>50.074287414551</v>
       </c>
       <c r="E99" t="n">
-        <v>19.944791793823</v>
+        <v>19.910034179688</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Pleszów</t>
+          <t>Os.Piastów</t>
         </is>
       </c>
       <c r="G99" t="n">
@@ -3113,14 +3113,14 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B100" t="n">
         <v>49</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>78 days ago</t>
+          <t>83 days ago</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -3140,14 +3140,14 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101" t="n">
         <v>49</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>6 hours ago</t>
+          <t>5 days ago</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -3167,25 +3167,25 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B102" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>50.073013305664</v>
+        <v>50.072692871094</v>
       </c>
       <c r="E102" t="n">
-        <v>20.036319732666</v>
+        <v>19.985103607178</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Os.Piastów</t>
+          <t>Wieczysta</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -3194,10 +3194,10 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103" t="n">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -3205,14 +3205,14 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>50.088954925537</v>
+        <v>50.070983886719</v>
       </c>
       <c r="E103" t="n">
-        <v>19.931596755981</v>
+        <v>19.982639312744</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -3221,25 +3221,25 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>3 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>50.033149719238</v>
+        <v>50.079002380371</v>
       </c>
       <c r="E104" t="n">
-        <v>19.97642326355</v>
+        <v>20.028089523315</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Pleszów</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -3248,10 +3248,10 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105" t="n">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -3259,14 +3259,14 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>50.030780792236</v>
+        <v>50.036613464355</v>
       </c>
       <c r="E105" t="n">
-        <v>19.924617767334</v>
+        <v>19.982292175293</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Cmentarz Rakowicki</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -3275,7 +3275,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106" t="n">
         <v>21</v>
@@ -3286,10 +3286,10 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>50.101940155029</v>
+        <v>50.072715759277</v>
       </c>
       <c r="E106" t="n">
-        <v>20.012292861938</v>
+        <v>20.117292404175</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -3302,14 +3302,14 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B107" t="n">
         <v>21</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>21 days ago</t>
+          <t>25 days ago</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -3329,14 +3329,14 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B108" t="n">
         <v>21</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>27 days ago</t>
+          <t>32 days ago</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -3356,14 +3356,14 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B109" t="n">
         <v>52</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>115 days ago</t>
+          <t>120 days ago</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -3383,25 +3383,25 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B110" t="n">
         <v>1</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>6 hours ago</t>
+          <t>19 hours ago</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>50.060394287109</v>
+        <v>50.085857391357</v>
       </c>
       <c r="E110" t="n">
-        <v>19.978403091431</v>
+        <v>20.039688110352</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Wańkowicza</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -3410,18 +3410,18 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B111" t="n">
         <v>1</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>22 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>50.087020874023</v>
+        <v>50.08699798584</v>
       </c>
       <c r="E111" t="n">
         <v>20.047777175903</v>
@@ -3437,21 +3437,21 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B112" t="n">
         <v>1</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>50.06298828125</v>
+        <v>50.08699798584</v>
       </c>
       <c r="E112" t="n">
-        <v>19.903125762939</v>
+        <v>20.047639846802</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3459,96 +3459,96 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>31 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>50.08674621582</v>
+        <v>50.072967529297</v>
       </c>
       <c r="E113" t="n">
-        <v>20.045381546021</v>
+        <v>20.01718711853</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Wańkowicza</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B114" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>36 days ago</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>50.017478942871</v>
+        <v>50.08674621582</v>
       </c>
       <c r="E114" t="n">
-        <v>19.991180419922</v>
+        <v>20.045381546021</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Wańkowicza</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>601</v>
+        <v>462</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B115" t="n">
         <v>13</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>50.029666900635</v>
+        <v>50.015338897705</v>
       </c>
       <c r="E115" t="n">
-        <v>19.974061965942</v>
+        <v>20.022882461548</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B116" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -3556,53 +3556,53 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>50.030826568604</v>
+        <v>50.014427185059</v>
       </c>
       <c r="E116" t="n">
-        <v>19.972917556763</v>
+        <v>19.999027252197</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B117" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>14 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>50.018688201904</v>
+        <v>50.064811706543</v>
       </c>
       <c r="E117" t="n">
-        <v>19.88885307312</v>
+        <v>19.948160171509</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B118" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -3610,91 +3610,91 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>50.066246032715</v>
+        <v>50.031578063965</v>
       </c>
       <c r="E118" t="n">
-        <v>19.938299179077</v>
+        <v>19.933610916138</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Os.Piastów</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B119" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2 hours ago</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>50.012786865234</v>
+        <v>50.040416717529</v>
       </c>
       <c r="E119" t="n">
-        <v>19.927673339844</v>
+        <v>20.001596450806</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B120" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>50.077201843262</v>
+        <v>50.013221740723</v>
       </c>
       <c r="E120" t="n">
-        <v>19.901874542236</v>
+        <v>19.926839828491</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B121" t="n">
         <v>13</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>50.01586151123</v>
+        <v>50.044242858887</v>
       </c>
       <c r="E121" t="n">
-        <v>20.02357673645</v>
+        <v>19.946561813354</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -3702,26 +3702,26 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B122" t="n">
         <v>20</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>47 minutes ago</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>50.040393829346</v>
+        <v>50.040210723877</v>
       </c>
       <c r="E122" t="n">
-        <v>20.00156211853</v>
+        <v>20.000486373901</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -3729,69 +3729,69 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B123" t="n">
         <v>72</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>19 hours ago</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>50.064811706543</v>
+        <v>50.040531158447</v>
       </c>
       <c r="E123" t="n">
-        <v>19.944549560547</v>
+        <v>20.001388549805</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Cmentarz Rakowicki</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B124" t="n">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>50.013038635254</v>
+        <v>50.040393829346</v>
       </c>
       <c r="E124" t="n">
-        <v>19.927188873291</v>
+        <v>20.000799179077</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B125" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -3799,80 +3799,80 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>50.040393829346</v>
+        <v>50.088840484619</v>
       </c>
       <c r="E125" t="n">
-        <v>20.001527786255</v>
+        <v>19.931562423706</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B126" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>14 minutes ago</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>50.018230438232</v>
+        <v>50.040370941162</v>
       </c>
       <c r="E126" t="n">
-        <v>19.889930725098</v>
+        <v>20.000728607178</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B127" t="n">
         <v>13</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>50.069389343262</v>
+        <v>50.077224731445</v>
       </c>
       <c r="E127" t="n">
-        <v>19.926042556763</v>
+        <v>19.901285171509</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B128" t="n">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -3880,10 +3880,10 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>50.074264526367</v>
+        <v>50.040462493896</v>
       </c>
       <c r="E128" t="n">
-        <v>19.957534790039</v>
+        <v>20.000694274902</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -3891,15 +3891,15 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B129" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -3907,23 +3907,23 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>50.04642868042</v>
+        <v>50.012355804443</v>
       </c>
       <c r="E129" t="n">
-        <v>19.955173492432</v>
+        <v>19.95631980896</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B130" t="n">
         <v>20</v>
@@ -3934,37 +3934,37 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>50.045520782471</v>
+        <v>50.060848236084</v>
       </c>
       <c r="E130" t="n">
-        <v>19.972846984863</v>
+        <v>19.913957595825</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B131" t="n">
         <v>19</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2 hours ago</t>
+          <t>47 minutes ago</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>50.01301574707</v>
+        <v>50.012763977051</v>
       </c>
       <c r="E131" t="n">
-        <v>19.927152633667</v>
+        <v>19.927639007568</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -3972,96 +3972,96 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B132" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>50.0126953125</v>
+        <v>50.058525085449</v>
       </c>
       <c r="E132" t="n">
-        <v>19.927673339844</v>
+        <v>19.941076278687</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B133" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>50.062942504883</v>
+        <v>50.040576934814</v>
       </c>
       <c r="E133" t="n">
-        <v>19.903749465942</v>
+        <v>19.989931106567</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B134" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>50.051280975342</v>
+        <v>50.062942504883</v>
       </c>
       <c r="E134" t="n">
-        <v>19.942222595215</v>
+        <v>19.903749465942</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B135" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -4069,26 +4069,26 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>50.040008544922</v>
+        <v>50.031555175781</v>
       </c>
       <c r="E135" t="n">
-        <v>20.001527786255</v>
+        <v>19.921457290649</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B136" t="n">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -4096,161 +4096,161 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>50.057498931885</v>
+        <v>50.04239654541</v>
       </c>
       <c r="E136" t="n">
-        <v>19.946285247803</v>
+        <v>19.96079826355</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Dworzec Towarowy</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B137" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>50.013038635254</v>
+        <v>50.017887115479</v>
       </c>
       <c r="E137" t="n">
-        <v>19.927221298218</v>
+        <v>19.889896392822</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Dworzec Towarowy</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B138" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>6 hours ago</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>50.084606170654</v>
+        <v>50.031555175781</v>
       </c>
       <c r="E138" t="n">
-        <v>20.020416259766</v>
+        <v>19.934131622314</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B139" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>50.018367767334</v>
+        <v>50.015769958496</v>
       </c>
       <c r="E139" t="n">
-        <v>19.888610839844</v>
+        <v>20.023611068726</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B140" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>50.077247619629</v>
+        <v>50.018367767334</v>
       </c>
       <c r="E140" t="n">
-        <v>19.901527404785</v>
+        <v>19.888610839844</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B141" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>8 hours ago</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>50.018413543701</v>
+        <v>50.040233612061</v>
       </c>
       <c r="E141" t="n">
-        <v>19.889617919922</v>
+        <v>20.00156211853</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B142" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -4258,37 +4258,37 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>50.057910919189</v>
+        <v>50.075950622559</v>
       </c>
       <c r="E142" t="n">
-        <v>19.959062576294</v>
+        <v>19.939687728882</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Dworzec Towarowy</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B143" t="n">
         <v>13</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2 hours ago</t>
+          <t>19 hours ago</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>50.076953887939</v>
+        <v>50.077156066895</v>
       </c>
       <c r="E143" t="n">
-        <v>19.90305519104</v>
+        <v>19.901943206787</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -4296,42 +4296,42 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B144" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>50.015384674072</v>
+        <v>50.018642425537</v>
       </c>
       <c r="E144" t="n">
-        <v>20.022777557373</v>
+        <v>19.88899230957</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B145" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -4339,158 +4339,158 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>50.072147369385</v>
+        <v>50.063011169434</v>
       </c>
       <c r="E145" t="n">
-        <v>19.945138931274</v>
+        <v>19.903228759766</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B146" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>50.030872344971</v>
+        <v>50.046955108643</v>
       </c>
       <c r="E146" t="n">
-        <v>19.933576583862</v>
+        <v>19.954931259155</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Pleszów</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B147" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>28 minutes ago</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>50.024837493896</v>
+        <v>50.040416717529</v>
       </c>
       <c r="E147" t="n">
-        <v>19.934097290039</v>
+        <v>20.000659942627</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B148" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>50.088932037354</v>
+        <v>50.027206420898</v>
       </c>
       <c r="E148" t="n">
-        <v>19.931562423706</v>
+        <v>19.935382843018</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B149" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>6 hours ago</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>50.062782287598</v>
+        <v>50.07706451416</v>
       </c>
       <c r="E149" t="n">
-        <v>19.903854370117</v>
+        <v>19.902708053589</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B150" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2 hours ago</t>
+          <t>2 minutes ago</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>50.012672424316</v>
+        <v>50.031555175781</v>
       </c>
       <c r="E150" t="n">
-        <v>19.927568435669</v>
+        <v>19.921562194824</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Dworzec Towarowy</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B151" t="n">
         <v>13</v>
@@ -4501,26 +4501,26 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>50.015632629395</v>
+        <v>50.064926147461</v>
       </c>
       <c r="E151" t="n">
-        <v>20.023090362549</v>
+        <v>19.931528091431</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B152" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -4528,145 +4528,145 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>50.063011169434</v>
+        <v>50.075176239014</v>
       </c>
       <c r="E152" t="n">
-        <v>19.903228759766</v>
+        <v>19.907014846802</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B153" t="n">
         <v>20</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>50.040370941162</v>
+        <v>50.040668487549</v>
       </c>
       <c r="E153" t="n">
-        <v>20.001527786255</v>
+        <v>19.987916946411</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B154" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>21 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>50.015769958496</v>
+        <v>50.032558441162</v>
       </c>
       <c r="E154" t="n">
-        <v>20.024200439453</v>
+        <v>19.971214294434</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B155" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>50.059093475342</v>
+        <v>50.012741088867</v>
       </c>
       <c r="E155" t="n">
-        <v>19.940034866333</v>
+        <v>19.927568435669</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B156" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>11 hours ago</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>50.014972686768</v>
+        <v>50.014064788818</v>
       </c>
       <c r="E156" t="n">
-        <v>19.997188568115</v>
+        <v>19.926424026489</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B157" t="n">
         <v>13</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2 hours ago</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>50.077156066895</v>
+        <v>50.077110290527</v>
       </c>
       <c r="E157" t="n">
-        <v>19.90191078186</v>
+        <v>19.901388168335</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -4674,96 +4674,96 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B158" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>50.040439605713</v>
+        <v>50.015316009521</v>
       </c>
       <c r="E158" t="n">
-        <v>20.000799179077</v>
+        <v>20.0234375</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B159" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>50.017936706543</v>
+        <v>50.077156066895</v>
       </c>
       <c r="E159" t="n">
-        <v>19.889305114746</v>
+        <v>19.90191078186</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Dworzec Towarowy</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B160" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>50.023494720459</v>
+        <v>50.086494445801</v>
       </c>
       <c r="E160" t="n">
-        <v>19.979131698608</v>
+        <v>19.933055877686</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B161" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -4771,26 +4771,26 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>50.012832641602</v>
+        <v>50.015678405762</v>
       </c>
       <c r="E161" t="n">
-        <v>19.948715209961</v>
+        <v>20.023090362549</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>701</v>
+        <v>650</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B162" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -4798,26 +4798,26 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>50.095039367676</v>
+        <v>50.013286590576</v>
       </c>
       <c r="E162" t="n">
-        <v>19.995311737061</v>
+        <v>19.948854446411</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Mistrzejowice</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B163" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -4825,26 +4825,26 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>50.054061889648</v>
+        <v>50.104602813721</v>
       </c>
       <c r="E163" t="n">
-        <v>19.943958282471</v>
+        <v>19.964305877686</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Kombinat</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B164" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -4852,26 +4852,26 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>50.071781158447</v>
+        <v>50.018619537354</v>
       </c>
       <c r="E164" t="n">
-        <v>20.035381317139</v>
+        <v>19.888610839844</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B165" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -4879,26 +4879,26 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>50.087043762207</v>
+        <v>50.065929412842</v>
       </c>
       <c r="E165" t="n">
-        <v>20.06236076355</v>
+        <v>19.960451126099</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B166" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -4906,53 +4906,53 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>50.105331420898</v>
+        <v>50.048458099365</v>
       </c>
       <c r="E166" t="n">
-        <v>19.96079826355</v>
+        <v>19.930625915527</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>714</v>
+        <v>706</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B167" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>2 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>50.102600097656</v>
+        <v>50.066635131836</v>
       </c>
       <c r="E167" t="n">
-        <v>19.957674026489</v>
+        <v>20.003610610962</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Kombinat</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>715</v>
+        <v>707</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B168" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -4960,26 +4960,26 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>50.083625793457</v>
+        <v>50.050052642822</v>
       </c>
       <c r="E168" t="n">
-        <v>19.933923721313</v>
+        <v>19.93593788147</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>716</v>
+        <v>708</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B169" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -4987,26 +4987,26 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>50.060619354248</v>
+        <v>50.087043762207</v>
       </c>
       <c r="E169" t="n">
-        <v>19.969999313354</v>
+        <v>20.06236076355</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Mistrzejowice</t>
+          <t>Kopiec Wandy</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>717</v>
+        <v>709</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B170" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -5014,26 +5014,26 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>50.057888031006</v>
+        <v>50.039321899414</v>
       </c>
       <c r="E170" t="n">
-        <v>19.943853378296</v>
+        <v>19.964061737061</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>719</v>
+        <v>710</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B171" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -5041,134 +5041,134 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>50.09455871582</v>
+        <v>50.015747070312</v>
       </c>
       <c r="E171" t="n">
-        <v>20.012222290039</v>
+        <v>20.023958206177</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Mistrzejowice</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B172" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>21 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>50.085674285889</v>
+        <v>50.095630645752</v>
       </c>
       <c r="E172" t="n">
-        <v>20.062847137451</v>
+        <v>19.940624237061</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>723</v>
+        <v>714</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B173" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>50.077861785889</v>
+        <v>50.016361236572</v>
       </c>
       <c r="E173" t="n">
-        <v>19.938299179077</v>
+        <v>20.007986068726</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>724</v>
+        <v>715</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B174" t="n">
         <v>10</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>20 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>50.06759262085</v>
+        <v>50.072284698486</v>
       </c>
       <c r="E174" t="n">
-        <v>20.061805725098</v>
+        <v>20.115798950195</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Bardosa</t>
+          <t>Pleszów</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>725</v>
+        <v>716</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B175" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>21 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>50.095218658447</v>
+        <v>50.067497253418</v>
       </c>
       <c r="E175" t="n">
-        <v>19.995035171509</v>
+        <v>20.005346298218</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Mistrzejowice</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>726</v>
+        <v>717</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B176" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -5176,26 +5176,26 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>50.043216705322</v>
+        <v>50.026748657227</v>
       </c>
       <c r="E176" t="n">
-        <v>19.960103988647</v>
+        <v>19.905174255371</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>727</v>
+        <v>718</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B177" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -5203,26 +5203,26 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>50.020668029785</v>
+        <v>50.066749572754</v>
       </c>
       <c r="E177" t="n">
-        <v>19.932083129883</v>
+        <v>19.938924789429</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>729</v>
+        <v>719</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B178" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -5230,26 +5230,26 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>50.030120849609</v>
+        <v>50.051326751709</v>
       </c>
       <c r="E178" t="n">
-        <v>19.933923721313</v>
+        <v>19.941457748413</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Kopiec Wandy</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>730</v>
+        <v>720</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B179" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -5257,53 +5257,53 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>50.058364868164</v>
+        <v>50.104877471924</v>
       </c>
       <c r="E179" t="n">
-        <v>19.95923614502</v>
+        <v>19.964374542236</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Mistrzejowice</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>731</v>
+        <v>721</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B180" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>31 minutes ago</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>50.073055267334</v>
+        <v>50.088954925537</v>
       </c>
       <c r="E180" t="n">
-        <v>20.018957138062</v>
+        <v>19.930589675903</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Pleszów</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>734</v>
+        <v>722</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B181" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -5311,26 +5311,26 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>50.018756866455</v>
+        <v>50.017639160156</v>
       </c>
       <c r="E181" t="n">
-        <v>19.888784408569</v>
+        <v>19.936389923096</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G181" t="n">
-        <v>735</v>
+        <v>723</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B182" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -5338,10 +5338,10 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>50.073104858398</v>
+        <v>50.014812469482</v>
       </c>
       <c r="E182" t="n">
-        <v>20.021701812744</v>
+        <v>19.944339752197</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -5349,39 +5349,39 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>736</v>
+        <v>724</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B183" t="n">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>7 hours ago</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>50.07389831543</v>
+        <v>50.079208374023</v>
       </c>
       <c r="E183" t="n">
-        <v>19.999410629272</v>
+        <v>20.064306259155</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Os.Piastów</t>
+          <t>Kombinat</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>737</v>
+        <v>725</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B184" t="n">
         <v>18</v>
@@ -5392,10 +5392,10 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>50.060642242432</v>
+        <v>50.097930908203</v>
       </c>
       <c r="E184" t="n">
-        <v>19.932395935059</v>
+        <v>19.955902099609</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -5403,42 +5403,42 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>742</v>
+        <v>726</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="B185" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>50.105014801025</v>
+        <v>50.015655517578</v>
       </c>
       <c r="E185" t="n">
-        <v>19.959583282471</v>
+        <v>20.023750305176</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Mistrzejowice</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>743</v>
+        <v>727</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B186" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -5446,37 +5446,37 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>50.064582824707</v>
+        <v>50.0126953125</v>
       </c>
       <c r="E186" t="n">
-        <v>19.931840896606</v>
+        <v>19.927881240845</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>744</v>
+        <v>730</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B187" t="n">
         <v>10</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>50.013130187988</v>
+        <v>50.072441101074</v>
       </c>
       <c r="E187" t="n">
-        <v>19.948055267334</v>
+        <v>20.02833366394</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -5484,15 +5484,15 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>801</v>
+        <v>731</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="B188" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -5500,26 +5500,26 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>50.082077026367</v>
+        <v>50.067886352539</v>
       </c>
       <c r="E188" t="n">
-        <v>19.8828125</v>
+        <v>19.945207595825</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>803</v>
+        <v>733</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B189" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -5527,53 +5527,53 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>50.059116363525</v>
+        <v>50.044723510742</v>
       </c>
       <c r="E189" t="n">
-        <v>19.93763923645</v>
+        <v>19.973785400391</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>804</v>
+        <v>735</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B190" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>43 minutes ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>50.030166625977</v>
+        <v>50.065223693848</v>
       </c>
       <c r="E190" t="n">
-        <v>19.934236526489</v>
+        <v>19.952257156372</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>805</v>
+        <v>736</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="B191" t="n">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -5581,26 +5581,26 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>50.065563201904</v>
+        <v>50.074378967285</v>
       </c>
       <c r="E191" t="n">
-        <v>19.996597290039</v>
+        <v>20.004131317139</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Os.Piastów</t>
         </is>
       </c>
       <c r="G191" t="n">
-        <v>806</v>
+        <v>737</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="B192" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -5608,53 +5608,53 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>50.077705383301</v>
+        <v>50.044742584229</v>
       </c>
       <c r="E192" t="n">
-        <v>19.900903701782</v>
+        <v>19.956666946411</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>808</v>
+        <v>739</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B193" t="n">
         <v>10</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>21 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>50.01294708252</v>
+        <v>50.039894104004</v>
       </c>
       <c r="E193" t="n">
-        <v>19.948299407959</v>
+        <v>19.942361831665</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Pleszów</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>809</v>
+        <v>740</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="B194" t="n">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -5662,26 +5662,26 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>50.031875610352</v>
+        <v>50.024562835693</v>
       </c>
       <c r="E194" t="n">
-        <v>19.933784484863</v>
+        <v>19.902187347412</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Os.Piastów</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>810</v>
+        <v>741</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B195" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -5689,64 +5689,64 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>50.062488555908</v>
+        <v>50.072647094727</v>
       </c>
       <c r="E195" t="n">
-        <v>19.932117462158</v>
+        <v>20.037118911743</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>811</v>
+        <v>742</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B196" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>35 minutes ago</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>50.065723419189</v>
+        <v>50.081600189209</v>
       </c>
       <c r="E196" t="n">
-        <v>19.959478378296</v>
+        <v>19.882291793823</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Bronowice Małe</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>812</v>
+        <v>743</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="B197" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>50.012901306152</v>
+        <v>50.059844970703</v>
       </c>
       <c r="E197" t="n">
-        <v>19.927465438843</v>
+        <v>19.973611831665</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -5754,42 +5754,42 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>814</v>
+        <v>745</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B198" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>50.031509399414</v>
+        <v>50.03137588501</v>
       </c>
       <c r="E198" t="n">
-        <v>19.933923721313</v>
+        <v>19.934965133667</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>815</v>
+        <v>801</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B199" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -5797,26 +5797,26 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>50.074264526367</v>
+        <v>50.068252563477</v>
       </c>
       <c r="E199" t="n">
-        <v>19.909999847412</v>
+        <v>19.927534103394</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Mistrzejowice</t>
+          <t>Bronowice Małe</t>
         </is>
       </c>
       <c r="G199" t="n">
-        <v>817</v>
+        <v>803</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B200" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -5824,37 +5824,37 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>50.01326751709</v>
+        <v>50.095039367676</v>
       </c>
       <c r="E200" t="n">
-        <v>19.926874160767</v>
+        <v>19.996353149414</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>818</v>
+        <v>804</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B201" t="n">
         <v>8</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>50.013221740723</v>
+        <v>50.036884307861</v>
       </c>
       <c r="E201" t="n">
-        <v>19.926839828491</v>
+        <v>19.940763473511</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -5862,26 +5862,26 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>819</v>
+        <v>805</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B202" t="n">
         <v>8</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>47 minutes ago</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>50.013038635254</v>
+        <v>50.012741088867</v>
       </c>
       <c r="E202" t="n">
-        <v>19.927188873291</v>
+        <v>19.927639007568</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -5889,26 +5889,26 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>820</v>
+        <v>806</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B203" t="n">
         <v>8</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>50.030349731445</v>
+        <v>50.07303237915</v>
       </c>
       <c r="E203" t="n">
-        <v>19.936874389648</v>
+        <v>19.915174484253</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -5916,123 +5916,123 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>821</v>
+        <v>808</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="B204" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>34 minutes ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>50.01388168335</v>
+        <v>50.04487991333</v>
       </c>
       <c r="E204" t="n">
-        <v>19.949409484863</v>
+        <v>19.945659637451</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Bronowice Małe</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>822</v>
+        <v>809</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B205" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>50.012535095215</v>
+        <v>50.031875610352</v>
       </c>
       <c r="E205" t="n">
-        <v>19.927534103394</v>
+        <v>19.933784484863</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Mistrzejowice</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>824</v>
+        <v>810</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B206" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>19 hours ago</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>50.031284332275</v>
+        <v>50.012672424316</v>
       </c>
       <c r="E206" t="n">
-        <v>19.934965133667</v>
+        <v>19.927673339844</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>825</v>
+        <v>811</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B207" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>28 minutes ago</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>50.068115234375</v>
+        <v>50.0126953125</v>
       </c>
       <c r="E207" t="n">
-        <v>19.938472747803</v>
+        <v>19.927604675293</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>826</v>
+        <v>812</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="B208" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -6040,10 +6040,10 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>50.081508636475</v>
+        <v>50.013198852539</v>
       </c>
       <c r="E208" t="n">
-        <v>19.881458282471</v>
+        <v>19.926874160767</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -6051,69 +6051,69 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>829</v>
+        <v>813</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="B209" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>50.053218841553</v>
+        <v>50.013061523438</v>
       </c>
       <c r="E209" t="n">
-        <v>19.948888778687</v>
+        <v>19.927188873291</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>830</v>
+        <v>814</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="B210" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>11 days ago</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>50.039665222168</v>
+        <v>50.031509399414</v>
       </c>
       <c r="E210" t="n">
-        <v>19.942083358765</v>
+        <v>19.933923721313</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Pleszów</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G210" t="n">
-        <v>831</v>
+        <v>815</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B211" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -6121,64 +6121,64 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>50.018482208252</v>
+        <v>50.081893920898</v>
       </c>
       <c r="E211" t="n">
-        <v>19.889339447021</v>
+        <v>19.881944656372</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G211" t="n">
-        <v>832</v>
+        <v>817</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B212" t="n">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>11 hours ago</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>50.068820953369</v>
+        <v>50.031463623047</v>
       </c>
       <c r="E212" t="n">
-        <v>20.069965362549</v>
+        <v>19.933889389038</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Kopiec Wandy</t>
+          <t>Os.Piastów</t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>833</v>
+        <v>818</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="B213" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>12 hours ago</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>50.057636260986</v>
+        <v>50.012535095215</v>
       </c>
       <c r="E213" t="n">
-        <v>19.959028244019</v>
+        <v>19.927604675293</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -6186,15 +6186,15 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>836</v>
+        <v>819</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="B214" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>50.012718200684</v>
+        <v>50.075859069824</v>
       </c>
       <c r="E214" t="n">
-        <v>19.927846908569</v>
+        <v>19.905902862549</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -6213,96 +6213,96 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>842</v>
+        <v>820</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="B215" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>27 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>50.032238006592</v>
+        <v>50.095081329346</v>
       </c>
       <c r="E215" t="n">
-        <v>19.935243606567</v>
+        <v>19.996284484863</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>843</v>
+        <v>821</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="B216" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>2 hours ago</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>50.02428817749</v>
+        <v>50.014587402344</v>
       </c>
       <c r="E216" t="n">
-        <v>19.97947883606</v>
+        <v>19.926910400391</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G216" t="n">
-        <v>845</v>
+        <v>822</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="B217" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>50.088706970215</v>
+        <v>50.029960632324</v>
       </c>
       <c r="E217" t="n">
-        <v>19.931180953979</v>
+        <v>19.936319351196</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Mistrzejowice</t>
         </is>
       </c>
       <c r="G217" t="n">
-        <v>846</v>
+        <v>824</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="B218" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -6310,26 +6310,26 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>50.095355987549</v>
+        <v>50.081531524658</v>
       </c>
       <c r="E218" t="n">
-        <v>19.995069503784</v>
+        <v>19.881492614746</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Mistrzejowice</t>
+          <t>Bronowice Małe</t>
         </is>
       </c>
       <c r="G218" t="n">
-        <v>847</v>
+        <v>825</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="B219" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -6337,23 +6337,23 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>50.015975952148</v>
+        <v>50.063583374023</v>
       </c>
       <c r="E219" t="n">
-        <v>20.01996421814</v>
+        <v>19.945035934448</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Mistrzejowice</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G219" t="n">
-        <v>848</v>
+        <v>827</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="B220" t="n">
         <v>18</v>
@@ -6364,10 +6364,10 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>50.104969024658</v>
+        <v>50.045745849609</v>
       </c>
       <c r="E220" t="n">
-        <v>19.963785171509</v>
+        <v>19.922361373901</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -6375,69 +6375,69 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>849</v>
+        <v>828</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="B221" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>39 minutes ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>50.105243682861</v>
+        <v>50.012924194336</v>
       </c>
       <c r="E221" t="n">
-        <v>19.963714599609</v>
+        <v>19.94836807251</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G221" t="n">
-        <v>850</v>
+        <v>832</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="B222" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>50.081554412842</v>
+        <v>50.08332824707</v>
       </c>
       <c r="E222" t="n">
-        <v>19.881458282471</v>
+        <v>19.934478759766</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G222" t="n">
-        <v>852</v>
+        <v>833</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="B223" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -6445,26 +6445,26 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>50.048206329346</v>
+        <v>50.030075073242</v>
       </c>
       <c r="E223" t="n">
-        <v>19.943714141846</v>
+        <v>19.913438796997</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G223" t="n">
-        <v>855</v>
+        <v>834</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="B224" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -6472,53 +6472,53 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>50.078773498535</v>
+        <v>50.057361602783</v>
       </c>
       <c r="E224" t="n">
-        <v>20.065902709961</v>
+        <v>19.944444656372</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Kopiec Wandy</t>
+          <t>Bronowice Małe</t>
         </is>
       </c>
       <c r="G224" t="n">
-        <v>856</v>
+        <v>835</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="B225" t="n">
         <v>11</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>50.078704833984</v>
+        <v>50.03303527832</v>
       </c>
       <c r="E225" t="n">
-        <v>20.025938034058</v>
+        <v>19.933229446411</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G225" t="n">
-        <v>857</v>
+        <v>836</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="B226" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -6526,26 +6526,26 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>50.07360458374</v>
+        <v>50.057113647461</v>
       </c>
       <c r="E226" t="n">
-        <v>19.944965362549</v>
+        <v>19.958957672119</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G226" t="n">
-        <v>859</v>
+        <v>837</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="B227" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -6553,23 +6553,23 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>50.094764709473</v>
+        <v>50.012809753418</v>
       </c>
       <c r="E227" t="n">
-        <v>19.996423721313</v>
+        <v>19.948818206787</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G227" t="n">
-        <v>860</v>
+        <v>838</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="B228" t="n">
         <v>50</v>
@@ -6580,10 +6580,10 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>50.066017150879</v>
+        <v>50.068431854248</v>
       </c>
       <c r="E228" t="n">
-        <v>19.958715438843</v>
+        <v>20.009443283081</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -6591,42 +6591,42 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>863</v>
+        <v>839</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="B229" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>12 hours ago</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>50.101871490479</v>
+        <v>50.08606338501</v>
       </c>
       <c r="E229" t="n">
-        <v>19.95774269104</v>
+        <v>20.063228607178</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G229" t="n">
-        <v>864</v>
+        <v>841</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="B230" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -6634,53 +6634,53 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>50.026569366455</v>
+        <v>50.069549560547</v>
       </c>
       <c r="E230" t="n">
-        <v>19.977325439453</v>
+        <v>19.980693817139</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G230" t="n">
-        <v>865</v>
+        <v>842</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="B231" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>32 days ago</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>50.094856262207</v>
+        <v>50.032238006592</v>
       </c>
       <c r="E231" t="n">
-        <v>19.996667861938</v>
+        <v>19.935243606567</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G231" t="n">
-        <v>866</v>
+        <v>843</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="B232" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -6688,26 +6688,26 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>50.066635131836</v>
+        <v>50.042442321777</v>
       </c>
       <c r="E232" t="n">
-        <v>20.003541946411</v>
+        <v>19.944410324097</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Kopiec Wandy</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G232" t="n">
-        <v>867</v>
+        <v>844</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="B233" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -6715,26 +6715,26 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>50.039367675781</v>
+        <v>50.01927947998</v>
       </c>
       <c r="E233" t="n">
-        <v>19.925382614136</v>
+        <v>19.987882614136</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G233" t="n">
-        <v>868</v>
+        <v>845</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="B234" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -6742,26 +6742,26 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>50.089595794678</v>
+        <v>50.080642700195</v>
       </c>
       <c r="E234" t="n">
-        <v>19.931770324707</v>
+        <v>19.9375</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G234" t="n">
-        <v>869</v>
+        <v>846</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="B235" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -6769,26 +6769,26 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>50.084831237793</v>
+        <v>50.056201934814</v>
       </c>
       <c r="E235" t="n">
-        <v>19.933610916138</v>
+        <v>19.945589065552</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G235" t="n">
-        <v>871</v>
+        <v>847</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="B236" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -6796,26 +6796,26 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>50.072761535645</v>
+        <v>50.066223144531</v>
       </c>
       <c r="E236" t="n">
-        <v>20.117082595825</v>
+        <v>19.937673568726</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Mistrzejowice</t>
         </is>
       </c>
       <c r="G236" t="n">
-        <v>874</v>
+        <v>850</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="B237" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -6823,26 +6823,26 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>50.0954246521</v>
+        <v>50.015338897705</v>
       </c>
       <c r="E237" t="n">
-        <v>19.93302154541</v>
+        <v>19.996145248413</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Mistrzejowice</t>
         </is>
       </c>
       <c r="G237" t="n">
-        <v>875</v>
+        <v>851</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="B238" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -6850,53 +6850,53 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>50.015701293945</v>
+        <v>50.077133178711</v>
       </c>
       <c r="E238" t="n">
-        <v>20.023889541626</v>
+        <v>19.901424407959</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G238" t="n">
-        <v>876</v>
+        <v>852</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="B239" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>50.033172607422</v>
+        <v>50.015270233154</v>
       </c>
       <c r="E239" t="n">
-        <v>19.934478759766</v>
+        <v>19.971353530884</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G239" t="n">
-        <v>878</v>
+        <v>855</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="B240" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -6904,26 +6904,26 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>50.016410827637</v>
+        <v>50.094787597656</v>
       </c>
       <c r="E240" t="n">
-        <v>20.007707595825</v>
+        <v>19.995937347412</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Mistrzejowice</t>
         </is>
       </c>
       <c r="G240" t="n">
-        <v>879</v>
+        <v>856</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="B241" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -6931,53 +6931,53 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>50.013813018799</v>
+        <v>50.071895599365</v>
       </c>
       <c r="E241" t="n">
-        <v>19.950416564941</v>
+        <v>19.944999694824</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G241" t="n">
-        <v>880</v>
+        <v>857</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="B242" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>50.075744628906</v>
+        <v>50.084922790527</v>
       </c>
       <c r="E242" t="n">
-        <v>19.941284179688</v>
+        <v>20.064409255981</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G242" t="n">
-        <v>881</v>
+        <v>858</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="B243" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -6985,26 +6985,26 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>50.012855529785</v>
+        <v>50.065540313721</v>
       </c>
       <c r="E243" t="n">
-        <v>19.955347061157</v>
+        <v>19.956874847412</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Pleszów</t>
         </is>
       </c>
       <c r="G243" t="n">
-        <v>882</v>
+        <v>859</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="B244" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -7012,26 +7012,26 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>50.07230758667</v>
+        <v>50.104583740234</v>
       </c>
       <c r="E244" t="n">
-        <v>20.115867614746</v>
+        <v>19.96427154541</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Pleszów</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G244" t="n">
-        <v>883</v>
+        <v>860</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="B245" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -7039,26 +7039,26 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>50.104469299316</v>
+        <v>50.07396697998</v>
       </c>
       <c r="E245" t="n">
-        <v>19.964235305786</v>
+        <v>20.000728607178</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Mistrzejowice</t>
         </is>
       </c>
       <c r="G245" t="n">
-        <v>885</v>
+        <v>861</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="B246" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -7066,26 +7066,26 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>50.066223144531</v>
+        <v>50.094421386719</v>
       </c>
       <c r="E246" t="n">
-        <v>19.938749313354</v>
+        <v>20.011110305786</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G246" t="n">
-        <v>887</v>
+        <v>862</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="B247" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -7093,80 +7093,80 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>50.013767242432</v>
+        <v>50.05884552002</v>
       </c>
       <c r="E247" t="n">
-        <v>19.94864654541</v>
+        <v>19.962778091431</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Mistrzejowice</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>888</v>
+        <v>864</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="B248" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>33 minutes ago</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>50.046634674072</v>
+        <v>50.088523864746</v>
       </c>
       <c r="E248" t="n">
-        <v>19.925104141235</v>
+        <v>19.931457519531</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G248" t="n">
-        <v>889</v>
+        <v>866</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="B249" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>20 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>50.033515930176</v>
+        <v>50.057384490967</v>
       </c>
       <c r="E249" t="n">
-        <v>19.938646316528</v>
+        <v>19.946214675903</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Kopiec Wandy</t>
         </is>
       </c>
       <c r="G249" t="n">
-        <v>899</v>
+        <v>867</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="B250" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -7174,80 +7174,80 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>50.0719871521</v>
+        <v>50.024154663086</v>
       </c>
       <c r="E250" t="n">
-        <v>19.919479370117</v>
+        <v>19.97989654541</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Zaj. Nowa Huta</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G250" t="n">
-        <v>902</v>
+        <v>868</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="B251" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>50.08203125</v>
+        <v>50.027137756348</v>
       </c>
       <c r="E251" t="n">
-        <v>19.882465362549</v>
+        <v>19.976493835449</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G251" t="n">
-        <v>903</v>
+        <v>869</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="B252" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>50.032283782959</v>
+        <v>50.075996398926</v>
       </c>
       <c r="E252" t="n">
-        <v>19.934097290039</v>
+        <v>19.940624237061</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G252" t="n">
-        <v>904</v>
+        <v>871</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="B253" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -7255,26 +7255,26 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>50.040691375732</v>
+        <v>50.094333648682</v>
       </c>
       <c r="E253" t="n">
-        <v>19.976839065552</v>
+        <v>19.928785324097</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G253" t="n">
-        <v>906</v>
+        <v>872</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="B254" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -7282,26 +7282,26 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>50.105289459229</v>
+        <v>50.012969970703</v>
       </c>
       <c r="E254" t="n">
-        <v>19.960277557373</v>
+        <v>19.928056716919</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G254" t="n">
-        <v>907</v>
+        <v>874</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="B255" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -7309,26 +7309,26 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>50.012672424316</v>
+        <v>50.065334320068</v>
       </c>
       <c r="E255" t="n">
-        <v>19.927499771118</v>
+        <v>19.953681945801</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G255" t="n">
-        <v>908</v>
+        <v>875</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="B256" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -7336,26 +7336,26 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>50.090801239014</v>
+        <v>50.026683807373</v>
       </c>
       <c r="E256" t="n">
-        <v>20.020624160767</v>
+        <v>19.977014541626</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G256" t="n">
-        <v>909</v>
+        <v>876</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="B257" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -7363,26 +7363,26 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>50.034130096436</v>
+        <v>50.058547973633</v>
       </c>
       <c r="E257" t="n">
-        <v>19.969583511353</v>
+        <v>19.940902709961</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G257" t="n">
-        <v>910</v>
+        <v>877</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="B258" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -7390,26 +7390,26 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>50.024231</v>
+        <v>50.063079833984</v>
       </c>
       <c r="E258" t="n">
-        <v>19.979951</v>
+        <v>19.932674407959</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G258" t="n">
-        <v>911</v>
+        <v>878</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="B259" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -7417,26 +7417,26 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>50.095153808594</v>
+        <v>50.088798522949</v>
       </c>
       <c r="E259" t="n">
-        <v>19.931909561157</v>
+        <v>19.93274307251</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G259" t="n">
-        <v>913</v>
+        <v>879</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="B260" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -7444,26 +7444,26 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>50.081508636475</v>
+        <v>50.054286956787</v>
       </c>
       <c r="E260" t="n">
-        <v>19.888889312744</v>
+        <v>19.939340591431</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G260" t="n">
-        <v>914</v>
+        <v>880</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="B261" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -7471,26 +7471,26 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>50.057273864746</v>
+        <v>50.022125244141</v>
       </c>
       <c r="E261" t="n">
-        <v>19.944688796997</v>
+        <v>19.899965286255</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Os.Piastów</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G261" t="n">
-        <v>915</v>
+        <v>881</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="B262" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -7498,26 +7498,26 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>50.066566467285</v>
+        <v>50.030326843262</v>
       </c>
       <c r="E262" t="n">
-        <v>19.965034484863</v>
+        <v>19.925312042236</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Zaj. Nowa Huta</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G262" t="n">
-        <v>922</v>
+        <v>882</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="B263" t="n">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -7525,26 +7525,26 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>50.048637390137</v>
+        <v>50.03044128418</v>
       </c>
       <c r="E263" t="n">
-        <v>19.93124961853</v>
+        <v>19.929027557373</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Os.Piastów</t>
+          <t>Kopiec Wandy</t>
         </is>
       </c>
       <c r="G263" t="n">
-        <v>924</v>
+        <v>883</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="B264" t="n">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -7552,26 +7552,26 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>50.052284240723</v>
+        <v>50.072170257568</v>
       </c>
       <c r="E264" t="n">
-        <v>19.94211769104</v>
+        <v>20.064306259155</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Kopiec Wandy</t>
         </is>
       </c>
       <c r="G264" t="n">
-        <v>925</v>
+        <v>884</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="B265" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -7579,26 +7579,26 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>50.085857391357</v>
+        <v>50.072326660156</v>
       </c>
       <c r="E265" t="n">
-        <v>20.063020706177</v>
+        <v>20.029167175293</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Zaj. Nowa Huta</t>
+          <t>Pleszów</t>
         </is>
       </c>
       <c r="G265" t="n">
-        <v>926</v>
+        <v>885</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="B266" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -7606,26 +7606,26 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>50.07360458374</v>
+        <v>50.09549331665</v>
       </c>
       <c r="E266" t="n">
-        <v>19.99090385437</v>
+        <v>19.93302154541</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G266" t="n">
-        <v>927</v>
+        <v>886</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="B267" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -7633,26 +7633,26 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>50.063831329346</v>
+        <v>50.072578430176</v>
       </c>
       <c r="E267" t="n">
-        <v>19.933471679688</v>
+        <v>20.116840362549</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G267" t="n">
-        <v>928</v>
+        <v>887</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="B268" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -7660,72 +7660,720 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>50.080871582031</v>
+        <v>50.103897094727</v>
       </c>
       <c r="E268" t="n">
-        <v>20.025798797607</v>
+        <v>19.963680267334</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Os.Piastów</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G268" t="n">
-        <v>930</v>
+        <v>889</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="B269" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>25 days ago</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>50.081825256348</v>
+        <v>50.033515930176</v>
       </c>
       <c r="E269" t="n">
-        <v>19.881944656372</v>
+        <v>19.938646316528</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Zaj. Nowa Huta</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G269" t="n">
-        <v>932</v>
+        <v>899</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B270" t="n">
+        <v>24</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>50.023559570312</v>
+      </c>
+      <c r="E270" t="n">
+        <v>19.979200363159</v>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Bronowice Małe</t>
+        </is>
+      </c>
+      <c r="G270" t="n">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B271" t="n">
+        <v>4</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>50.073535919189</v>
+      </c>
+      <c r="E271" t="n">
+        <v>19.990139007568</v>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Bronowice Małe</t>
+        </is>
+      </c>
+      <c r="G271" t="n">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B272" t="n">
+        <v>50</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>50.099868774414</v>
+      </c>
+      <c r="E272" t="n">
+        <v>19.956735610962</v>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Borek Fałęcki</t>
+        </is>
+      </c>
+      <c r="G272" t="n">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B273" t="n">
+        <v>4</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>50.070507049561</v>
+      </c>
+      <c r="E273" t="n">
+        <v>19.924236297607</v>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Zaj. Nowa Huta</t>
+        </is>
+      </c>
+      <c r="G273" t="n">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B274" t="n">
+        <v>24</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>50.077056</v>
+      </c>
+      <c r="E274" t="n">
+        <v>19.902898</v>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Bronowice Małe</t>
+        </is>
+      </c>
+      <c r="G274" t="n">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B275" t="n">
+        <v>24</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>19 hours ago</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>50.081802368164</v>
+      </c>
+      <c r="E275" t="n">
+        <v>19.881944656372</v>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Bronowice Małe</t>
+        </is>
+      </c>
+      <c r="G275" t="n">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B276" t="n">
+        <v>52</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>50.064197540283</v>
+      </c>
+      <c r="E276" t="n">
+        <v>19.944965362549</v>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>Os.Piastów</t>
+        </is>
+      </c>
+      <c r="G276" t="n">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B277" t="n">
+        <v>50</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>50.020328521729</v>
+      </c>
+      <c r="E277" t="n">
+        <v>19.93430519104</v>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Papierni Prądnickich</t>
+        </is>
+      </c>
+      <c r="G277" t="n">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B278" t="n">
+        <v>24</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>50.079208374023</v>
+      </c>
+      <c r="E278" t="n">
+        <v>19.896806716919</v>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Kurdwanów P+R</t>
+        </is>
+      </c>
+      <c r="G278" t="n">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B279" t="n">
+        <v>50</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>50.012672424316</v>
+      </c>
+      <c r="E279" t="n">
+        <v>19.927499771118</v>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Borek Fałęcki</t>
+        </is>
+      </c>
+      <c r="G279" t="n">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B280" t="n">
+        <v>52</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>50.064605712891</v>
+      </c>
+      <c r="E280" t="n">
+        <v>19.945625305176</v>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Czerwone Maki P+R</t>
+        </is>
+      </c>
+      <c r="G280" t="n">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B281" t="n">
+        <v>52</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>50.084598</v>
+      </c>
+      <c r="E281" t="n">
+        <v>20.02047</v>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Os.Piastów</t>
+        </is>
+      </c>
+      <c r="G281" t="n">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B282" t="n">
+        <v>52</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>50.036581</v>
+      </c>
+      <c r="E282" t="n">
+        <v>19.925802</v>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Os.Piastów</t>
+        </is>
+      </c>
+      <c r="G282" t="n">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B283" t="n">
+        <v>52</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>50.0876121521</v>
+      </c>
+      <c r="E283" t="n">
+        <v>20.020311355591</v>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Czerwone Maki P+R</t>
+        </is>
+      </c>
+      <c r="G283" t="n">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B284" t="n">
+        <v>4</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>50.073444366455</v>
+      </c>
+      <c r="E284" t="n">
+        <v>20.016700744629</v>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Zaj. Nowa Huta</t>
+        </is>
+      </c>
+      <c r="G284" t="n">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B285" t="n">
+        <v>52</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>50.080253601074</v>
+      </c>
+      <c r="E285" t="n">
+        <v>20.026527404785</v>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Os.Piastów</t>
+        </is>
+      </c>
+      <c r="G285" t="n">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B286" t="n">
+        <v>52</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>50.024337768555</v>
+      </c>
+      <c r="E286" t="n">
+        <v>19.901666641235</v>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Czerwone Maki P+R</t>
+        </is>
+      </c>
+      <c r="G286" t="n">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B287" t="n">
+        <v>50</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>50.039527893066</v>
+      </c>
+      <c r="E287" t="n">
+        <v>19.982917785645</v>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>Borek Fałęcki</t>
+        </is>
+      </c>
+      <c r="G287" t="n">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B288" t="n">
+        <v>52</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>50.050941467285</v>
+      </c>
+      <c r="E288" t="n">
+        <v>19.940521240234</v>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>Os.Piastów</t>
+        </is>
+      </c>
+      <c r="G288" t="n">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B289" t="n">
+        <v>4</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>50.066200256348</v>
+      </c>
+      <c r="E289" t="n">
+        <v>19.937326431274</v>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>Bronowice Małe</t>
+        </is>
+      </c>
+      <c r="G289" t="n">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B290" t="n">
+        <v>4</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>50.082054138184</v>
+      </c>
+      <c r="E290" t="n">
+        <v>19.881978988647</v>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>Bronowice Małe</t>
+        </is>
+      </c>
+      <c r="G290" t="n">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B291" t="n">
+        <v>4</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>50.076633453369</v>
+      </c>
+      <c r="E291" t="n">
+        <v>20.053993225098</v>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Bronowice Małe</t>
+        </is>
+      </c>
+      <c r="G291" t="n">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B292" t="n">
+        <v>4</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>50.085948944092</v>
+      </c>
+      <c r="E292" t="n">
+        <v>20.063125610352</v>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Zaj. Nowa Huta</t>
+        </is>
+      </c>
+      <c r="G292" t="n">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
         <v>333</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B293" t="n">
         <v>4</v>
       </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D270" t="n">
-        <v>50.081279754639</v>
-      </c>
-      <c r="E270" t="n">
-        <v>19.889583587646</v>
-      </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>Bronowice Małe</t>
-        </is>
-      </c>
-      <c r="G270" t="n">
-        <v>933</v>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>50.066749572754</v>
+      </c>
+      <c r="E293" t="n">
+        <v>19.97486114502</v>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Zaj. Nowa Huta</t>
+        </is>
+      </c>
+      <c r="G293" t="n">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B294" t="n">
+        <v>4</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>50.081871032715</v>
+      </c>
+      <c r="E294" t="n">
+        <v>19.882013320923</v>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>Zaj. Nowa Huta</t>
+        </is>
+      </c>
+      <c r="G294" t="n">
+        <v>999</v>
       </c>
     </row>
   </sheetData>

--- a/data/generated/excel/vehicles_in_ttss.xlsx
+++ b/data/generated/excel/vehicles_in_ttss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G294"/>
+  <dimension ref="A1:G306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,14 +478,14 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>50.069297790527</v>
+        <v>50.072807312012</v>
       </c>
       <c r="E2" t="n">
-        <v>20.067499160767</v>
+        <v>20.116806030273</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kopiec Wandy</t>
+          <t>Os.Piastów</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -501,7 +501,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>41 days ago</t>
+          <t>68 days ago</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -524,22 +524,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>50.068912506104</v>
+        <v>50.076908111572</v>
       </c>
       <c r="E4" t="n">
-        <v>20.069583892822</v>
+        <v>20.030937194824</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bardosa</t>
+          <t>Pleszów</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -555,18 +555,18 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50.079116821289</v>
+        <v>50.065265655518</v>
       </c>
       <c r="E5" t="n">
-        <v>20.063714981079</v>
+        <v>19.952188491821</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kombinat</t>
+          <t>Dworzec Towarowy</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -582,18 +582,18 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>50.078113555908</v>
+        <v>50.073558807373</v>
       </c>
       <c r="E6" t="n">
-        <v>20.059513092041</v>
+        <v>20.01576423645</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kombinat</t>
+          <t>Dworzec Towarowy</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -609,18 +609,18 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>16 hours ago</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>50.10237121582</v>
+        <v>50.077453613281</v>
       </c>
       <c r="E7" t="n">
-        <v>20.011596679688</v>
+        <v>20.057222366333</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Pleszów</t>
+          <t>Kombinat</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -636,14 +636,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>45 minutes ago</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>50.078388214111</v>
+        <v>50.077133178711</v>
       </c>
       <c r="E8" t="n">
-        <v>20.06079864502</v>
+        <v>20.05611038208</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -663,18 +663,18 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>50.072078704834</v>
+        <v>50.075630187988</v>
       </c>
       <c r="E9" t="n">
-        <v>20.031145095825</v>
+        <v>19.939687728882</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kombinat</t>
+          <t>Dworzec Towarowy</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -690,7 +690,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>31 days ago</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -713,22 +713,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>50.084583282471</v>
+        <v>50.094902038574</v>
       </c>
       <c r="E11" t="n">
-        <v>20.063749313354</v>
+        <v>19.995416641235</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kopiec Wandy</t>
+          <t>Mistrzejowice</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -740,26 +740,26 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>115 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>50.078090667725</v>
+        <v>50.068798065186</v>
       </c>
       <c r="E12" t="n">
-        <v>20.059549331665</v>
+        <v>20.069931030273</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kombinat</t>
+          <t>Bardosa</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13">
@@ -767,26 +767,26 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>18 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>50.078342437744</v>
+        <v>50.016181945801</v>
       </c>
       <c r="E13" t="n">
-        <v>20.060693740845</v>
+        <v>20.012395858765</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kombinat</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14">
@@ -798,14 +798,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>50.079048156738</v>
+        <v>50.078319549561</v>
       </c>
       <c r="E14" t="n">
-        <v>20.063367843628</v>
+        <v>20.060556411743</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
@@ -825,14 +825,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>10 days ago</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>50.078365325928</v>
+        <v>50.078887939453</v>
       </c>
       <c r="E15" t="n">
-        <v>20.060520172119</v>
+        <v>20.0625</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
@@ -852,22 +852,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>50.078456878662</v>
+        <v>50.074333190918</v>
       </c>
       <c r="E16" t="n">
-        <v>20.06079864502</v>
+        <v>20.004999160767</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kombinat</t>
+          <t>Kopiec Wandy</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
@@ -879,22 +879,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>50.079116821289</v>
+        <v>50.06982421875</v>
       </c>
       <c r="E17" t="n">
-        <v>20.063646316528</v>
+        <v>20.066909790039</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Kombinat</t>
+          <t>Kopiec Wandy</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18">
@@ -902,26 +902,26 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>14 days ago</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>50.073535919189</v>
+        <v>50.072692871094</v>
       </c>
       <c r="E18" t="n">
-        <v>19.989688873291</v>
+        <v>20.039167404175</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Wieczysta</t>
+          <t>Kombinat</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19">
@@ -937,18 +937,18 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>50.094879150391</v>
+        <v>50.067455291748</v>
       </c>
       <c r="E19" t="n">
-        <v>19.995971679688</v>
+        <v>20.059617996216</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mistrzejowice</t>
+          <t>Bardosa</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20">
@@ -956,26 +956,26 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>104 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>50.041442871094</v>
+        <v>50.066589355469</v>
       </c>
       <c r="E20" t="n">
-        <v>19.961875915527</v>
+        <v>19.938957214355</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Kopiec Wandy</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
@@ -983,26 +983,26 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>3 hours ago</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>50.09481048584</v>
+        <v>50.059345245361</v>
       </c>
       <c r="E21" t="n">
-        <v>19.995937347412</v>
+        <v>19.94225692749</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Mistrzejowice</t>
+          <t>Os.Piastów</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>155</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22">
@@ -1010,26 +1010,26 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>58 minutes ago</t>
+          <t>72 days ago</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>50.074764251709</v>
+        <v>50.015361785889</v>
       </c>
       <c r="E22" t="n">
-        <v>20.04701423645</v>
+        <v>20.023853302002</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kombinat</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>164</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23">
@@ -1037,26 +1037,26 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>19 hours ago</t>
+          <t>63 days ago</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>50.018573760986</v>
+        <v>50.077110290527</v>
       </c>
       <c r="E23" t="n">
-        <v>19.889339447021</v>
+        <v>19.901458740234</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24">
@@ -1064,26 +1064,26 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>46 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>50.015361785889</v>
+        <v>50.102077484131</v>
       </c>
       <c r="E24" t="n">
-        <v>20.023853302002</v>
+        <v>20.011770248413</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25">
@@ -1091,26 +1091,26 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>36 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>50.077110290527</v>
+        <v>50.065040588379</v>
       </c>
       <c r="E25" t="n">
-        <v>19.901458740234</v>
+        <v>19.950521469116</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Os.Piastów</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26">
@@ -1118,26 +1118,26 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>50.070346832275</v>
+        <v>50.030258178711</v>
       </c>
       <c r="E26" t="n">
-        <v>19.982013702393</v>
+        <v>19.934028625488</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Os.Piastów</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27">
@@ -1149,14 +1149,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>50.031238555908</v>
+        <v>50.018688201904</v>
       </c>
       <c r="E27" t="n">
-        <v>19.935035705566</v>
+        <v>19.888957977295</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28">
@@ -1176,14 +1176,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>50.032192230225</v>
+        <v>50.017753601074</v>
       </c>
       <c r="E28" t="n">
-        <v>19.933958053589</v>
+        <v>19.990728378296</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29">
@@ -1199,26 +1199,26 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>50.034744262695</v>
+        <v>50.077178955078</v>
       </c>
       <c r="E29" t="n">
-        <v>19.926076889038</v>
+        <v>19.90191078186</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Os.Piastów</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30">
@@ -1230,22 +1230,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>50.015769958496</v>
+        <v>50.015041351318</v>
       </c>
       <c r="E30" t="n">
-        <v>20.023506164551</v>
+        <v>20.000902175903</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31">
@@ -1253,26 +1253,26 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>50.076587677002</v>
+        <v>50.050643920898</v>
       </c>
       <c r="E31" t="n">
-        <v>19.904062271118</v>
+        <v>19.939235687256</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Os.Piastów</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>244</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32">
@@ -1280,26 +1280,26 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2 hours ago</t>
+          <t>79 days ago</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>50.015701293945</v>
+        <v>50.072326660156</v>
       </c>
       <c r="E32" t="n">
-        <v>20.023124694824</v>
+        <v>19.98451423645</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Wieczysta</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>246</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33">
@@ -1311,14 +1311,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>9 minutes ago</t>
+          <t>7 hours ago</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>50.067497253418</v>
+        <v>50.070938110352</v>
       </c>
       <c r="E33" t="n">
-        <v>19.976909637451</v>
+        <v>19.982639312744</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34">
@@ -1338,14 +1338,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>53 days ago</t>
+          <t>79 days ago</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>50.072326660156</v>
+        <v>50.074287414551</v>
       </c>
       <c r="E34" t="n">
-        <v>19.98451423645</v>
+        <v>20.004930496216</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35">
@@ -1365,22 +1365,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>59 minutes ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>50.059276580811</v>
+        <v>50.034473419189</v>
       </c>
       <c r="E35" t="n">
-        <v>19.942291259766</v>
+        <v>19.925971984863</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Os.Piastów</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36">
@@ -1388,26 +1388,26 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>53 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>50.074287414551</v>
+        <v>50.073947906494</v>
       </c>
       <c r="E36" t="n">
-        <v>20.004930496216</v>
+        <v>20.011840820312</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Wieczysta</t>
+          <t>Os.Piastów</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>267</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37">
@@ -1415,7 +1415,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1423,18 +1423,18 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>50.032146453857</v>
+        <v>50.085472106934</v>
       </c>
       <c r="E37" t="n">
-        <v>19.933889389038</v>
+        <v>20.038681030273</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38">
@@ -1442,26 +1442,26 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>50.018321990967</v>
+        <v>50.058982849121</v>
       </c>
       <c r="E38" t="n">
-        <v>19.888645172119</v>
+        <v>19.941041946411</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Wańkowicza</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>278</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39">
@@ -1473,14 +1473,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>13 days ago</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>50.057819366455</v>
+        <v>50.05672454834</v>
       </c>
       <c r="E39" t="n">
-        <v>19.960138320923</v>
+        <v>19.945520401001</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40">
@@ -1496,31 +1496,31 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>2 hours ago</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>50.086791992188</v>
+        <v>50.075721740723</v>
       </c>
       <c r="E40" t="n">
-        <v>20.045938491821</v>
+        <v>19.939582824707</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Wańkowicza</t>
+          <t>Dworzec Towarowy</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="n">
         <v>5</v>
@@ -1531,77 +1531,77 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>50.079277038574</v>
+        <v>50.086608886719</v>
       </c>
       <c r="E41" t="n">
-        <v>19.939027786255</v>
+        <v>19.933124542236</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Wańkowicza</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>50.082054138184</v>
+        <v>50.064060211182</v>
       </c>
       <c r="E42" t="n">
-        <v>19.882604598999</v>
+        <v>19.988229751587</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2 hours ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>50.032466888428</v>
+        <v>50.089046478271</v>
       </c>
       <c r="E43" t="n">
-        <v>19.934549331665</v>
+        <v>19.931493759155</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -1612,118 +1612,118 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>50.059959411621</v>
+        <v>50.059093475342</v>
       </c>
       <c r="E44" t="n">
-        <v>19.928680419922</v>
+        <v>19.938749313354</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Wańkowicza</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>23 hours ago</t>
+          <t>3 hours ago</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>50.062671661377</v>
+        <v>50.073947906494</v>
       </c>
       <c r="E45" t="n">
-        <v>19.903888702393</v>
+        <v>19.957500457764</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>50 minutes ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>50.060211181641</v>
+        <v>50.057590484619</v>
       </c>
       <c r="E46" t="n">
-        <v>19.967430114746</v>
+        <v>19.95802116394</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Wańkowicza</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>11 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>50.062717437744</v>
+        <v>50.061347961426</v>
       </c>
       <c r="E47" t="n">
-        <v>19.903993606567</v>
+        <v>19.980520248413</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Wańkowicza</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>35 minutes ago</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>50.062671661377</v>
+        <v>50.086906433105</v>
       </c>
       <c r="E48" t="n">
-        <v>19.903957366943</v>
+        <v>20.047534942627</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1731,26 +1731,26 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>58 minutes ago</t>
+          <t>6 hours ago</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>50.062854766846</v>
+        <v>50.067432403564</v>
       </c>
       <c r="E49" t="n">
-        <v>19.903610229492</v>
+        <v>20.005207061768</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1758,96 +1758,96 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>16 minutes ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>50.062740325928</v>
+        <v>50.084468841553</v>
       </c>
       <c r="E50" t="n">
-        <v>19.903785705566</v>
+        <v>19.933681488037</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Wańkowicza</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>42 minutes ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>50.013561248779</v>
+        <v>50.062877655029</v>
       </c>
       <c r="E51" t="n">
-        <v>19.926528930664</v>
+        <v>19.903680801392</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Wańkowicza</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>50.062919616699</v>
+        <v>50.074787139893</v>
       </c>
       <c r="E52" t="n">
-        <v>19.903575897217</v>
+        <v>20.018924713135</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Wańkowicza</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1855,26 +1855,26 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>50.062854766846</v>
+        <v>50.080574035645</v>
       </c>
       <c r="E53" t="n">
-        <v>19.903507232666</v>
+        <v>20.029722213745</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Wańkowicza</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1882,26 +1882,26 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>50.072647094727</v>
+        <v>50.062648773193</v>
       </c>
       <c r="E54" t="n">
-        <v>19.984895706177</v>
+        <v>19.903924942017</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1909,23 +1909,23 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>50.086494445801</v>
+        <v>50.060279846191</v>
       </c>
       <c r="E55" t="n">
-        <v>20.043159484863</v>
+        <v>19.932535171509</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -1936,10 +1936,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>50.057521820068</v>
+        <v>50.075790405273</v>
       </c>
       <c r="E56" t="n">
-        <v>19.957431793213</v>
+        <v>20.020589828491</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1947,15 +1947,15 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1963,26 +1963,26 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>50.061100006104</v>
+        <v>50.082145690918</v>
       </c>
       <c r="E57" t="n">
-        <v>19.979688644409</v>
+        <v>20.032569885254</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Wańkowicza</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1990,37 +1990,37 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>50.073650360107</v>
+        <v>50.087135314941</v>
       </c>
       <c r="E58" t="n">
-        <v>19.992013931274</v>
+        <v>20.049375534058</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Wańkowicza</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>50.059024810791</v>
+        <v>50.062259674072</v>
       </c>
       <c r="E59" t="n">
-        <v>19.933853149414</v>
+        <v>19.904964447021</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2028,80 +2028,80 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>50.06237411499</v>
+        <v>50.031326293945</v>
       </c>
       <c r="E60" t="n">
-        <v>19.90454864502</v>
+        <v>19.934999465942</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>21 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>50.031898498535</v>
+        <v>50.067749023438</v>
       </c>
       <c r="E61" t="n">
-        <v>19.934999465942</v>
+        <v>19.977777481079</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Wańkowicza</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>5 minutes ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>50.062694549561</v>
+        <v>50.05827331543</v>
       </c>
       <c r="E62" t="n">
-        <v>19.903854370117</v>
+        <v>19.961353302002</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2109,15 +2109,15 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2125,77 +2125,77 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>50.075630187988</v>
+        <v>50.066749572754</v>
       </c>
       <c r="E63" t="n">
-        <v>20.020347595215</v>
+        <v>19.974479675293</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>2 hours ago</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>50.062942504883</v>
+        <v>50.089046478271</v>
       </c>
       <c r="E64" t="n">
-        <v>19.903299331665</v>
+        <v>19.930833816528</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>23 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>50.076042175293</v>
+        <v>50.013153076172</v>
       </c>
       <c r="E65" t="n">
-        <v>19.939687728882</v>
+        <v>19.963264465332</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Dworzec Towarowy</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>329</v>
+        <v>401</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="n">
         <v>72</v>
@@ -2206,80 +2206,80 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>50.074195861816</v>
+        <v>50.050121307373</v>
       </c>
       <c r="E66" t="n">
-        <v>19.957534790039</v>
+        <v>19.942707061768</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Cmentarz Rakowicki</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>46 minutes ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>50.067749023438</v>
+        <v>50.059162139893</v>
       </c>
       <c r="E67" t="n">
-        <v>20.065069198608</v>
+        <v>19.9375</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Bardosa</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>50.075927734375</v>
+        <v>50.064834594727</v>
       </c>
       <c r="E68" t="n">
-        <v>20.064027786255</v>
+        <v>20.075311660767</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Bardosa</t>
+          <t>Os.Piastów</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2287,53 +2287,53 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>50.043308258057</v>
+        <v>50.071166992188</v>
       </c>
       <c r="E69" t="n">
-        <v>19.974096298218</v>
+        <v>19.983055114746</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Wieczysta</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>10 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>50.095264434814</v>
+        <v>50.040393829346</v>
       </c>
       <c r="E70" t="n">
-        <v>19.996076583862</v>
+        <v>20.000799179077</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Mistrzejowice</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2341,107 +2341,107 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>50.030620574951</v>
+        <v>50.012535095215</v>
       </c>
       <c r="E71" t="n">
-        <v>19.92635345459</v>
+        <v>19.927673339844</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>21 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>50.075336456299</v>
+        <v>50.040645599365</v>
       </c>
       <c r="E72" t="n">
-        <v>19.940347671509</v>
+        <v>19.978437423706</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Dworzec Towarowy</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>10 hours ago</t>
+          <t>4 hours ago</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>50.075744628906</v>
+        <v>50.079524993896</v>
       </c>
       <c r="E73" t="n">
-        <v>19.939653396606</v>
+        <v>20.065938949585</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Dworzec Towarowy</t>
+          <t>Zaj. Nowa Huta</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>4 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>50.026977539062</v>
+        <v>50.016021728516</v>
       </c>
       <c r="E74" t="n">
-        <v>19.905347824097</v>
+        <v>20.019756317139</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Wieczysta</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2449,80 +2449,80 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>50.088932037354</v>
+        <v>50.040393829346</v>
       </c>
       <c r="E75" t="n">
-        <v>19.931596755981</v>
+        <v>20.000833511353</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>29 days ago</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>50.065380096436</v>
+        <v>50.072944641113</v>
       </c>
       <c r="E76" t="n">
-        <v>19.951736450195</v>
+        <v>20.118299484253</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Cmentarz Rakowicki</t>
+          <t>Pleszów</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>4 hours ago</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>50.072944641113</v>
+        <v>50.076019287109</v>
       </c>
       <c r="E77" t="n">
-        <v>20.118299484253</v>
+        <v>19.939722061157</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Pleszów</t>
+          <t>Dworzec Towarowy</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2530,26 +2530,26 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>50.039939880371</v>
+        <v>50.032833099365</v>
       </c>
       <c r="E78" t="n">
-        <v>20.001493453979</v>
+        <v>19.938610076904</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Dworzec Towarowy</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2557,107 +2557,107 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>50.023494720459</v>
+        <v>50.03980255127</v>
       </c>
       <c r="E79" t="n">
-        <v>19.979131698608</v>
+        <v>19.983055114746</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Wieczysta</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>2 hours ago</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>50.077453613281</v>
+        <v>50.01802444458</v>
       </c>
       <c r="E80" t="n">
-        <v>20.065729141235</v>
+        <v>19.891214370728</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Bardosa</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>56 minutes ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>50.073104858398</v>
+        <v>50.06237411499</v>
       </c>
       <c r="E81" t="n">
-        <v>20.063924789429</v>
+        <v>19.904409408569</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Bardosa</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>50.072372436523</v>
+        <v>50.030826568604</v>
       </c>
       <c r="E82" t="n">
-        <v>19.984582901001</v>
+        <v>19.924652099609</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Wieczysta</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2665,45 +2665,45 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>50.053649902344</v>
+        <v>50.028274536133</v>
       </c>
       <c r="E83" t="n">
-        <v>19.939756393433</v>
+        <v>19.975589752197</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Cmentarz Rakowicki</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" t="n">
         <v>72</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>4 hours ago</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>50.059139251709</v>
+        <v>50.084148406982</v>
       </c>
       <c r="E84" t="n">
-        <v>19.937673568726</v>
+        <v>20.064617156982</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Cmentarz Rakowicki</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="85">
@@ -2711,18 +2711,18 @@
         <v>85</v>
       </c>
       <c r="B85" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>20 hours ago</t>
+          <t>24 days ago</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>50.039939880371</v>
+        <v>50.040416717529</v>
       </c>
       <c r="E85" t="n">
-        <v>20.001493453979</v>
+        <v>20.000867843628</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="86">
@@ -2738,26 +2738,26 @@
         <v>86</v>
       </c>
       <c r="B86" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>19 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>50.075996398926</v>
+        <v>50.030555725098</v>
       </c>
       <c r="E86" t="n">
-        <v>19.939653396606</v>
+        <v>19.928575515747</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Dworzec Towarowy</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="87">
@@ -2769,14 +2769,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>20 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>50.040370941162</v>
+        <v>50.045177459717</v>
       </c>
       <c r="E87" t="n">
-        <v>20.001527786255</v>
+        <v>19.955034255981</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="88">
@@ -2796,22 +2796,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>20 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>50.040256500244</v>
+        <v>50.040576934814</v>
       </c>
       <c r="E88" t="n">
-        <v>20.00156211853</v>
+        <v>19.990938186646</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="89">
@@ -2819,7 +2819,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2827,26 +2827,26 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>50.065517425537</v>
+        <v>50.078044891357</v>
       </c>
       <c r="E89" t="n">
-        <v>19.935451507568</v>
+        <v>20.029443740845</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Mistrzejowice</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2854,53 +2854,53 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>50.058456420898</v>
+        <v>50.088954925537</v>
       </c>
       <c r="E90" t="n">
-        <v>19.95923614502</v>
+        <v>20.020938873291</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Dworzec Towarowy</t>
+          <t>Bardosa</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B91" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>63 days ago</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>50.068298339844</v>
+        <v>50.073490142822</v>
       </c>
       <c r="E91" t="n">
-        <v>20.070068359375</v>
+        <v>19.989688873291</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Bardosa</t>
+          <t>Wieczysta</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B92" t="n">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2908,145 +2908,145 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>50.073947906494</v>
+        <v>50.033832550049</v>
       </c>
       <c r="E92" t="n">
-        <v>20.017568588257</v>
+        <v>19.977535247803</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Cmentarz Rakowicki</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B93" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>57 minutes ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>50.073558807373</v>
+        <v>50.102485656738</v>
       </c>
       <c r="E93" t="n">
-        <v>19.989652633667</v>
+        <v>20.011632919312</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Wieczysta</t>
+          <t>Os.Piastów</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B94" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>36 days ago</t>
+          <t>3 hours ago</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>50.073490142822</v>
+        <v>50.094833374023</v>
       </c>
       <c r="E94" t="n">
-        <v>19.989688873291</v>
+        <v>19.995937347412</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Wieczysta</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>11 days ago</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>50.072170257568</v>
+        <v>50.040348052979</v>
       </c>
       <c r="E95" t="n">
-        <v>19.945207595825</v>
+        <v>20.001596450806</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B96" t="n">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>3 hours ago</t>
+          <t>10 hours ago</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>50.018527984619</v>
+        <v>50.074447631836</v>
       </c>
       <c r="E96" t="n">
-        <v>19.888818740845</v>
+        <v>20.045799255371</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>pl. Centralny</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B97" t="n">
         <v>49</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>109 days ago</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>50.073329925537</v>
+        <v>50.073444366455</v>
       </c>
       <c r="E97" t="n">
-        <v>19.986492156982</v>
+        <v>19.987812042236</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -3054,174 +3054,174 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B98" t="n">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>50.040348052979</v>
+        <v>50.083808898926</v>
       </c>
       <c r="E98" t="n">
-        <v>20.000799179077</v>
+        <v>20.065450668335</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Cmentarz Rakowicki</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B99" t="n">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>50.074287414551</v>
+        <v>50.075973510742</v>
       </c>
       <c r="E99" t="n">
-        <v>19.910034179688</v>
+        <v>19.939722061157</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Os.Piastów</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B100" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>83 days ago</t>
+          <t>28 days ago</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>50.073444366455</v>
+        <v>50.070983886719</v>
       </c>
       <c r="E100" t="n">
-        <v>19.987812042236</v>
+        <v>19.982639312744</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Wieczysta</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B101" t="n">
         <v>49</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>5 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>50.086338043213</v>
+        <v>50.066543579102</v>
       </c>
       <c r="E101" t="n">
-        <v>20.063714981079</v>
+        <v>19.966041564941</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Wieczysta</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B102" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>13 days ago</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>50.072692871094</v>
+        <v>50.080165863037</v>
       </c>
       <c r="E102" t="n">
-        <v>19.985103607178</v>
+        <v>20.026596069336</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Wieczysta</t>
+          <t>Pleszów</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>437</v>
+        <v>451</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B103" t="n">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>9 hours ago</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>50.070983886719</v>
+        <v>50.076816558838</v>
       </c>
       <c r="E103" t="n">
-        <v>19.982639312744</v>
+        <v>20.030937194824</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Pleszów</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>438</v>
+        <v>452</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B104" t="n">
         <v>21</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>50.079002380371</v>
+        <v>50.102031707764</v>
       </c>
       <c r="E104" t="n">
-        <v>20.028089523315</v>
+        <v>20.012153625488</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -3243,15 +3243,15 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>439</v>
+        <v>454</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B105" t="n">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -3259,26 +3259,26 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>50.036613464355</v>
+        <v>50.059345245361</v>
       </c>
       <c r="E105" t="n">
-        <v>19.982292175293</v>
+        <v>19.924688339233</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Cmentarz Rakowicki</t>
+          <t>Wańkowicza</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>440</v>
+        <v>457</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B106" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -3286,134 +3286,134 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>50.072715759277</v>
+        <v>50.059345245361</v>
       </c>
       <c r="E106" t="n">
-        <v>20.117292404175</v>
+        <v>19.94197845459</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Pleszów</t>
+          <t>Wańkowicza</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>451</v>
+        <v>459</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B107" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>25 days ago</t>
+          <t>21 days ago</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>50.069938659668</v>
+        <v>50.086975097656</v>
       </c>
       <c r="E107" t="n">
-        <v>20.066806793213</v>
+        <v>20.047464370728</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Pleszów</t>
+          <t>Wańkowicza</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>452</v>
+        <v>460</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B108" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>32 days ago</t>
+          <t>5 days ago</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>50.064949035645</v>
+        <v>50.087200164795</v>
       </c>
       <c r="E108" t="n">
-        <v>20.075347900391</v>
+        <v>20.049757003784</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Os.Piastów</t>
+          <t>Wańkowicza</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>454</v>
+        <v>461</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B109" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>120 days ago</t>
+          <t>6 hours ago</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>50.0954246521</v>
+        <v>50.078956604004</v>
       </c>
       <c r="E109" t="n">
-        <v>20.012535095215</v>
+        <v>20.026319503784</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Os.Piastów</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>455</v>
+        <v>462</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>19 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>50.085857391357</v>
+        <v>50.06888961792</v>
       </c>
       <c r="E110" t="n">
-        <v>20.039688110352</v>
+        <v>19.92677116394</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Wańkowicza</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>457</v>
+        <v>601</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -3421,53 +3421,53 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>50.08699798584</v>
+        <v>50.04016494751</v>
       </c>
       <c r="E111" t="n">
-        <v>20.047777175903</v>
+        <v>20.000556945801</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Wańkowicza</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>459</v>
+        <v>602</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>50.08699798584</v>
+        <v>50.039939880371</v>
       </c>
       <c r="E112" t="n">
-        <v>20.047639846802</v>
+        <v>19.942430496216</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Wańkowicza</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>460</v>
+        <v>603</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B113" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -3475,64 +3475,64 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>50.072967529297</v>
+        <v>50.049777984619</v>
       </c>
       <c r="E113" t="n">
-        <v>20.01718711853</v>
+        <v>19.965034484863</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>461</v>
+        <v>604</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>36 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>50.08674621582</v>
+        <v>50.043968200684</v>
       </c>
       <c r="E114" t="n">
-        <v>20.045381546021</v>
+        <v>19.947500228882</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Wańkowicza</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>462</v>
+        <v>605</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B115" t="n">
         <v>13</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>16 hours ago</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>50.015338897705</v>
+        <v>50.015701293945</v>
       </c>
       <c r="E115" t="n">
-        <v>20.022882461548</v>
+        <v>20.023193359375</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B116" t="n">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -3556,23 +3556,23 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>50.014427185059</v>
+        <v>50.064971923828</v>
       </c>
       <c r="E116" t="n">
-        <v>19.999027252197</v>
+        <v>19.94402885437</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Cmentarz Rakowicki</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>602</v>
+        <v>607</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B117" t="n">
         <v>20</v>
@@ -3583,26 +3583,26 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>50.064811706543</v>
+        <v>50.062213897705</v>
       </c>
       <c r="E117" t="n">
-        <v>19.948160171509</v>
+        <v>19.905208587646</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B118" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -3610,80 +3610,80 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>50.031578063965</v>
+        <v>50.057228088379</v>
       </c>
       <c r="E118" t="n">
-        <v>19.933610916138</v>
+        <v>19.958957672119</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Os.Piastów</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>604</v>
+        <v>609</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B119" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>50.040416717529</v>
+        <v>50.029644012451</v>
       </c>
       <c r="E119" t="n">
-        <v>20.001596450806</v>
+        <v>19.935625076294</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>605</v>
+        <v>610</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B120" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>50.013221740723</v>
+        <v>50.058456420898</v>
       </c>
       <c r="E120" t="n">
-        <v>19.926839828491</v>
+        <v>19.940729141235</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>606</v>
+        <v>611</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B121" t="n">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -3691,80 +3691,80 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>50.044242858887</v>
+        <v>50.074264526367</v>
       </c>
       <c r="E121" t="n">
-        <v>19.946561813354</v>
+        <v>19.957221984863</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>607</v>
+        <v>612</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B122" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>47 minutes ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>50.040210723877</v>
+        <v>50.01859664917</v>
       </c>
       <c r="E122" t="n">
-        <v>20.000486373901</v>
+        <v>19.889339447021</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B123" t="n">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>19 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>50.040531158447</v>
+        <v>50.04235458374</v>
       </c>
       <c r="E123" t="n">
-        <v>20.001388549805</v>
+        <v>19.9609375</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>609</v>
+        <v>614</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B124" t="n">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -3772,107 +3772,107 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>50.040393829346</v>
+        <v>50.06392288208</v>
       </c>
       <c r="E124" t="n">
-        <v>20.000799179077</v>
+        <v>19.933368682861</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>610</v>
+        <v>615</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B125" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>50.088840484619</v>
+        <v>50.045040130615</v>
       </c>
       <c r="E125" t="n">
-        <v>19.931562423706</v>
+        <v>19.955867767334</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B126" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>14 minutes ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>50.040370941162</v>
+        <v>50.015316009521</v>
       </c>
       <c r="E126" t="n">
-        <v>20.000728607178</v>
+        <v>20.023160934448</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B127" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>50.077224731445</v>
+        <v>50.05200958252</v>
       </c>
       <c r="E127" t="n">
-        <v>19.901285171509</v>
+        <v>19.950174331665</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B128" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -3880,53 +3880,53 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>50.040462493896</v>
+        <v>50.077156066895</v>
       </c>
       <c r="E128" t="n">
-        <v>20.000694274902</v>
+        <v>19.901874542236</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B129" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>50.012355804443</v>
+        <v>50.030918121338</v>
       </c>
       <c r="E129" t="n">
-        <v>19.95631980896</v>
+        <v>19.934028625488</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B130" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -3934,80 +3934,80 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>50.060848236084</v>
+        <v>50.015907287598</v>
       </c>
       <c r="E130" t="n">
-        <v>19.913957595825</v>
+        <v>20.023923873901</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B131" t="n">
         <v>19</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>47 minutes ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>50.012763977051</v>
+        <v>50.022262573242</v>
       </c>
       <c r="E131" t="n">
-        <v>19.927639007568</v>
+        <v>19.932674407959</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B132" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>50.058525085449</v>
+        <v>50.012672424316</v>
       </c>
       <c r="E132" t="n">
-        <v>19.941076278687</v>
+        <v>19.927639007568</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B133" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -4015,53 +4015,53 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>50.040576934814</v>
+        <v>50.029666900635</v>
       </c>
       <c r="E133" t="n">
-        <v>19.989931106567</v>
+        <v>19.974096298218</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B134" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>50.062942504883</v>
+        <v>50.030166625977</v>
       </c>
       <c r="E134" t="n">
-        <v>19.903749465942</v>
+        <v>19.936805725098</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B135" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -4069,26 +4069,26 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>50.031555175781</v>
+        <v>50.045085906982</v>
       </c>
       <c r="E135" t="n">
-        <v>19.921457290649</v>
+        <v>19.945417404175</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B136" t="n">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -4096,26 +4096,26 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>50.04239654541</v>
+        <v>50.021076202393</v>
       </c>
       <c r="E136" t="n">
-        <v>19.96079826355</v>
+        <v>19.977464675903</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B137" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -4123,50 +4123,50 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>50.017887115479</v>
+        <v>50.027252197266</v>
       </c>
       <c r="E137" t="n">
-        <v>19.889896392822</v>
+        <v>19.935382843018</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Dworzec Towarowy</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B138" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>6 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>50.031555175781</v>
+        <v>50.060394287109</v>
       </c>
       <c r="E138" t="n">
-        <v>19.934131622314</v>
+        <v>19.931770324707</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B139" t="n">
         <v>13</v>
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>50.015769958496</v>
+        <v>50.067546844482</v>
       </c>
       <c r="E139" t="n">
-        <v>20.023611068726</v>
+        <v>19.928472518921</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -4188,69 +4188,69 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B140" t="n">
         <v>17</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>50.018367767334</v>
+        <v>50.058067321777</v>
       </c>
       <c r="E140" t="n">
-        <v>19.888610839844</v>
+        <v>19.959131240845</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Dworzec Towarowy</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B141" t="n">
         <v>20</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>50.040233612061</v>
+        <v>50.059688568115</v>
       </c>
       <c r="E141" t="n">
-        <v>20.00156211853</v>
+        <v>19.927049636841</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B142" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -4258,50 +4258,50 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>50.075950622559</v>
+        <v>50.015544891357</v>
       </c>
       <c r="E142" t="n">
-        <v>19.939687728882</v>
+        <v>20.022951126099</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Dworzec Towarowy</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B143" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>19 hours ago</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>50.077156066895</v>
+        <v>50.032238006592</v>
       </c>
       <c r="E143" t="n">
-        <v>19.901943206787</v>
+        <v>19.933610916138</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Dworzec Towarowy</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B144" t="n">
         <v>11</v>
@@ -4312,10 +4312,10 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>50.018642425537</v>
+        <v>50.039985656738</v>
       </c>
       <c r="E144" t="n">
-        <v>19.88899230957</v>
+        <v>20.001527786255</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -4323,15 +4323,15 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B145" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -4339,26 +4339,26 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>50.063011169434</v>
+        <v>50.018482208252</v>
       </c>
       <c r="E145" t="n">
-        <v>19.903228759766</v>
+        <v>19.894687652588</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Dworzec Towarowy</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B146" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -4366,161 +4366,161 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>50.046955108643</v>
+        <v>50.075607299805</v>
       </c>
       <c r="E146" t="n">
-        <v>19.954931259155</v>
+        <v>19.941596984863</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B147" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>28 minutes ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>50.040416717529</v>
+        <v>50.058525085449</v>
       </c>
       <c r="E147" t="n">
-        <v>20.000659942627</v>
+        <v>19.940868377686</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Mały Płaszów P+R</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B148" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>6 hours ago</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>50.027206420898</v>
+        <v>50.012969970703</v>
       </c>
       <c r="E148" t="n">
-        <v>19.935382843018</v>
+        <v>19.927291870117</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B149" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>50.07706451416</v>
+        <v>50.056655883789</v>
       </c>
       <c r="E149" t="n">
-        <v>19.902708053589</v>
+        <v>19.945589065552</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B150" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2 minutes ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>50.031555175781</v>
+        <v>50.064559936523</v>
       </c>
       <c r="E150" t="n">
-        <v>19.921562194824</v>
+        <v>19.945207595825</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Dworzec Towarowy</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B151" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>7 hours ago</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>50.064926147461</v>
+        <v>50.01326751709</v>
       </c>
       <c r="E151" t="n">
-        <v>19.931528091431</v>
+        <v>19.926700592041</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B152" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -4528,23 +4528,23 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>50.075176239014</v>
+        <v>50.0651512146</v>
       </c>
       <c r="E152" t="n">
-        <v>19.907014846802</v>
+        <v>19.951318740845</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B153" t="n">
         <v>20</v>
@@ -4555,215 +4555,215 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>50.040668487549</v>
+        <v>50.040325164795</v>
       </c>
       <c r="E153" t="n">
-        <v>19.987916946411</v>
+        <v>20.001527786255</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Cichy Kącik</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B154" t="n">
         <v>13</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>50.032558441162</v>
+        <v>50.01579284668</v>
       </c>
       <c r="E154" t="n">
-        <v>19.971214294434</v>
+        <v>20.023471832275</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B155" t="n">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>5 days ago</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>50.012741088867</v>
+        <v>50.040008544922</v>
       </c>
       <c r="E155" t="n">
-        <v>19.927568435669</v>
+        <v>20.001493453979</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Mały Płaszów P+R</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B156" t="n">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>50.014064788818</v>
+        <v>50.082008361816</v>
       </c>
       <c r="E156" t="n">
-        <v>19.926424026489</v>
+        <v>19.882326126099</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Bronowice Małe</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B157" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>50.077110290527</v>
+        <v>50.071350097656</v>
       </c>
       <c r="E157" t="n">
-        <v>19.901388168335</v>
+        <v>20.038228988647</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B158" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>50.015316009521</v>
+        <v>50.062942504883</v>
       </c>
       <c r="E158" t="n">
-        <v>20.0234375</v>
+        <v>19.903646469116</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Cichy Kącik</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B159" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>50.077156066895</v>
+        <v>50.065586090088</v>
       </c>
       <c r="E159" t="n">
-        <v>19.90191078186</v>
+        <v>19.958889007568</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B160" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>7 hours ago</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>50.086494445801</v>
+        <v>50.085105895996</v>
       </c>
       <c r="E160" t="n">
-        <v>19.933055877686</v>
+        <v>20.062812805176</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>649</v>
+        <v>701</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B161" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -4771,26 +4771,26 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>50.015678405762</v>
+        <v>50.032764434814</v>
       </c>
       <c r="E161" t="n">
-        <v>20.023090362549</v>
+        <v>19.975555419922</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>650</v>
+        <v>702</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B162" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -4798,10 +4798,10 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>50.013286590576</v>
+        <v>50.07205581665</v>
       </c>
       <c r="E162" t="n">
-        <v>19.948854446411</v>
+        <v>20.105833053589</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -4809,15 +4809,15 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B163" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -4825,23 +4825,23 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>50.104602813721</v>
+        <v>50.072418212891</v>
       </c>
       <c r="E163" t="n">
-        <v>19.964305877686</v>
+        <v>20.016771316528</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Kopiec Wandy</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B164" t="n">
         <v>18</v>
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>50.018619537354</v>
+        <v>50.070255279541</v>
       </c>
       <c r="E164" t="n">
-        <v>19.888610839844</v>
+        <v>19.936874389648</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -4863,15 +4863,15 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B165" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -4879,53 +4879,53 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>50.065929412842</v>
+        <v>50.058227539062</v>
       </c>
       <c r="E165" t="n">
-        <v>19.960451126099</v>
+        <v>19.959131240845</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B166" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>50.048458099365</v>
+        <v>50.0608253479</v>
       </c>
       <c r="E166" t="n">
-        <v>19.930625915527</v>
+        <v>19.979167938232</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Mistrzejowice</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B167" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -4933,26 +4933,26 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>50.066635131836</v>
+        <v>50.014450073242</v>
       </c>
       <c r="E167" t="n">
-        <v>20.003610610962</v>
+        <v>19.946111679077</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Kombinat</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B168" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -4960,26 +4960,26 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>50.050052642822</v>
+        <v>50.087043762207</v>
       </c>
       <c r="E168" t="n">
-        <v>19.93593788147</v>
+        <v>20.06236076355</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B169" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -4987,26 +4987,26 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>50.087043762207</v>
+        <v>50.012832641602</v>
       </c>
       <c r="E169" t="n">
-        <v>20.06236076355</v>
+        <v>19.948749542236</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Kopiec Wandy</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B170" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -5014,26 +5014,26 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>50.039321899414</v>
+        <v>50.071006774902</v>
       </c>
       <c r="E170" t="n">
-        <v>19.964061737061</v>
+        <v>19.945068359375</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B171" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -5041,14 +5041,14 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>50.015747070312</v>
+        <v>50.030735015869</v>
       </c>
       <c r="E171" t="n">
-        <v>20.023958206177</v>
+        <v>19.926111221313</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Kopiec Wandy</t>
         </is>
       </c>
       <c r="G171" t="n">
@@ -5057,10 +5057,10 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B172" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -5068,14 +5068,14 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>50.095630645752</v>
+        <v>50.012855529785</v>
       </c>
       <c r="E172" t="n">
-        <v>19.940624237061</v>
+        <v>19.927707672119</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G172" t="n">
@@ -5084,10 +5084,10 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B173" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -5095,14 +5095,14 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>50.016361236572</v>
+        <v>50.018207550049</v>
       </c>
       <c r="E173" t="n">
-        <v>20.007986068726</v>
+        <v>19.936180114746</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G173" t="n">
@@ -5111,10 +5111,10 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B174" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -5122,14 +5122,14 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>50.072284698486</v>
+        <v>50.080436706543</v>
       </c>
       <c r="E174" t="n">
-        <v>20.115798950195</v>
+        <v>19.937847137451</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Pleszów</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G174" t="n">
@@ -5138,10 +5138,10 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B175" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -5149,14 +5149,14 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>50.067497253418</v>
+        <v>50.081825256348</v>
       </c>
       <c r="E175" t="n">
-        <v>20.005346298218</v>
+        <v>19.883367538452</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G175" t="n">
@@ -5165,10 +5165,10 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B176" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -5176,14 +5176,14 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>50.026748657227</v>
+        <v>50.060573577881</v>
       </c>
       <c r="E176" t="n">
-        <v>19.905174255371</v>
+        <v>19.970277786255</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Mistrzejowice</t>
         </is>
       </c>
       <c r="G176" t="n">
@@ -5192,25 +5192,25 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B177" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>4 hours ago</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>50.066749572754</v>
+        <v>50.070529937744</v>
       </c>
       <c r="E177" t="n">
-        <v>19.938924789429</v>
+        <v>20.041736602783</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Pleszów</t>
         </is>
       </c>
       <c r="G177" t="n">
@@ -5219,10 +5219,10 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B178" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -5230,14 +5230,14 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>50.051326751709</v>
+        <v>50.012855529785</v>
       </c>
       <c r="E178" t="n">
-        <v>19.941457748413</v>
+        <v>19.94822883606</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G178" t="n">
@@ -5246,10 +5246,10 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B179" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -5257,14 +5257,14 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>50.104877471924</v>
+        <v>50.015678405762</v>
       </c>
       <c r="E179" t="n">
-        <v>19.964374542236</v>
+        <v>20.020729064941</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G179" t="n">
@@ -5273,25 +5273,25 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B180" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>31 minutes ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>50.088954925537</v>
+        <v>50.060005187988</v>
       </c>
       <c r="E180" t="n">
-        <v>19.930589675903</v>
+        <v>19.942743301392</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G180" t="n">
@@ -5300,10 +5300,10 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B181" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -5311,14 +5311,14 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>50.017639160156</v>
+        <v>50.064743041992</v>
       </c>
       <c r="E181" t="n">
-        <v>19.936389923096</v>
+        <v>19.947292327881</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G181" t="n">
@@ -5327,10 +5327,10 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B182" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -5338,10 +5338,10 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>50.014812469482</v>
+        <v>50.067295074463</v>
       </c>
       <c r="E182" t="n">
-        <v>19.944339752197</v>
+        <v>20.004201889038</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -5349,42 +5349,42 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B183" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>50.079208374023</v>
+        <v>50.063625335693</v>
       </c>
       <c r="E183" t="n">
-        <v>20.064306259155</v>
+        <v>19.932708740234</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Kombinat</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B184" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -5392,26 +5392,26 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>50.097930908203</v>
+        <v>50.01549911499</v>
       </c>
       <c r="E184" t="n">
-        <v>19.955902099609</v>
+        <v>20.023263931274</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Mistrzejowice</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B185" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -5419,26 +5419,26 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>50.015655517578</v>
+        <v>50.077362060547</v>
       </c>
       <c r="E185" t="n">
-        <v>20.023750305176</v>
+        <v>19.901319503784</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Mistrzejowice</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B186" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -5446,14 +5446,14 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>50.0126953125</v>
+        <v>50.038570404053</v>
       </c>
       <c r="E186" t="n">
-        <v>19.927881240845</v>
+        <v>19.964895248413</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G186" t="n">
@@ -5462,10 +5462,10 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B187" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -5473,14 +5473,14 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>50.072441101074</v>
+        <v>50.015678405762</v>
       </c>
       <c r="E187" t="n">
-        <v>20.02833366394</v>
+        <v>20.024097442627</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G187" t="n">
@@ -5489,10 +5489,10 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B188" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -5500,26 +5500,26 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>50.067886352539</v>
+        <v>50.049392700195</v>
       </c>
       <c r="E188" t="n">
-        <v>19.945207595825</v>
+        <v>19.966667175293</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B189" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -5527,23 +5527,23 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>50.044723510742</v>
+        <v>50.023696899414</v>
       </c>
       <c r="E189" t="n">
-        <v>19.973785400391</v>
+        <v>19.901527404785</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B190" t="n">
         <v>14</v>
@@ -5554,10 +5554,10 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>50.065223693848</v>
+        <v>50.094787597656</v>
       </c>
       <c r="E190" t="n">
-        <v>19.952257156372</v>
+        <v>19.996492385864</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -5565,15 +5565,15 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B191" t="n">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -5581,26 +5581,26 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>50.074378967285</v>
+        <v>50.065494537354</v>
       </c>
       <c r="E191" t="n">
-        <v>20.004131317139</v>
+        <v>19.958541870117</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Os.Piastów</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G191" t="n">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B192" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -5608,26 +5608,26 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>50.044742584229</v>
+        <v>50.04891204834</v>
       </c>
       <c r="E192" t="n">
-        <v>19.956666946411</v>
+        <v>19.968021392822</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B193" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -5635,26 +5635,26 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>50.039894104004</v>
+        <v>50.066200256348</v>
       </c>
       <c r="E193" t="n">
-        <v>19.942361831665</v>
+        <v>19.936424255371</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Pleszów</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B194" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -5662,26 +5662,26 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>50.024562835693</v>
+        <v>50.013835906982</v>
       </c>
       <c r="E194" t="n">
-        <v>19.902187347412</v>
+        <v>19.965068817139</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Os.Piastów</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B195" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -5689,53 +5689,53 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>50.072647094727</v>
+        <v>50.088798522949</v>
       </c>
       <c r="E195" t="n">
-        <v>20.037118911743</v>
+        <v>19.93274307251</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B196" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>35 minutes ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>50.081600189209</v>
+        <v>50.095901489258</v>
       </c>
       <c r="E196" t="n">
-        <v>19.882291793823</v>
+        <v>19.948055267334</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B197" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -5743,26 +5743,26 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>50.059844970703</v>
+        <v>50.082145690918</v>
       </c>
       <c r="E197" t="n">
-        <v>19.973611831665</v>
+        <v>19.88295173645</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Bronowice Małe</t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B198" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -5770,26 +5770,26 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>50.03137588501</v>
+        <v>50.02360534668</v>
       </c>
       <c r="E198" t="n">
-        <v>19.934965133667</v>
+        <v>19.979131698608</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>801</v>
+        <v>744</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B199" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -5797,26 +5797,26 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>50.068252563477</v>
+        <v>50.054470062256</v>
       </c>
       <c r="E199" t="n">
-        <v>19.927534103394</v>
+        <v>19.939687728882</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G199" t="n">
-        <v>803</v>
+        <v>745</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B200" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -5824,26 +5824,26 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>50.095039367676</v>
+        <v>50.031600952148</v>
       </c>
       <c r="E200" t="n">
-        <v>19.996353149414</v>
+        <v>19.934061050415</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B201" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -5851,37 +5851,37 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>50.036884307861</v>
+        <v>50.075859069824</v>
       </c>
       <c r="E201" t="n">
-        <v>19.940763473511</v>
+        <v>19.940450668335</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B202" t="n">
         <v>8</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>47 minutes ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>50.012741088867</v>
+        <v>50.024494171143</v>
       </c>
       <c r="E202" t="n">
-        <v>19.927639007568</v>
+        <v>19.933889389038</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -5889,39 +5889,39 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B203" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>50.07303237915</v>
+        <v>50.072124481201</v>
       </c>
       <c r="E203" t="n">
-        <v>19.915174484253</v>
+        <v>20.030832290649</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B204" t="n">
         <v>8</v>
@@ -5932,26 +5932,26 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>50.04487991333</v>
+        <v>50.012649536133</v>
       </c>
       <c r="E204" t="n">
-        <v>19.945659637451</v>
+        <v>19.927639007568</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B205" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -5959,64 +5959,64 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>50.031875610352</v>
+        <v>50.081691741943</v>
       </c>
       <c r="E205" t="n">
-        <v>19.933784484863</v>
+        <v>19.881666183472</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Mistrzejowice</t>
+          <t>Bronowice Małe</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B206" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>19 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>50.012672424316</v>
+        <v>50.079616546631</v>
       </c>
       <c r="E206" t="n">
-        <v>19.927673339844</v>
+        <v>20.027082443237</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B207" t="n">
         <v>8</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>28 minutes ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>50.0126953125</v>
+        <v>50.063991546631</v>
       </c>
       <c r="E207" t="n">
-        <v>19.927604675293</v>
+        <v>19.932500839233</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -6024,12 +6024,12 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B208" t="n">
         <v>8</v>
@@ -6040,10 +6040,10 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>50.013198852539</v>
+        <v>50.047023773193</v>
       </c>
       <c r="E208" t="n">
-        <v>19.926874160767</v>
+        <v>19.943923950195</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -6051,80 +6051,80 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B209" t="n">
         <v>8</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>50.013061523438</v>
+        <v>50.081371307373</v>
       </c>
       <c r="E209" t="n">
-        <v>19.927188873291</v>
+        <v>19.889617919922</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Bronowice Małe</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B210" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>11 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>50.031509399414</v>
+        <v>50.059001922607</v>
       </c>
       <c r="E210" t="n">
-        <v>19.933923721313</v>
+        <v>19.933818817139</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Bronowice Małe</t>
         </is>
       </c>
       <c r="G210" t="n">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B211" t="n">
         <v>8</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>50.081893920898</v>
+        <v>50.012649536133</v>
       </c>
       <c r="E211" t="n">
-        <v>19.881944656372</v>
+        <v>19.927639007568</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -6132,80 +6132,80 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B212" t="n">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>11 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>50.031463623047</v>
+        <v>50.044059753418</v>
       </c>
       <c r="E212" t="n">
-        <v>19.933889389038</v>
+        <v>19.94673538208</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Os.Piastów</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B213" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>50.012535095215</v>
+        <v>50.094764709473</v>
       </c>
       <c r="E213" t="n">
-        <v>19.927604675293</v>
+        <v>19.995590209961</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Mistrzejowice</t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B214" t="n">
         <v>8</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>2 days ago</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>50.075859069824</v>
+        <v>50.013061523438</v>
       </c>
       <c r="E214" t="n">
-        <v>19.905902862549</v>
+        <v>19.927118301392</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -6213,15 +6213,15 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B215" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -6229,53 +6229,53 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>50.095081329346</v>
+        <v>50.051189422607</v>
       </c>
       <c r="E215" t="n">
-        <v>19.996284484863</v>
+        <v>19.942188262939</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B216" t="n">
         <v>8</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>2 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>50.014587402344</v>
+        <v>50.01326751709</v>
       </c>
       <c r="E216" t="n">
-        <v>19.926910400391</v>
+        <v>19.92677116394</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Bronowice Małe</t>
         </is>
       </c>
       <c r="G216" t="n">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B217" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -6283,26 +6283,26 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>50.029960632324</v>
+        <v>50.066566467285</v>
       </c>
       <c r="E217" t="n">
-        <v>19.936319351196</v>
+        <v>19.929306030273</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Mistrzejowice</t>
+          <t>Bronowice Małe</t>
         </is>
       </c>
       <c r="G217" t="n">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B218" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -6310,26 +6310,26 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>50.081531524658</v>
+        <v>50.074241638184</v>
       </c>
       <c r="E218" t="n">
-        <v>19.881492614746</v>
+        <v>19.910034179688</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G218" t="n">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B219" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -6337,10 +6337,10 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>50.063583374023</v>
+        <v>50.046772003174</v>
       </c>
       <c r="E219" t="n">
-        <v>19.945035934448</v>
+        <v>19.943853378296</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -6348,15 +6348,15 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>827</v>
+        <v>822</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B220" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -6364,26 +6364,26 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>50.045745849609</v>
+        <v>50.095790863037</v>
       </c>
       <c r="E220" t="n">
-        <v>19.922361373901</v>
+        <v>19.948818206787</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G220" t="n">
-        <v>828</v>
+        <v>823</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B221" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -6391,77 +6391,77 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>50.012924194336</v>
+        <v>50.031261444092</v>
       </c>
       <c r="E221" t="n">
-        <v>19.94836807251</v>
+        <v>19.932811737061</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Bronowice Małe</t>
         </is>
       </c>
       <c r="G221" t="n">
-        <v>832</v>
+        <v>824</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B222" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>50.08332824707</v>
+        <v>50.012741088867</v>
       </c>
       <c r="E222" t="n">
-        <v>19.934478759766</v>
+        <v>19.955312728882</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G222" t="n">
-        <v>833</v>
+        <v>826</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B223" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>5 days ago</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>50.030075073242</v>
+        <v>50.048797607422</v>
       </c>
       <c r="E223" t="n">
-        <v>19.913438796997</v>
+        <v>19.967603683472</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G223" t="n">
-        <v>834</v>
+        <v>827</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B224" t="n">
         <v>24</v>
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>50.057361602783</v>
+        <v>50.075401306152</v>
       </c>
       <c r="E224" t="n">
-        <v>19.944444656372</v>
+        <v>19.906806945801</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -6483,42 +6483,42 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>835</v>
+        <v>828</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B225" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>50.03303527832</v>
+        <v>50.033424377441</v>
       </c>
       <c r="E225" t="n">
-        <v>19.933229446411</v>
+        <v>19.97031211853</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G225" t="n">
-        <v>836</v>
+        <v>829</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B226" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -6526,26 +6526,26 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>50.057113647461</v>
+        <v>50.079345703125</v>
       </c>
       <c r="E226" t="n">
-        <v>19.958957672119</v>
+        <v>20.065208435059</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Kopiec Wandy</t>
         </is>
       </c>
       <c r="G226" t="n">
-        <v>837</v>
+        <v>830</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B227" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -6553,26 +6553,26 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>50.012809753418</v>
+        <v>50.096084594727</v>
       </c>
       <c r="E227" t="n">
-        <v>19.948818206787</v>
+        <v>19.947153091431</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G227" t="n">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B228" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -6580,53 +6580,53 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>50.068431854248</v>
+        <v>50.075790405273</v>
       </c>
       <c r="E228" t="n">
-        <v>20.009443283081</v>
+        <v>19.906145095825</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G228" t="n">
-        <v>839</v>
+        <v>833</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B229" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>12 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>50.08606338501</v>
+        <v>50.064128875732</v>
       </c>
       <c r="E229" t="n">
-        <v>20.063228607178</v>
+        <v>19.933818817139</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G229" t="n">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B230" t="n">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -6634,37 +6634,37 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>50.069549560547</v>
+        <v>50.056316375732</v>
       </c>
       <c r="E230" t="n">
-        <v>19.980693817139</v>
+        <v>19.945486068726</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G230" t="n">
-        <v>842</v>
+        <v>835</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B231" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>32 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>50.032238006592</v>
+        <v>50.058525085449</v>
       </c>
       <c r="E231" t="n">
-        <v>19.935243606567</v>
+        <v>19.948715209961</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -6672,15 +6672,15 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>843</v>
+        <v>836</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B232" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -6688,26 +6688,26 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>50.042442321777</v>
+        <v>50.082054138184</v>
       </c>
       <c r="E232" t="n">
-        <v>19.944410324097</v>
+        <v>19.934965133667</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G232" t="n">
-        <v>844</v>
+        <v>837</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B233" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -6715,26 +6715,26 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>50.01927947998</v>
+        <v>50.072853088379</v>
       </c>
       <c r="E233" t="n">
-        <v>19.987882614136</v>
+        <v>20.022256851196</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Pleszów</t>
         </is>
       </c>
       <c r="G233" t="n">
-        <v>845</v>
+        <v>838</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B234" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -6742,26 +6742,26 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>50.080642700195</v>
+        <v>50.068431854248</v>
       </c>
       <c r="E234" t="n">
-        <v>19.9375</v>
+        <v>20.009443283081</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G234" t="n">
-        <v>846</v>
+        <v>839</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B235" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -6769,26 +6769,26 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>50.056201934814</v>
+        <v>50.012832641602</v>
       </c>
       <c r="E235" t="n">
-        <v>19.945589065552</v>
+        <v>19.92798614502</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G235" t="n">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B236" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -6796,53 +6796,53 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>50.066223144531</v>
+        <v>50.054401397705</v>
       </c>
       <c r="E236" t="n">
-        <v>19.937673568726</v>
+        <v>19.959896087646</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Mistrzejowice</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G236" t="n">
-        <v>850</v>
+        <v>842</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B237" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>59 days ago</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>50.015338897705</v>
+        <v>50.032238006592</v>
       </c>
       <c r="E237" t="n">
-        <v>19.996145248413</v>
+        <v>19.935243606567</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Mistrzejowice</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G237" t="n">
-        <v>851</v>
+        <v>843</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="B238" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -6850,26 +6850,26 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>50.077133178711</v>
+        <v>50.041736602783</v>
       </c>
       <c r="E238" t="n">
-        <v>19.901424407959</v>
+        <v>19.943332672119</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Bronowice</t>
+          <t>Pleszów</t>
         </is>
       </c>
       <c r="G238" t="n">
-        <v>852</v>
+        <v>844</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B239" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -6877,26 +6877,26 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>50.015270233154</v>
+        <v>50.016452789307</v>
       </c>
       <c r="E239" t="n">
-        <v>19.971353530884</v>
+        <v>20.007188796997</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G239" t="n">
-        <v>855</v>
+        <v>846</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B240" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -6904,26 +6904,26 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>50.094787597656</v>
+        <v>50.054039001465</v>
       </c>
       <c r="E240" t="n">
-        <v>19.995937347412</v>
+        <v>19.948020935059</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Mistrzejowice</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G240" t="n">
-        <v>856</v>
+        <v>847</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B241" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -6931,53 +6931,53 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>50.071895599365</v>
+        <v>50.043125152588</v>
       </c>
       <c r="E241" t="n">
-        <v>19.944999694824</v>
+        <v>19.960069656372</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G241" t="n">
-        <v>857</v>
+        <v>850</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B242" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>50.084922790527</v>
+        <v>50.078956604004</v>
       </c>
       <c r="E242" t="n">
-        <v>20.064409255981</v>
+        <v>20.062881469727</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G242" t="n">
-        <v>858</v>
+        <v>851</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B243" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -6985,26 +6985,26 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>50.065540313721</v>
+        <v>50.05046081543</v>
       </c>
       <c r="E243" t="n">
-        <v>19.956874847412</v>
+        <v>19.9372215271</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Pleszów</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G243" t="n">
-        <v>859</v>
+        <v>852</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B244" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -7012,26 +7012,26 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>50.104583740234</v>
+        <v>50.102600097656</v>
       </c>
       <c r="E244" t="n">
-        <v>19.96427154541</v>
+        <v>20.011632919312</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G244" t="n">
-        <v>860</v>
+        <v>853</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B245" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -7039,23 +7039,23 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>50.07396697998</v>
+        <v>50.058547973633</v>
       </c>
       <c r="E245" t="n">
-        <v>20.000728607178</v>
+        <v>19.9534034729</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Mistrzejowice</t>
+          <t>Kopiec Wandy</t>
         </is>
       </c>
       <c r="G245" t="n">
-        <v>861</v>
+        <v>855</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B246" t="n">
         <v>9</v>
@@ -7066,10 +7066,10 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>50.094421386719</v>
+        <v>50.016887664795</v>
       </c>
       <c r="E246" t="n">
-        <v>20.011110305786</v>
+        <v>19.9921875</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -7077,15 +7077,15 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>862</v>
+        <v>856</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B247" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -7093,10 +7093,10 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>50.05884552002</v>
+        <v>50.09232711792</v>
       </c>
       <c r="E247" t="n">
-        <v>19.962778091431</v>
+        <v>20.015972137451</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -7104,42 +7104,42 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>864</v>
+        <v>857</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B248" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>33 minutes ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>50.088523864746</v>
+        <v>50.060436248779</v>
       </c>
       <c r="E248" t="n">
-        <v>19.931457519531</v>
+        <v>19.971250534058</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Krowodrza G. P+R</t>
+          <t>Bronowice</t>
         </is>
       </c>
       <c r="G248" t="n">
-        <v>866</v>
+        <v>858</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B249" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -7147,26 +7147,26 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>50.057384490967</v>
+        <v>50.089660644531</v>
       </c>
       <c r="E249" t="n">
-        <v>19.946214675903</v>
+        <v>19.93260383606</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Kopiec Wandy</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G249" t="n">
-        <v>867</v>
+        <v>859</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B250" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -7174,26 +7174,26 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>50.024154663086</v>
+        <v>50.019462585449</v>
       </c>
       <c r="E250" t="n">
-        <v>19.97989654541</v>
+        <v>19.987674713135</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Mistrzejowice</t>
         </is>
       </c>
       <c r="G250" t="n">
-        <v>868</v>
+        <v>860</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B251" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -7201,26 +7201,26 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>50.027137756348</v>
+        <v>50.072395324707</v>
       </c>
       <c r="E251" t="n">
-        <v>19.976493835449</v>
+        <v>20.11732673645</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Pleszów</t>
         </is>
       </c>
       <c r="G251" t="n">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B252" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -7228,23 +7228,23 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>50.075996398926</v>
+        <v>50.023582458496</v>
       </c>
       <c r="E252" t="n">
-        <v>19.940624237061</v>
+        <v>19.979028701782</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G252" t="n">
-        <v>871</v>
+        <v>862</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B253" t="n">
         <v>18</v>
@@ -7255,26 +7255,26 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>50.094333648682</v>
+        <v>50.103988647461</v>
       </c>
       <c r="E253" t="n">
-        <v>19.928785324097</v>
+        <v>19.963680267334</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G253" t="n">
-        <v>872</v>
+        <v>863</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B254" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -7282,26 +7282,26 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>50.012969970703</v>
+        <v>50.076179504395</v>
       </c>
       <c r="E254" t="n">
-        <v>19.928056716919</v>
+        <v>19.94055557251</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G254" t="n">
-        <v>874</v>
+        <v>864</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B255" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -7309,26 +7309,26 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>50.065334320068</v>
+        <v>50.07396697998</v>
       </c>
       <c r="E255" t="n">
-        <v>19.953681945801</v>
+        <v>19.998785018921</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G255" t="n">
-        <v>875</v>
+        <v>865</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="B256" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -7336,10 +7336,10 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>50.026683807373</v>
+        <v>50.017868041992</v>
       </c>
       <c r="E256" t="n">
-        <v>19.977014541626</v>
+        <v>19.889097213745</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -7347,15 +7347,15 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>876</v>
+        <v>866</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B257" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -7363,26 +7363,26 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>50.058547973633</v>
+        <v>50.080345153809</v>
       </c>
       <c r="E257" t="n">
-        <v>19.940902709961</v>
+        <v>20.02663230896</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Mistrzejowice</t>
         </is>
       </c>
       <c r="G257" t="n">
-        <v>877</v>
+        <v>867</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B258" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -7390,10 +7390,10 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>50.063079833984</v>
+        <v>50.057476043701</v>
       </c>
       <c r="E258" t="n">
-        <v>19.932674407959</v>
+        <v>19.959028244019</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -7401,15 +7401,15 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>878</v>
+        <v>868</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="B259" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -7417,26 +7417,26 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>50.088798522949</v>
+        <v>50.069595336914</v>
       </c>
       <c r="E259" t="n">
-        <v>19.93274307251</v>
+        <v>19.937604904175</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Nowy Bieżanów P+R</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G259" t="n">
-        <v>879</v>
+        <v>869</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B260" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -7444,10 +7444,10 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>50.054286956787</v>
+        <v>50.013198852539</v>
       </c>
       <c r="E260" t="n">
-        <v>19.939340591431</v>
+        <v>19.928020477295</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -7455,15 +7455,15 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>880</v>
+        <v>870</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="B261" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -7471,26 +7471,26 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>50.022125244141</v>
+        <v>50.063514709473</v>
       </c>
       <c r="E261" t="n">
-        <v>19.899965286255</v>
+        <v>19.932846069336</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Mistrzejowice</t>
         </is>
       </c>
       <c r="G261" t="n">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B262" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -7498,26 +7498,26 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>50.030326843262</v>
+        <v>50.103740692139</v>
       </c>
       <c r="E262" t="n">
-        <v>19.925312042236</v>
+        <v>19.963611602783</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G262" t="n">
-        <v>882</v>
+        <v>872</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B263" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -7525,26 +7525,26 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>50.03044128418</v>
+        <v>50.094787597656</v>
       </c>
       <c r="E263" t="n">
-        <v>19.929027557373</v>
+        <v>19.935693740845</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Kopiec Wandy</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G263" t="n">
-        <v>883</v>
+        <v>873</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B264" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -7552,26 +7552,26 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>50.072170257568</v>
+        <v>50.069480895996</v>
       </c>
       <c r="E264" t="n">
-        <v>20.064306259155</v>
+        <v>19.945104598999</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Kopiec Wandy</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G264" t="n">
-        <v>884</v>
+        <v>874</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B265" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -7579,23 +7579,23 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>50.072326660156</v>
+        <v>50.059322357178</v>
       </c>
       <c r="E265" t="n">
-        <v>20.029167175293</v>
+        <v>19.933090209961</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Pleszów</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G265" t="n">
-        <v>885</v>
+        <v>875</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B266" t="n">
         <v>18</v>
@@ -7606,10 +7606,10 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>50.09549331665</v>
+        <v>50.045154571533</v>
       </c>
       <c r="E266" t="n">
-        <v>19.93302154541</v>
+        <v>19.921770095825</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -7617,42 +7617,42 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>886</v>
+        <v>877</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="B267" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>50.072578430176</v>
+        <v>50.046657562256</v>
       </c>
       <c r="E267" t="n">
-        <v>20.116840362549</v>
+        <v>19.955242156982</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G267" t="n">
-        <v>887</v>
+        <v>878</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B268" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -7660,50 +7660,50 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>50.103897094727</v>
+        <v>50.093852996826</v>
       </c>
       <c r="E268" t="n">
-        <v>19.963680267334</v>
+        <v>20.00475692749</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Papierni Prądnickich</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G268" t="n">
-        <v>889</v>
+        <v>879</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B269" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>25 days ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>50.033515930176</v>
+        <v>50.027137756348</v>
       </c>
       <c r="E269" t="n">
-        <v>19.938646316528</v>
+        <v>19.976493835449</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Nowy Bieżanów P+R</t>
         </is>
       </c>
       <c r="G269" t="n">
-        <v>899</v>
+        <v>880</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="B270" t="n">
         <v>24</v>
@@ -7714,10 +7714,10 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>50.023559570312</v>
+        <v>50.025588989258</v>
       </c>
       <c r="E270" t="n">
-        <v>19.979200363159</v>
+        <v>19.978160858154</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -7725,15 +7725,15 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>902</v>
+        <v>881</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="B271" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -7741,26 +7741,26 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>50.073535919189</v>
+        <v>50.033470153809</v>
       </c>
       <c r="E271" t="n">
-        <v>19.990139007568</v>
+        <v>19.925798416138</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G271" t="n">
-        <v>903</v>
+        <v>882</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B272" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -7768,26 +7768,26 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>50.099868774414</v>
+        <v>50.074081420898</v>
       </c>
       <c r="E272" t="n">
-        <v>19.956735610962</v>
+        <v>20.009479522705</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Mistrzejowice</t>
         </is>
       </c>
       <c r="G272" t="n">
-        <v>904</v>
+        <v>883</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="B273" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -7795,26 +7795,26 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>50.070507049561</v>
+        <v>50.09016418457</v>
       </c>
       <c r="E273" t="n">
-        <v>19.924236297607</v>
+        <v>19.932811737061</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Zaj. Nowa Huta</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G273" t="n">
-        <v>906</v>
+        <v>884</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="B274" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -7822,53 +7822,53 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>50.077056</v>
+        <v>50.014175415039</v>
       </c>
       <c r="E274" t="n">
-        <v>19.902898</v>
+        <v>19.947778701782</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Pleszów</t>
         </is>
       </c>
       <c r="G274" t="n">
-        <v>907</v>
+        <v>885</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="B275" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>19 hours ago</t>
+          <t>now</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>50.081802368164</v>
+        <v>50.044540405273</v>
       </c>
       <c r="E275" t="n">
-        <v>19.881944656372</v>
+        <v>19.973785400391</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G275" t="n">
-        <v>908</v>
+        <v>886</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="B276" t="n">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -7876,26 +7876,26 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>50.064197540283</v>
+        <v>50.01549911499</v>
       </c>
       <c r="E276" t="n">
-        <v>19.944965362549</v>
+        <v>20.023332595825</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Os.Piastów</t>
+          <t>Krowodrza G. P+R</t>
         </is>
       </c>
       <c r="G276" t="n">
-        <v>909</v>
+        <v>887</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="B277" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -7903,10 +7903,10 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>50.020328521729</v>
+        <v>50.03018951416</v>
       </c>
       <c r="E277" t="n">
-        <v>19.93430519104</v>
+        <v>19.913715362549</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -7914,15 +7914,15 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>910</v>
+        <v>888</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B278" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -7930,50 +7930,50 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>50.079208374023</v>
+        <v>50.06665802002</v>
       </c>
       <c r="E278" t="n">
-        <v>19.896806716919</v>
+        <v>19.95802116394</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Kurdwanów P+R</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G278" t="n">
-        <v>913</v>
+        <v>889</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="B279" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>52 days ago</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>50.012672424316</v>
+        <v>50.033515930176</v>
       </c>
       <c r="E279" t="n">
-        <v>19.927499771118</v>
+        <v>19.938646316528</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G279" t="n">
-        <v>914</v>
+        <v>899</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B280" t="n">
         <v>52</v>
@@ -7984,26 +7984,26 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>50.064605712891</v>
+        <v>50.026317596436</v>
       </c>
       <c r="E280" t="n">
-        <v>19.945625305176</v>
+        <v>19.903749465942</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Os.Piastów</t>
         </is>
       </c>
       <c r="G280" t="n">
-        <v>915</v>
+        <v>901</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B281" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -8011,26 +8011,26 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>50.084598</v>
+        <v>50.072124481201</v>
       </c>
       <c r="E281" t="n">
-        <v>20.02047</v>
+        <v>19.945138931274</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Os.Piastów</t>
+          <t>Borek Fałęcki</t>
         </is>
       </c>
       <c r="G281" t="n">
-        <v>916</v>
+        <v>903</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="B282" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -8038,23 +8038,23 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>50.036581</v>
+        <v>50.056610107422</v>
       </c>
       <c r="E282" t="n">
-        <v>19.925802</v>
+        <v>19.945346832275</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Os.Piastów</t>
+          <t>Bronowice Małe</t>
         </is>
       </c>
       <c r="G282" t="n">
-        <v>918</v>
+        <v>904</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B283" t="n">
         <v>52</v>
@@ -8065,26 +8065,26 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>50.0876121521</v>
+        <v>50.102554321289</v>
       </c>
       <c r="E283" t="n">
-        <v>20.020311355591</v>
+        <v>20.012083053589</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Os.Piastów</t>
         </is>
       </c>
       <c r="G283" t="n">
-        <v>919</v>
+        <v>906</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="B284" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -8092,53 +8092,53 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>50.073444366455</v>
+        <v>50.013021</v>
       </c>
       <c r="E284" t="n">
-        <v>20.016700744629</v>
+        <v>19.948885</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Zaj. Nowa Huta</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G284" t="n">
-        <v>922</v>
+        <v>907</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="B285" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>4 days ago</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>50.080253601074</v>
+        <v>50.031669616699</v>
       </c>
       <c r="E285" t="n">
-        <v>20.026527404785</v>
+        <v>19.934757232666</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Os.Piastów</t>
+          <t>Kurdwanów P+R</t>
         </is>
       </c>
       <c r="G285" t="n">
-        <v>923</v>
+        <v>908</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B286" t="n">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -8146,53 +8146,53 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>50.024337768555</v>
+        <v>50.066543579102</v>
       </c>
       <c r="E286" t="n">
-        <v>19.901666641235</v>
+        <v>19.968854904175</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>Czerwone Maki P+R</t>
+          <t>Zaj. Nowa Huta</t>
         </is>
       </c>
       <c r="G286" t="n">
-        <v>924</v>
+        <v>909</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="B287" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>now</t>
+          <t>15 days ago</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>50.039527893066</v>
+        <v>50.052169799805</v>
       </c>
       <c r="E287" t="n">
-        <v>19.982917785645</v>
+        <v>19.942222595215</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>Borek Fałęcki</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G287" t="n">
-        <v>925</v>
+        <v>910</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="B288" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -8200,23 +8200,23 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>50.050941467285</v>
+        <v>50.081554412842</v>
       </c>
       <c r="E288" t="n">
-        <v>19.940521240234</v>
+        <v>19.881492614746</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Os.Piastów</t>
+          <t>Bronowice Małe</t>
         </is>
       </c>
       <c r="G288" t="n">
-        <v>927</v>
+        <v>911</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="B289" t="n">
         <v>4</v>
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>50.066200256348</v>
+        <v>50.064674377441</v>
       </c>
       <c r="E289" t="n">
-        <v>19.937326431274</v>
+        <v>19.931596755981</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -8238,15 +8238,15 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>930</v>
+        <v>912</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="B290" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -8254,26 +8254,26 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>50.082054138184</v>
+        <v>50.040691375732</v>
       </c>
       <c r="E290" t="n">
-        <v>19.881978988647</v>
+        <v>19.981492996216</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Papierni Prądnickich</t>
         </is>
       </c>
       <c r="G290" t="n">
-        <v>931</v>
+        <v>913</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="B291" t="n">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
@@ -8281,23 +8281,23 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>50.076633453369</v>
+        <v>50.081893920898</v>
       </c>
       <c r="E291" t="n">
-        <v>20.053993225098</v>
+        <v>20.024375915527</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Bronowice Małe</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G291" t="n">
-        <v>932</v>
+        <v>918</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="B292" t="n">
         <v>4</v>
@@ -8308,10 +8308,10 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>50.085948944092</v>
+        <v>50.081848144531</v>
       </c>
       <c r="E292" t="n">
-        <v>20.063125610352</v>
+        <v>19.882013320923</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -8319,15 +8319,15 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>933</v>
+        <v>919</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="B293" t="n">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -8335,44 +8335,368 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>50.066749572754</v>
+        <v>50.074334</v>
       </c>
       <c r="E293" t="n">
-        <v>19.97486114502</v>
+        <v>20.004874</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>Zaj. Nowa Huta</t>
+          <t>Czerwone Maki P+R</t>
         </is>
       </c>
       <c r="G293" t="n">
-        <v>934</v>
+        <v>920</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="B294" t="n">
+        <v>52</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>50.052215576172</v>
+      </c>
+      <c r="E294" t="n">
+        <v>19.942153930664</v>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>Czerwone Maki P+R</t>
+        </is>
+      </c>
+      <c r="G294" t="n">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B295" t="n">
+        <v>52</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>50.101734161377</v>
+      </c>
+      <c r="E295" t="n">
+        <v>20.012535095215</v>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>Czerwone Maki P+R</t>
+        </is>
+      </c>
+      <c r="G295" t="n">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B296" t="n">
+        <v>52</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>50.01834487915</v>
+      </c>
+      <c r="E296" t="n">
+        <v>19.888681411743</v>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>Czerwone Maki P+R</t>
+        </is>
+      </c>
+      <c r="G296" t="n">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B297" t="n">
+        <v>52</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>50.050552368164</v>
+      </c>
+      <c r="E297" t="n">
+        <v>19.938228607178</v>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>Os.Piastów</t>
+        </is>
+      </c>
+      <c r="G297" t="n">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B298" t="n">
         <v>4</v>
       </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D294" t="n">
-        <v>50.081871032715</v>
-      </c>
-      <c r="E294" t="n">
-        <v>19.882013320923</v>
-      </c>
-      <c r="F294" t="inlineStr">
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>50.071895599365</v>
+      </c>
+      <c r="E298" t="n">
+        <v>20.033090591431</v>
+      </c>
+      <c r="F298" t="inlineStr">
         <is>
           <t>Zaj. Nowa Huta</t>
         </is>
       </c>
-      <c r="G294" t="n">
+      <c r="G298" t="n">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B299" t="n">
+        <v>50</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>50.016159057617</v>
+      </c>
+      <c r="E299" t="n">
+        <v>19.974653244019</v>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>Papierni Prądnickich</t>
+        </is>
+      </c>
+      <c r="G299" t="n">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B300" t="n">
+        <v>4</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>50.081985473633</v>
+      </c>
+      <c r="E300" t="n">
+        <v>19.885520935059</v>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>Bronowice Małe</t>
+        </is>
+      </c>
+      <c r="G300" t="n">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B301" t="n">
+        <v>52</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>50.082374572754</v>
+      </c>
+      <c r="E301" t="n">
+        <v>20.023750305176</v>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>Os.Piastów</t>
+        </is>
+      </c>
+      <c r="G301" t="n">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B302" t="n">
+        <v>4</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>50.08544921875</v>
+      </c>
+      <c r="E302" t="n">
+        <v>20.063646316528</v>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>Bronowice Małe</t>
+        </is>
+      </c>
+      <c r="G302" t="n">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B303" t="n">
+        <v>4</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>50.074264526367</v>
+      </c>
+      <c r="E303" t="n">
+        <v>20.00447845459</v>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Bronowice Małe</t>
+        </is>
+      </c>
+      <c r="G303" t="n">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B304" t="n">
+        <v>52</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>50.067180633545</v>
+      </c>
+      <c r="E304" t="n">
+        <v>19.976215362549</v>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>Os.Piastów</t>
+        </is>
+      </c>
+      <c r="G304" t="n">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B305" t="n">
+        <v>4</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>50.075927734375</v>
+      </c>
+      <c r="E305" t="n">
+        <v>20.05135345459</v>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>Bronowice Małe</t>
+        </is>
+      </c>
+      <c r="G305" t="n">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B306" t="n">
+        <v>4</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>50.069664001465</v>
+      </c>
+      <c r="E306" t="n">
+        <v>19.925937652588</v>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>Zaj. Nowa Huta</t>
+        </is>
+      </c>
+      <c r="G306" t="n">
         <v>999</v>
       </c>
     </row>
